--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFF6BB-6347-2B4E-8486-13213699E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB35FE6-A7B7-3F4B-B5EE-9C15161DBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16040" yWindow="-22780" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1263">
   <si>
     <t>address</t>
   </si>
@@ -744,9 +744,6 @@
     <t>S1-022</t>
   </si>
   <si>
-    <t>S1-024</t>
-  </si>
-  <si>
     <t>S1-025</t>
   </si>
   <si>
@@ -756,9 +753,6 @@
     <t>SHO-S1-022.jpeg</t>
   </si>
   <si>
-    <t>SHO-S1-024.jpeg</t>
-  </si>
-  <si>
     <t>SHO-S1-025.jpeg</t>
   </si>
   <si>
@@ -768,9 +762,6 @@
     <t>SHO-S1-022L.jpeg</t>
   </si>
   <si>
-    <t>SHO-S1-024L.jpeg</t>
-  </si>
-  <si>
     <t>SHO-S1-025L.jpeg</t>
   </si>
   <si>
@@ -801,22 +792,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>穀米植研所</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%E7%A9%80%E7%B1%B3%E6%A4%8D%E7%A0%94%E6%89%80(%E5%B3%B6%E5%B6%BC%E5%A5%BD%E9%A3%9F%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8)/@25.0545848,121.3814087,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7058087894b:0x9e820a770b09a054!8m2!3d25.0545848!4d121.3839836!16s%2Fg%2F11rv5d4_nv?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>0906-850-311</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://goomi.boostime.me/</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>憲光跆拳道長庚館</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4297,10 +4272,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>10:00 - 18:00 週三公休 週六日出攤</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂學路590巷26號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4338,10 +4309,6 @@
   </si>
   <si>
     <t>桃園市龜山區長慶二街9號1樓</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區長慶二街81號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -4445,6 +4412,239 @@
   </si>
   <si>
     <t>琍都造型LiDo</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-8903</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61551556696355</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻轉體能 枯木逢春桃園</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-039</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-039.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-039L.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E7%BF%BB%E8%BD%89%E9%AB%94%E8%83%BD+%E6%9E%AF%E6%9C%A8%E9%80%A2%E6%98%A5%E6%A1%83%E5%9C%92/@25.0549286,121.3844155,21z/data=!4m14!1m7!3m6!1s0x3442a7cbf3667b0f:0x7a14b59074c06479!2z6Iqv57696Jel5bGALem-nOWxseWEquizquiXpeWxgHzlsIjmpa3ol6XluKt85o6o6Jam6Jel5bGAfOS_neWBpeWTgeirruiponzmhaLmgKfomZXmlrnnrot85bCI5qWt6Kuu6Kmi6Jel5bir!8m2!3d25.055484!4d121.3844562!16s%2Fg%2F11y227fbkf!3m5!1s0x3442a7c06badacdb:0x6e8345391c0b89e6!8m2!3d25.0549078!4d121.3845325!16s%2Fg%2F11rr0ssj5r?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.樂善國小</t>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街107號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00 - 20:00, 週日10:00 - 17:00 周五六公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@448xbdls</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BEFlipSC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beflipsc/?fbclid=IwAR3rFOKeW2iO3LW4ovaDM3QilqERMYpSLGZbg4m62eOuYMG97ijpejKmRfE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4-011</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>global art龜山樂善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/global+art%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84/@25.0457874,121.3877473,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ade53c1c93:0x78f8e1d2396c321c!8m2!3d25.0457826!4d121.3926182!16s%2Fg%2F11y28yyh07?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂善二路830號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0938-636-169</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 20:00 週六10:00 - 17:00 週日一公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S4-011.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S4-011L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100094677687625</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.globalart.world/?fbclid=IwAR1IviO7h7een3dpRXmSeR8uod5bpHdLxdTFEWAnRfTHYkHr2EmCpYfsyFM</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3-019</t>
+  </si>
+  <si>
+    <t>S3-020</t>
+  </si>
+  <si>
+    <t>S3-021</t>
+  </si>
+  <si>
+    <t>S3-022</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E7%91%9E%E9%BA%9F%E7%BE%8E%E8%80%8C%E7%BE%8E+%E9%BE%9C%E5%B1%B1%E7%AB%B9%E5%9F%8E%E7%94%B2%E5%AD%90%E5%9C%92%E5%BA%97/@25.0481287,121.3819062,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7dce84c1fc1:0x2d1d4ceea3913ff0!8m2!3d25.0481239!4d121.3844811!16s%2Fg%2F11l5jtskzm?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞麟美而美</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路290號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-3280</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:30 - 13:30 週一公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-019.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-020.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-021.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-022.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-019L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-020L.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-021L.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S3-022L.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Eva+hair/@25.029286,121.3860166,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a72980cb37cf:0xb1d39673aa8c54d7!8m2!3d25.0292812!4d121.3885915!16s%2Fg%2F11sdsx0_k3?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVA Hair 髮廊</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路286號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 18:00 週六日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓁好蔬果1號店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路286號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:00 週六11:00 - 18:00 週日一公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/ti/g2/OLNpD6pPMwGHTJPhi2_ldEAI6gaFuj6d9vH53w?utm_source=invitation&amp;utm_medium=link_copy&amp;utm_campaign=default</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>鵝妹莉卡 生活日用品</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路282號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0983-595-172</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 20:00 週日00:00 - 20:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5-077</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%BB%91%E7%AE%B1%E4%BD%9C%E6%A5%ADBlack+Suitcase+-%E6%A1%83%E5%9C%92%E6%8D%B7%E9%81%8BA7%E5%BA%97/@25.0388167,121.3870351,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7d4eaeb9169:0xc37c78d9b5bf00c5!8m2!3d25.0388119!4d121.38961!16s%2Fg%2F11l6jb0st7?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+  </si>
+  <si>
+    <t>SHO-S5-077.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-077L.jpeg</t>
+  </si>
+  <si>
+    <t>黑箱作業Black Suitcase</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路57號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0916-586-997</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100094124813558</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5736,13 +5936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA146"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5816,7 +6016,7 @@
         <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>18</v>
@@ -5875,7 +6075,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
@@ -5895,7 +6095,7 @@
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
@@ -5916,7 +6116,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>53</v>
@@ -5981,7 +6181,7 @@
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
@@ -6105,7 +6305,7 @@
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>60</v>
@@ -6143,7 +6343,7 @@
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>61</v>
@@ -6152,13 +6352,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>71</v>
@@ -6223,7 +6423,7 @@
         <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>147</v>
@@ -6468,13 +6668,22 @@
         <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>139</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1201</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>108</v>
@@ -6497,7 +6706,7 @@
         <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>128</v>
@@ -6527,7 +6736,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>187</v>
@@ -6539,7 +6748,7 @@
         <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>108</v>
@@ -6565,13 +6774,13 @@
         <v>149</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>108</v>
@@ -6594,10 +6803,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>131</v>
@@ -6652,7 +6861,7 @@
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>195</v>
@@ -6661,22 +6870,22 @@
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>108</v>
@@ -6688,36 +6897,33 @@
         <v>5</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1185</v>
+        <v>212</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1174</v>
+        <v>214</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>108</v>
@@ -6728,34 +6934,34 @@
       <c r="V24" s="13">
         <v>5</v>
       </c>
-      <c r="X24" s="2" t="s">
-        <v>214</v>
+      <c r="X24" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>108</v>
@@ -6767,33 +6973,33 @@
         <v>5</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>108</v>
@@ -6802,36 +7008,36 @@
         <v>34</v>
       </c>
       <c r="V26" s="13">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>108</v>
@@ -6840,36 +7046,36 @@
         <v>34</v>
       </c>
       <c r="V27" s="13">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>242</v>
+      <c r="I28" s="3" t="s">
+        <v>1165</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>108</v>
@@ -6878,36 +7084,36 @@
         <v>34</v>
       </c>
       <c r="V28" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1172</v>
+        <v>256</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>108</v>
@@ -6916,7 +7122,10 @@
         <v>34</v>
       </c>
       <c r="V29" s="13">
-        <v>5</v>
+        <v>3.2</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
@@ -6924,29 +7133,36 @@
         <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N30" s="3"/>
       <c r="S30" s="2" t="s">
         <v>108</v>
       </c>
@@ -6954,21 +7170,21 @@
         <v>34</v>
       </c>
       <c r="V30" s="13">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>266</v>
@@ -6980,10 +7196,10 @@
         <v>268</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>244</v>
+        <v>550</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>270</v>
@@ -6991,10 +7207,6 @@
       <c r="J31" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N31" s="3"/>
       <c r="S31" s="2" t="s">
         <v>108</v>
       </c>
@@ -7002,7 +7214,7 @@
         <v>34</v>
       </c>
       <c r="V31" s="13">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>265</v>
@@ -7010,35 +7222,39 @@
     </row>
     <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="S32" s="2" t="s">
         <v>108</v>
       </c>
@@ -7046,47 +7262,37 @@
         <v>34</v>
       </c>
       <c r="V32" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>272</v>
+        <v>5</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="20" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N33" s="3"/>
       <c r="S33" s="2" t="s">
         <v>108</v>
       </c>
@@ -7096,34 +7302,28 @@
       <c r="V33" s="13">
         <v>5</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="X33" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="20" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>303</v>
+        <v>1163</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>108</v>
@@ -7131,31 +7331,34 @@
       <c r="T34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="13">
-        <v>5</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>305</v>
+        <v>1194</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1170</v>
+        <v>300</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>289</v>
+        <v>253</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>108</v>
@@ -7163,34 +7366,31 @@
       <c r="T35" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="V35" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="36" spans="1:24" ht="20" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>1203</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>52</v>
+        <v>1178</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>108</v>
@@ -7198,31 +7398,31 @@
       <c r="T36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="37" spans="1:24" ht="20" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>310</v>
+        <v>1172</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1187</v>
+        <v>1169</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>287</v>
+        <v>1170</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>311</v>
+        <v>1171</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1173</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>108</v>
@@ -7233,4333 +7433,4577 @@
     </row>
     <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>1180</v>
+        <v>1202</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1176</v>
+        <v>1203</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1177</v>
+        <v>1208</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>327</v>
+        <v>1209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1178</v>
+        <v>1204</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>1181</v>
+        <v>1205</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>1212</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>108</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>34</v>
+        <v>1207</v>
+      </c>
+      <c r="V38" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="V39" s="13">
         <v>4.3</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="V40" s="13">
         <v>5</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="V41" s="13">
         <v>4.8</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N42" s="14"/>
       <c r="S42" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="V42" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V43" s="13">
         <v>4.3</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V44" s="13">
         <v>2.5</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V45" s="13">
         <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="N46" s="3"/>
       <c r="S46" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V46" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V47" s="13">
         <v>5</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V48" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V49" s="13">
         <v>4.2</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V50" s="13">
         <v>4.8</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V51" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V52" s="13">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V53" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V54" s="13">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V55" s="13">
         <v>5</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V57" s="13">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="S59" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V59" s="13">
         <v>3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V60" s="13">
         <v>2.1</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>518</v>
+        <v>1228</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>507</v>
+        <v>1223</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>519</v>
+        <v>1229</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>520</v>
+        <v>1230</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>521</v>
+        <v>1231</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>492</v>
+        <v>1232</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>522</v>
+        <v>1236</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="V61" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X61" s="3" t="s">
-        <v>517</v>
+        <v>3.3</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>525</v>
+        <v>1241</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>508</v>
+        <v>1224</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>526</v>
+        <v>1242</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>527</v>
+        <v>1243</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>493</v>
+        <v>1233</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>503</v>
+        <v>1237</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="V62" s="13">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>524</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>1201</v>
+        <v>1244</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>509</v>
+        <v>1225</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>530</v>
+        <v>1246</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>327</v>
+        <v>1247</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>494</v>
+        <v>1234</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>53</v>
+        <v>1238</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1248</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="V63" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>528</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>533</v>
+        <v>1250</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>510</v>
+        <v>1226</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>534</v>
+        <v>1251</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>535</v>
+        <v>1252</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>536</v>
+        <v>1253</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>495</v>
+        <v>1235</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>537</v>
+        <v>1239</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="V64" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>532</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V65" s="13">
-        <v>5</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>541</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>548</v>
+        <v>519</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V66" s="13">
         <v>5</v>
       </c>
-      <c r="X66" s="2" t="s">
-        <v>546</v>
+      <c r="X66" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>551</v>
+        <v>1192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>476</v>
+        <v>253</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V67" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>550</v>
+        <v>3.3</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>303</v>
+        <v>529</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>557</v>
+        <v>497</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V68" s="13">
-        <v>5</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>554</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>303</v>
+        <v>538</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>337</v>
+        <v>498</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V69" s="13">
         <v>5</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>327</v>
+        <v>541</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>260</v>
+        <v>499</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>53</v>
+        <v>542</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V70" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>733</v>
+        <v>544</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>672</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>734</v>
+        <v>545</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>735</v>
+        <v>546</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>566</v>
+        <v>469</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="V71" s="13">
-        <v>5</v>
-      </c>
-      <c r="X71" s="3" t="s">
-        <v>732</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>737</v>
+        <v>555</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>673</v>
+        <v>507</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>738</v>
+        <v>548</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>739</v>
+        <v>549</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="V72" s="13">
         <v>5</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>736</v>
+      <c r="X72" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>741</v>
+        <v>554</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>674</v>
+        <v>508</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>742</v>
+        <v>552</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>743</v>
+        <v>553</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>744</v>
+        <v>296</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>626</v>
+        <v>330</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="V73" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="X73" s="3" t="s">
-        <v>740</v>
+        <v>5</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>746</v>
+        <v>1192</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>675</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>747</v>
+        <v>522</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>748</v>
+        <v>523</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>749</v>
+        <v>253</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>745</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>751</v>
+        <v>1214</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>676</v>
+        <v>1213</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>752</v>
+        <v>1216</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>753</v>
+        <v>1217</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>303</v>
+        <v>1218</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>571</v>
+        <v>1219</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>557</v>
+        <v>1220</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>754</v>
+        <v>1222</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>1221</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>750</v>
+        <v>5</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>759</v>
+        <v>559</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V76" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>755</v>
+        <v>5</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>765</v>
+        <v>561</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
       </c>
-      <c r="X77" s="2" t="s">
-        <v>760</v>
+      <c r="X77" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>1193</v>
+        <v>734</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>770</v>
+        <v>619</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V78" s="13">
-        <v>4</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>766</v>
+        <v>4.3</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>775</v>
+        <v>320</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>776</v>
+        <v>251</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V79" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>779</v>
+        <v>745</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>485</v>
+        <v>550</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>747</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V80" s="13">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>785</v>
+        <v>320</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>786</v>
+        <v>752</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V81" s="13">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>792</v>
+        <v>758</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V82" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>794</v>
+        <v>1184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>461</v>
+        <v>762</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>798</v>
+        <v>304</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V83" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>793</v>
+        <v>4</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>461</v>
+        <v>768</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>804</v>
+        <v>622</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V84" s="13">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>1194</v>
+        <v>771</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>808</v>
+        <v>454</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>809</v>
+        <v>478</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>4</v>
-      </c>
-      <c r="X85" s="3" t="s">
-        <v>805</v>
+        <v>1</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>1195</v>
+        <v>775</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>811</v>
+        <v>776</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>777</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>634</v>
+        <v>624</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>822</v>
+        <v>454</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>823</v>
+        <v>791</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="X88" s="2" t="s">
-        <v>818</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T89" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="V89" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>833</v>
+        <v>625</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>829</v>
+        <v>4</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>835</v>
+        <v>1186</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>327</v>
+        <v>805</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>838</v>
+        <v>626</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>834</v>
+        <v>3.7</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>1200</v>
+        <v>807</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>327</v>
+        <v>810</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>847</v>
+        <v>628</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>850</v>
+        <v>819</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>820</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>852</v>
+        <v>550</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V94" s="13">
         <v>5</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>848</v>
+      <c r="X94" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>857</v>
+        <v>1187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>639</v>
+        <v>629</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>862</v>
+        <v>320</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>640</v>
+        <v>389</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>5</v>
-      </c>
-      <c r="X96" s="2" t="s">
-        <v>858</v>
+        <v>4</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>864</v>
+        <v>1191</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>868</v>
+        <v>320</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>869</v>
+        <v>253</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X97" s="3" t="s">
-        <v>865</v>
+        <v>4.5</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>294</v>
+        <v>839</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>874</v>
+        <v>630</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>5</v>
-      </c>
-      <c r="X98" s="3" t="s">
-        <v>870</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>879</v>
+        <v>320</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>880</v>
+        <v>631</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V99" s="13">
         <v>5</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>886</v>
+        <v>847</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>848</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>327</v>
+        <v>849</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>884</v>
+        <v>3.7</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>166</v>
+        <v>854</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>167</v>
+        <v>855</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>168</v>
+        <v>633</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>646</v>
+        <v>634</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>890</v>
+        <v>858</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>896</v>
+        <v>865</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>897</v>
+        <v>866</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>900</v>
+        <v>287</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>898</v>
+        <v>635</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>894</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>1197</v>
+        <v>869</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>902</v>
+        <v>871</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>904</v>
+        <v>875</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>905</v>
+        <v>876</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V104" s="13">
         <v>5</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>1198</v>
+        <v>878</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>908</v>
+        <v>879</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>909</v>
+        <v>320</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>910</v>
+        <v>637</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>906</v>
+        <v>877</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>914</v>
+        <v>166</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>915</v>
+        <v>167</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>650</v>
+        <v>638</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>5</v>
-      </c>
-      <c r="X106" s="3" t="s">
-        <v>911</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>918</v>
+        <v>886</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>927</v>
+        <v>639</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>929</v>
+        <v>1188</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>930</v>
+        <v>879</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>931</v>
+        <v>895</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>896</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>653</v>
+        <v>641</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="X109" s="2" t="s">
-        <v>928</v>
+        <v>557</v>
+      </c>
+      <c r="V109" s="13">
+        <v>5</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>933</v>
+        <v>1189</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>937</v>
+        <v>642</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>1199</v>
+        <v>905</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>327</v>
+        <v>908</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>941</v>
+        <v>643</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X111" s="2" t="s">
-        <v>938</v>
+        <v>5</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>327</v>
+        <v>912</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>946</v>
+        <v>644</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="X112" s="2" t="s">
-        <v>942</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X112" s="3" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>655</v>
+        <v>645</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>919</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>954</v>
+        <v>918</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>959</v>
+        <v>924</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>960</v>
+        <v>646</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="V114" s="13">
-        <v>4.4000000000000004</v>
+        <v>557</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>962</v>
+        <v>926</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>963</v>
+        <v>927</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>928</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>327</v>
+        <v>929</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>657</v>
+        <v>647</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>961</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>965</v>
+        <v>1190</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>966</v>
+        <v>932</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>933</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>967</v>
+        <v>320</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>968</v>
+        <v>253</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
+      </c>
+      <c r="V116" s="13">
+        <v>3.9</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>1208</v>
+        <v>936</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>972</v>
+        <v>320</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>659</v>
+        <v>389</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X117" s="3" t="s">
-        <v>969</v>
+        <v>3.4</v>
+      </c>
+      <c r="X117" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>1207</v>
+        <v>941</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>974</v>
+        <v>942</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>975</v>
+        <v>943</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>976</v>
+        <v>944</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>977</v>
+        <v>945</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>980</v>
+        <v>950</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="X119" s="3" t="s">
-        <v>978</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X119" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>984</v>
+        <v>320</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>663</v>
+        <v>651</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="V121" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X121" s="3" t="s">
-        <v>985</v>
+        <v>557</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>991</v>
+        <v>963</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>964</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>822</v>
+        <v>965</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>993</v>
+        <v>652</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V122" s="13">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>995</v>
+        <v>1198</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>1001</v>
+        <v>653</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>1007</v>
+        <v>654</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>5</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>1002</v>
+        <v>3.1</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>1014</v>
+        <v>655</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>1009</v>
+        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1016</v>
+        <v>979</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1017</v>
+        <v>980</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>1018</v>
+        <v>981</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>1020</v>
+        <v>656</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>1015</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1022</v>
+        <v>1197</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>1024</v>
+        <v>984</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1025</v>
+        <v>815</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>1026</v>
+        <v>657</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>985</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1027</v>
+        <v>986</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V127" s="13">
         <v>5</v>
       </c>
-      <c r="X127" s="2" t="s">
-        <v>1021</v>
+      <c r="X127" s="3" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1030</v>
+        <v>989</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>1033</v>
+        <v>658</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>1028</v>
+        <v>5</v>
+      </c>
+      <c r="X128" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>1035</v>
+        <v>996</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1036</v>
+        <v>997</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>1037</v>
+        <v>998</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1038</v>
+        <v>999</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X129" s="3" t="s">
-        <v>1034</v>
+        <v>5</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1087</v>
+        <v>1003</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1088</v>
+        <v>1004</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>1089</v>
+        <v>1005</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>327</v>
+        <v>1006</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>1086</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1091</v>
+        <v>1009</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1039</v>
+        <v>720</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1092</v>
+        <v>1010</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>1093</v>
+        <v>1011</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>461</v>
+        <v>1012</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1055</v>
+        <v>614</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1071</v>
+        <v>330</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>5</v>
-      </c>
-      <c r="X131" s="3" t="s">
-        <v>1090</v>
+        <v>4.7</v>
+      </c>
+      <c r="X131" s="2" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1095</v>
+        <v>1015</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1040</v>
+        <v>721</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1096</v>
+        <v>1016</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1097</v>
+        <v>1017</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>327</v>
+        <v>1018</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1056</v>
+        <v>615</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>1098</v>
+        <v>661</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>1020</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V132" s="13">
         <v>5</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1094</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1100</v>
+        <v>1022</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1041</v>
+        <v>722</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1101</v>
+        <v>1023</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1102</v>
+        <v>1024</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1103</v>
+        <v>1025</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1057</v>
+        <v>616</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>1104</v>
+        <v>662</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1099</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1106</v>
+        <v>1028</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1042</v>
+        <v>723</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1107</v>
+        <v>1029</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1108</v>
+        <v>1030</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>527</v>
+        <v>1031</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1058</v>
+        <v>617</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>1109</v>
+        <v>663</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>5</v>
-      </c>
-      <c r="X134" s="2" t="s">
-        <v>1105</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1043</v>
+        <v>724</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1059</v>
+        <v>618</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1075</v>
+        <v>664</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X135" s="2" t="s">
-        <v>1110</v>
+        <v>4</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1118</v>
+        <v>454</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>1119</v>
+        <v>1064</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X136" s="2" t="s">
-        <v>1114</v>
+        <v>5</v>
+      </c>
+      <c r="X136" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1122</v>
+        <v>1089</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1123</v>
+        <v>1090</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>461</v>
+        <v>320</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1124</v>
+        <v>1091</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V137" s="13">
         <v>5</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>1120</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1126</v>
+        <v>1093</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1127</v>
+        <v>1094</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1128</v>
+        <v>1095</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1129</v>
+        <v>1096</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1078</v>
+        <v>1066</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="X138" s="3" t="s">
-        <v>1125</v>
+        <v>557</v>
+      </c>
+      <c r="V138" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1134</v>
+        <v>520</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1079</v>
+        <v>1067</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1205</v>
+        <v>1104</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1136</v>
+        <v>1105</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>1106</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1138</v>
+        <v>1108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1139</v>
+        <v>1109</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1141</v>
+        <v>1111</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>1142</v>
+        <v>1069</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X141" s="3" t="s">
-        <v>1137</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1147</v>
+        <v>454</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V142" s="13">
         <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1153</v>
+        <v>1122</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>1154</v>
+        <v>1071</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="V143" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="X143" s="2" t="s">
-        <v>1149</v>
+        <v>557</v>
+      </c>
+      <c r="X143" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1156</v>
+        <v>1124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1157</v>
+        <v>1125</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1158</v>
+        <v>1126</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>1127</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>1159</v>
+        <v>1072</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V144" s="13">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1155</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1161</v>
+        <v>1196</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>1163</v>
+        <v>1129</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1164</v>
+        <v>320</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>48</v>
+        <v>1073</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1160</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V146" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="X146" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="20" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V147" s="13">
+        <v>5</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="20" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V148" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="20" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V149" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="X149" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="20" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V150" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="20" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="S146" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T146" s="2" t="s">
-        <v>564</v>
+      <c r="D151" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="20" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V152" s="13">
+        <v>5</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -11595,153 +12039,164 @@
     <hyperlink ref="X22" r:id="rId23" display="https://www.google.com/maps/place/%E7%B5%95%E7%BE%8E%E7%B3%BB%E7%B5%B1%E6%AB%83%E7%AA%97%E9%A3%BE/@25.0544516,121.3789649,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f3775533ff:0x1f4c3b0a342d76e8!8m2!3d25.0544517!4d121.3835783!16s%2Fg%2F11v5ss9nx7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DFED8583-A64B-F34A-B59A-37C1694A5233}"/>
     <hyperlink ref="X23" r:id="rId24" display="https://www.google.com/maps/place/%E5%90%8C%E6%AD%A5%E5%96%AE%E8%BB%8A+sync+bike+shop/@25.0543625,121.3811047,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a756ae07427d:0x90d3740e27d8c0b7!8m2!3d25.0543625!4d121.3836796!16s%2Fg%2F11n06jldmh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{F879BDCF-F34F-084E-B0A9-73FFCB2A2C2E}"/>
     <hyperlink ref="J23" r:id="rId25" xr:uid="{065CFE48-46D5-BA4A-9025-58932C44ADF7}"/>
-    <hyperlink ref="I24" r:id="rId26" xr:uid="{53307232-4BC6-4F43-95D0-4BF828FC460D}"/>
-    <hyperlink ref="X25" r:id="rId27" display="https://www.google.com/maps/place/%E6%86%B2%E5%85%89%E9%95%B7%E5%BA%9A%E9%A4%A8%EF%BC%88%E8%B7%86%E6%8B%B3%E9%81%93%EF%BC%89/@25.0551136,121.3802013,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a763bb9e83e5:0xff17ac03a1baf17e!8m2!3d25.0551137!4d121.3848147!16s%2Fg%2F11ryhhx9by?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{112180B2-7E41-1143-9829-D13AC1CE94D8}"/>
-    <hyperlink ref="X26" r:id="rId28" display="https://www.google.com/maps/place/%E6%9E%97%E5%8F%A3A7%E7%AA%97%E7%B0%BE%E9%A6%96%E9%81%B8-%E4%BA%AE%E9%BB%9E%E7%AA%97%E7%B0%BE/@25.0552273,121.3820605,17z/data=!3m1!4b1!4m6!3m5!1s0x346802b2ceac01f3:0xd3b176cd02546f53!8m2!3d25.0552273!4d121.3846354!16s%2Fg%2F11f2wlw3kf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D580960D-6267-9246-A76C-0536108A6580}"/>
-    <hyperlink ref="X27" r:id="rId29" display="https://www.google.com/maps/place/%E6%97%BA%E6%B3%B0%E8%A1%8C+%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8/@25.0532034,121.3805337,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7164cc6c21f:0xe91740fc88dcaddd!8m2!3d25.0531986!4d121.383114!16s%2Fg%2F11bwkfzg2q?authuser=0&amp;entry=ttu" xr:uid="{C3090E63-D99C-CC48-B13A-3CCBDC81CC80}"/>
-    <hyperlink ref="X28" r:id="rId30" display="https://www.google.com/maps/place/%E7%A6%8F%E7%91%9E%E7%85%A6%E7%94%9F%E9%AE%AE%E8%94%AC%E9%A3%9F%E5%9D%8A/@25.0531734,121.380576,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7cd93fbd391:0x11c3f256642ff786!8m2!3d25.0531734!4d121.3831563!16s%2Fg%2F11k3ljzgg7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{11C6B1E2-58AA-154E-AC8C-DB8A2854786E}"/>
-    <hyperlink ref="I30" r:id="rId31" xr:uid="{FF9DA92F-E26A-D445-8C8D-3794C221E01B}"/>
-    <hyperlink ref="J31" r:id="rId32" xr:uid="{C10A4545-9377-3C4E-BE1C-7FBE1E75504A}"/>
-    <hyperlink ref="I31" r:id="rId33" xr:uid="{76BDA141-93CD-F540-BB2E-11F0C2067CB6}"/>
-    <hyperlink ref="M31" r:id="rId34" xr:uid="{CA21C9E5-4BD1-A24B-B662-2BD0CC9F8A0E}"/>
-    <hyperlink ref="J32" r:id="rId35" xr:uid="{DD593690-55A8-3446-8AAF-D95842951D35}"/>
-    <hyperlink ref="I32" r:id="rId36" xr:uid="{DE898033-B421-7743-91E1-53A7D117EFB4}"/>
-    <hyperlink ref="X33" r:id="rId37" xr:uid="{28490A48-C3C7-1D4B-AA8C-1A493E5FCCF4}"/>
-    <hyperlink ref="J33" r:id="rId38" xr:uid="{8D7450AC-8352-8C48-9774-7C5BA656C195}"/>
-    <hyperlink ref="L33" r:id="rId39" xr:uid="{30ED5E66-F1E3-CE4E-A307-0F74FD474E9E}"/>
-    <hyperlink ref="M33" r:id="rId40" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
-    <hyperlink ref="K33" r:id="rId41" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
-    <hyperlink ref="I36" r:id="rId42" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X39" r:id="rId43" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I39" r:id="rId44" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X40" r:id="rId45" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X41" r:id="rId46" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X42" r:id="rId47" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J42" r:id="rId48" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M42" r:id="rId49" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X43" r:id="rId50" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J43" r:id="rId51" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X45" r:id="rId52" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I45" r:id="rId53" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X46" r:id="rId54" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J46" r:id="rId55" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M46" r:id="rId56" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X47" r:id="rId57" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I47" r:id="rId58" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X48" r:id="rId59" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I49" r:id="rId60" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I50" r:id="rId61" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X51" r:id="rId62" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J51" r:id="rId63" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I51" r:id="rId64" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X52" r:id="rId65" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L52" r:id="rId66" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K52" r:id="rId67" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I53" r:id="rId68" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X54" r:id="rId69" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J55" r:id="rId70" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X56" r:id="rId71" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J56" r:id="rId72" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X57" r:id="rId73" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X58" r:id="rId74" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I58" r:id="rId75" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X61" r:id="rId76" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N61" r:id="rId77" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X62" r:id="rId78" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X63" r:id="rId79" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I63" r:id="rId80" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X64" r:id="rId81" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P64" r:id="rId82" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O64" r:id="rId83" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N64" r:id="rId84" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I64" r:id="rId85" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I66" r:id="rId86" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I70" r:id="rId87" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X71" r:id="rId88" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X72" r:id="rId89" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X73" r:id="rId90" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I75" r:id="rId91" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I76" r:id="rId92" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I77" r:id="rId93" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I78" r:id="rId94" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I79" r:id="rId95" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I81" r:id="rId96" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I82" r:id="rId97" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X83" r:id="rId98" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I83" r:id="rId99" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I84" r:id="rId100" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X85" r:id="rId101" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A87" r:id="rId102" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X91" r:id="rId103" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I93" r:id="rId104" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X94" r:id="rId105" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J94" r:id="rId106" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K94" r:id="rId107" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X97" r:id="rId108" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X98" r:id="rId109" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X99" r:id="rId110" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M99" r:id="rId111" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I99" r:id="rId112" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K99" r:id="rId113" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X100" r:id="rId114" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I101" r:id="rId115" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X102" r:id="rId116" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X103" r:id="rId117" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I103" r:id="rId118" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X104" r:id="rId119" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I104" r:id="rId120" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K104" r:id="rId121" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X105" r:id="rId122" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I105" r:id="rId123" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X106" r:id="rId124" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X107" r:id="rId125" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X108" r:id="rId126" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J108" r:id="rId127" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I108" r:id="rId128" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X110" r:id="rId129" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I112" r:id="rId130" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X113" r:id="rId131" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J113" r:id="rId132" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M113" r:id="rId133" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X115" r:id="rId134" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X117" r:id="rId135" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X118" r:id="rId136" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J118" r:id="rId137" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X119" r:id="rId138" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X120" r:id="rId139" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X121" r:id="rId140" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X122" r:id="rId141" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J122" r:id="rId142" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K122" r:id="rId143" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X123" r:id="rId144" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J123" r:id="rId145" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M123" r:id="rId146" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I123" r:id="rId147" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J124" r:id="rId148" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I124" r:id="rId149" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X125" r:id="rId150" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I125" r:id="rId151" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J126" r:id="rId152" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I127" r:id="rId153" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K127" r:id="rId154" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K128" r:id="rId155" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X129" r:id="rId156" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X130" r:id="rId157" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X131" r:id="rId158" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J132" r:id="rId159" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J133" r:id="rId160" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I134" r:id="rId161" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I136" r:id="rId162" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J137" r:id="rId163" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X138" r:id="rId164" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X141" r:id="rId165" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J141" r:id="rId166" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J142" r:id="rId167" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I143" r:id="rId168" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J144" r:id="rId169" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I145" r:id="rId170" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
-    <hyperlink ref="I29" r:id="rId171" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
-    <hyperlink ref="I38" r:id="rId172" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
+    <hyperlink ref="X24" r:id="rId26" display="https://www.google.com/maps/place/%E6%86%B2%E5%85%89%E9%95%B7%E5%BA%9A%E9%A4%A8%EF%BC%88%E8%B7%86%E6%8B%B3%E9%81%93%EF%BC%89/@25.0551136,121.3802013,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a763bb9e83e5:0xff17ac03a1baf17e!8m2!3d25.0551137!4d121.3848147!16s%2Fg%2F11ryhhx9by?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{112180B2-7E41-1143-9829-D13AC1CE94D8}"/>
+    <hyperlink ref="X25" r:id="rId27" display="https://www.google.com/maps/place/%E6%9E%97%E5%8F%A3A7%E7%AA%97%E7%B0%BE%E9%A6%96%E9%81%B8-%E4%BA%AE%E9%BB%9E%E7%AA%97%E7%B0%BE/@25.0552273,121.3820605,17z/data=!3m1!4b1!4m6!3m5!1s0x346802b2ceac01f3:0xd3b176cd02546f53!8m2!3d25.0552273!4d121.3846354!16s%2Fg%2F11f2wlw3kf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D580960D-6267-9246-A76C-0536108A6580}"/>
+    <hyperlink ref="X26" r:id="rId28" display="https://www.google.com/maps/place/%E6%97%BA%E6%B3%B0%E8%A1%8C+%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8/@25.0532034,121.3805337,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7164cc6c21f:0xe91740fc88dcaddd!8m2!3d25.0531986!4d121.383114!16s%2Fg%2F11bwkfzg2q?authuser=0&amp;entry=ttu" xr:uid="{C3090E63-D99C-CC48-B13A-3CCBDC81CC80}"/>
+    <hyperlink ref="X27" r:id="rId29" display="https://www.google.com/maps/place/%E7%A6%8F%E7%91%9E%E7%85%A6%E7%94%9F%E9%AE%AE%E8%94%AC%E9%A3%9F%E5%9D%8A/@25.0531734,121.380576,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7cd93fbd391:0x11c3f256642ff786!8m2!3d25.0531734!4d121.3831563!16s%2Fg%2F11k3ljzgg7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{11C6B1E2-58AA-154E-AC8C-DB8A2854786E}"/>
+    <hyperlink ref="I29" r:id="rId30" xr:uid="{FF9DA92F-E26A-D445-8C8D-3794C221E01B}"/>
+    <hyperlink ref="J30" r:id="rId31" xr:uid="{C10A4545-9377-3C4E-BE1C-7FBE1E75504A}"/>
+    <hyperlink ref="I30" r:id="rId32" xr:uid="{76BDA141-93CD-F540-BB2E-11F0C2067CB6}"/>
+    <hyperlink ref="M30" r:id="rId33" xr:uid="{CA21C9E5-4BD1-A24B-B662-2BD0CC9F8A0E}"/>
+    <hyperlink ref="J31" r:id="rId34" xr:uid="{DD593690-55A8-3446-8AAF-D95842951D35}"/>
+    <hyperlink ref="I31" r:id="rId35" xr:uid="{DE898033-B421-7743-91E1-53A7D117EFB4}"/>
+    <hyperlink ref="X32" r:id="rId36" xr:uid="{28490A48-C3C7-1D4B-AA8C-1A493E5FCCF4}"/>
+    <hyperlink ref="J32" r:id="rId37" xr:uid="{8D7450AC-8352-8C48-9774-7C5BA656C195}"/>
+    <hyperlink ref="L32" r:id="rId38" xr:uid="{30ED5E66-F1E3-CE4E-A307-0F74FD474E9E}"/>
+    <hyperlink ref="M32" r:id="rId39" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
+    <hyperlink ref="K32" r:id="rId40" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
+    <hyperlink ref="I35" r:id="rId41" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
+    <hyperlink ref="X39" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I39" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X40" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X41" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X42" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J42" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M42" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X43" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J43" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X45" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I45" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X46" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J46" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M46" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X47" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I47" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X48" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I49" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I50" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X51" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J51" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I51" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X52" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L52" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K52" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I53" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X54" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J55" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X56" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J56" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X57" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X58" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I58" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X65" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N65" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X66" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X67" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I67" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X68" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P68" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O68" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N68" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I68" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I70" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I74" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X76" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X77" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X78" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I80" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I81" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I82" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I83" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I84" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I86" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I87" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X88" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I88" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I89" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X90" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A92" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X96" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I98" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X99" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J99" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K99" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X102" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X103" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X104" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M104" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I104" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K104" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X105" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I106" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X107" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X108" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I108" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X109" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I109" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K109" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X110" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I110" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X111" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X112" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X113" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J113" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I113" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X115" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I117" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X118" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J118" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M118" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X120" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X122" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X123" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J123" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X124" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X125" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X126" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X127" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J127" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K127" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X128" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J128" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M128" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I128" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J129" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I129" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X130" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I130" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J131" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I132" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K132" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K133" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X134" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X135" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X136" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J137" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J138" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I139" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I141" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J142" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X143" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X146" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J146" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J147" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I148" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J149" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I150" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
+    <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
+    <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
+    <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
+    <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
+    <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
+    <hyperlink ref="X75" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J75" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I75" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X62" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
+    <hyperlink ref="X63" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
+    <hyperlink ref="K63" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
+    <hyperlink ref="X64" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
+    <hyperlink ref="J152" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB35FE6-A7B7-3F4B-B5EE-9C15161DBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F420D2-7A7E-F941-B2CB-9EAB50B9324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="-22780" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-26640" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1278">
   <si>
     <t>address</t>
   </si>
@@ -4441,9 +4441,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>2.樂善國小</t>
-  </si>
-  <si>
     <t>桃園市龜山區長慶二街107號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4645,6 +4642,67 @@
   </si>
   <si>
     <t>https://www.facebook.com/profile.php?id=100094124813558</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一至週日 預約制</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61552522941573&amp;mibextid=ZbWKwL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 20:30</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nabi_beauty20?igsh=NjdqYzB2NTQ4OHlz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@116egxjo?oat_content=qr#~</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-040</t>
+  </si>
+  <si>
+    <t>SHO-S1-040.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-040L.jpeg</t>
+  </si>
+  <si>
+    <t>長頸鹿美語 樂善分校</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%95%B7%E9%A0%B8%E9%B9%BF%E7%BE%8E%E8%AA%9E+%E6%A8%82%E5%96%84%E5%88%86%E6%A0%A1/@25.0543203,121.3778862,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70b1d4d4a77:0x60fa9c09b65992ef!8m2!3d25.0543204!4d121.3827571!16s%2Fg%2F11y1xh09kn?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂學路560號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-2636</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 19:30 週六日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Giraffeleshan</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 22:00 週六11:00 - 20:00 週日11:00 - 17:00</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5936,13 +5994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AA153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H155" sqref="H155"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6274,6 +6332,9 @@
       <c r="E7" s="11" t="s">
         <v>97</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>1262</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
@@ -6708,12 +6769,24 @@
       <c r="D18" s="2" t="s">
         <v>1174</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>1265</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="J18" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1266</v>
+      </c>
       <c r="S18" s="2" t="s">
         <v>108</v>
       </c>
@@ -6723,7 +6796,9 @@
       <c r="V18" s="13">
         <v>5</v>
       </c>
-      <c r="X18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -6808,6 +6883,9 @@
       <c r="E21" s="11" t="s">
         <v>1166</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>1277</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>131</v>
       </c>
@@ -7442,10 +7520,10 @@
         <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>1204</v>
@@ -7455,19 +7533,19 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>1211</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>1212</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>108</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>1207</v>
+        <v>34</v>
       </c>
       <c r="V38" s="13">
         <v>4.7</v>
@@ -7478,69 +7556,72 @@
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>1193</v>
+        <v>1271</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>307</v>
+        <v>1268</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>318</v>
+        <v>1273</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>319</v>
+        <v>1274</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>320</v>
+        <v>1275</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>311</v>
+        <v>1269</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
       <c r="S39" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V39" s="13">
-        <v>4.3</v>
+        <v>34</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>317</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>322</v>
+        <v>1193</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>312</v>
+        <v>253</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>306</v>
@@ -7549,36 +7630,36 @@
         <v>305</v>
       </c>
       <c r="V40" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>306</v>
@@ -7587,44 +7668,37 @@
         <v>305</v>
       </c>
       <c r="V41" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="N42" s="14"/>
+        <v>330</v>
+      </c>
       <c r="S42" s="2" t="s">
         <v>306</v>
       </c>
@@ -7632,77 +7706,84 @@
         <v>305</v>
       </c>
       <c r="V42" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N43" s="14"/>
       <c r="S43" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V43" s="13">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>306</v>
@@ -7711,39 +7792,36 @@
         <v>339</v>
       </c>
       <c r="V44" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>385</v>
+        <v>4.3</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>306</v>
@@ -7752,44 +7830,40 @@
         <v>339</v>
       </c>
       <c r="V45" s="13">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>390</v>
+        <v>2.5</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N46" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="S46" s="2" t="s">
         <v>306</v>
       </c>
@@ -7797,40 +7871,44 @@
         <v>339</v>
       </c>
       <c r="V46" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>408</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N47" s="3"/>
       <c r="S47" s="2" t="s">
         <v>306</v>
       </c>
@@ -7838,36 +7916,39 @@
         <v>339</v>
       </c>
       <c r="V47" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>306</v>
@@ -7876,36 +7957,36 @@
         <v>339</v>
       </c>
       <c r="V48" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>306</v>
@@ -7914,34 +7995,36 @@
         <v>339</v>
       </c>
       <c r="V49" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>414</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="G50" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>306</v>
@@ -7950,42 +8033,34 @@
         <v>339</v>
       </c>
       <c r="V50" s="13">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>306</v>
@@ -7994,42 +8069,42 @@
         <v>339</v>
       </c>
       <c r="V51" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>424</v>
+        <v>4.8</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>87</v>
+        <v>428</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>435</v>
+        <v>375</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>306</v>
@@ -8038,39 +8113,42 @@
         <v>339</v>
       </c>
       <c r="V52" s="13">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>256</v>
+        <v>376</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>306</v>
@@ -8079,36 +8157,39 @@
         <v>339</v>
       </c>
       <c r="V53" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>437</v>
+        <v>5</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>377</v>
+        <v>251</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>306</v>
@@ -8117,39 +8198,36 @@
         <v>339</v>
       </c>
       <c r="V54" s="13">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>441</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>1182</v>
+        <v>442</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>306</v>
@@ -8158,39 +8236,39 @@
         <v>339</v>
       </c>
       <c r="V55" s="13">
-        <v>5</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>446</v>
+        <v>3</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>791</v>
+        <v>378</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>306</v>
@@ -8198,34 +8276,40 @@
       <c r="T56" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X56" s="3" t="s">
-        <v>451</v>
+      <c r="V56" s="13">
+        <v>5</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>379</v>
+        <v>791</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>306</v>
@@ -8233,40 +8317,34 @@
       <c r="T57" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V57" s="13">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>306</v>
@@ -8274,34 +8352,40 @@
       <c r="T58" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="V58" s="13">
+        <v>5</v>
+      </c>
       <c r="X58" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>306</v>
@@ -8309,37 +8393,34 @@
       <c r="T59" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V59" s="13">
-        <v>3</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>470</v>
+      <c r="X59" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>304</v>
+        <v>478</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>306</v>
@@ -8348,36 +8429,36 @@
         <v>339</v>
       </c>
       <c r="V60" s="13">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>1228</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1223</v>
+        <v>474</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1229</v>
+        <v>481</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>1230</v>
+        <v>482</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1231</v>
+        <v>483</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1232</v>
+        <v>472</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>1236</v>
+        <v>304</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>306</v>
@@ -8386,33 +8467,36 @@
         <v>339</v>
       </c>
       <c r="V61" s="13">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>1227</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1242</v>
+        <v>1228</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>1229</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>306</v>
@@ -8420,34 +8504,34 @@
       <c r="T62" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>1240</v>
+      <c r="V62" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>306</v>
@@ -8455,37 +8539,34 @@
       <c r="T63" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V63" s="13">
-        <v>5</v>
-      </c>
       <c r="X63" s="3" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>306</v>
@@ -8497,71 +8578,74 @@
         <v>5</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>511</v>
+        <v>1249</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>500</v>
+        <v>1225</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>512</v>
+        <v>1250</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>513</v>
+        <v>1251</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>514</v>
+        <v>1252</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>485</v>
+        <v>1234</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>515</v>
+        <v>1238</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="V65" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>510</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>306</v>
@@ -8570,39 +8654,33 @@
         <v>484</v>
       </c>
       <c r="V66" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>306</v>
@@ -8611,48 +8689,39 @@
         <v>484</v>
       </c>
       <c r="V67" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>306</v>
@@ -8661,36 +8730,48 @@
         <v>484</v>
       </c>
       <c r="V68" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>306</v>
@@ -8699,36 +8780,36 @@
         <v>484</v>
       </c>
       <c r="V69" s="13">
-        <v>5</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>306</v>
@@ -8740,33 +8821,33 @@
         <v>5</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -8775,36 +8856,36 @@
         <v>484</v>
       </c>
       <c r="V71" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
@@ -8813,36 +8894,36 @@
         <v>484</v>
       </c>
       <c r="V72" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -8854,36 +8935,33 @@
         <v>5</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -8892,42 +8970,39 @@
         <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1213</v>
+        <v>509</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1216</v>
+        <v>522</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>1217</v>
+        <v>523</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1218</v>
+        <v>320</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1219</v>
+        <v>494</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1220</v>
+        <v>253</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>1221</v>
+        <v>53</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -8936,71 +9011,80 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>5</v>
-      </c>
-      <c r="X75" s="3" t="s">
-        <v>1215</v>
+        <v>3.3</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>726</v>
+        <v>1213</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>665</v>
+        <v>1212</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>727</v>
+        <v>1215</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>728</v>
+        <v>1216</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>287</v>
+        <v>1217</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>558</v>
+        <v>1218</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>559</v>
+        <v>1219</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V76" s="13">
         <v>5</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>725</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9012,33 +9096,30 @@
         <v>5</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9047,39 +9128,36 @@
         <v>557</v>
       </c>
       <c r="V78" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9088,39 +9166,39 @@
         <v>557</v>
       </c>
       <c r="V79" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X79" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9129,39 +9207,39 @@
         <v>557</v>
       </c>
       <c r="V80" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9170,39 +9248,39 @@
         <v>557</v>
       </c>
       <c r="V81" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9211,39 +9289,39 @@
         <v>557</v>
       </c>
       <c r="V82" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9252,39 +9330,39 @@
         <v>557</v>
       </c>
       <c r="V83" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9293,36 +9371,39 @@
         <v>557</v>
       </c>
       <c r="V84" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9331,39 +9412,36 @@
         <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9372,39 +9450,39 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9413,39 +9491,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9454,39 +9532,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X88" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -9495,39 +9573,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -9536,33 +9614,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>4</v>
-      </c>
-      <c r="X90" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -9571,36 +9655,33 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X91" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -9609,39 +9690,36 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -9650,39 +9728,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -9691,39 +9769,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -9732,39 +9810,39 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -9773,39 +9851,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4</v>
-      </c>
-      <c r="X96" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -9814,39 +9892,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -9855,39 +9933,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -9896,36 +9974,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>5</v>
-      </c>
-      <c r="X99" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -9934,39 +10015,36 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X100" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -9975,39 +10053,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10016,39 +10094,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10057,48 +10135,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10110,30 +10179,45 @@
         <v>5</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10142,39 +10226,33 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10183,36 +10261,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X106" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10221,39 +10302,36 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X107" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10262,42 +10340,39 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10306,39 +10381,42 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10347,36 +10425,39 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10385,18 +10466,18 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>183</v>
@@ -10405,19 +10486,16 @@
         <v>906</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10426,42 +10504,39 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10470,33 +10545,42 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -10504,37 +10588,34 @@
       <c r="T114" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X114" s="2" t="s">
-        <v>921</v>
+      <c r="V114" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -10542,40 +10623,37 @@
       <c r="T115" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V115" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X115" s="3" t="s">
-        <v>925</v>
+      <c r="X115" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -10584,39 +10662,39 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X116" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X116" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -10625,45 +10703,39 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M118" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -10672,39 +10744,45 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X118" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X118" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -10713,33 +10791,39 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X119" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X119" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -10748,36 +10832,33 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>3</v>
-      </c>
-      <c r="X120" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X120" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -10785,34 +10866,37 @@
       <c r="T121" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X121" s="2" t="s">
-        <v>957</v>
+      <c r="V121" s="13">
+        <v>3</v>
+      </c>
+      <c r="X121" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -10820,40 +10904,34 @@
       <c r="T122" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V122" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X122" s="3" t="s">
-        <v>962</v>
+      <c r="X122" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -10862,30 +10940,39 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -10894,33 +10981,30 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -10929,36 +11013,33 @@
         <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -10967,39 +11048,36 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11008,45 +11086,39 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11058,39 +11130,42 @@
         <v>5</v>
       </c>
       <c r="X128" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11101,37 +11176,40 @@
       <c r="V129" s="13">
         <v>5</v>
       </c>
-      <c r="X129" s="2" t="s">
-        <v>995</v>
+      <c r="X129" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11140,39 +11218,39 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X130" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X130" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11181,42 +11259,39 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X131" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X131" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11225,39 +11300,42 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11266,36 +11344,39 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11304,36 +11385,36 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X134" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X134" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11342,36 +11423,36 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11380,39 +11461,36 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11423,37 +11501,37 @@
       <c r="V137" s="13">
         <v>5</v>
       </c>
-      <c r="X137" s="2" t="s">
-        <v>1087</v>
+      <c r="X137" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11462,39 +11540,39 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -11503,36 +11581,39 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -11541,39 +11622,36 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -11585,36 +11663,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -11623,36 +11701,39 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -11660,34 +11741,37 @@
       <c r="T143" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X143" s="3" t="s">
-        <v>1118</v>
+      <c r="V143" s="13">
+        <v>5</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -11695,34 +11779,34 @@
       <c r="T144" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V144" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X144" s="2" t="s">
-        <v>1123</v>
+      <c r="X144" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -11731,39 +11815,33 @@
         <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -11772,39 +11850,39 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X146" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X146" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -11813,39 +11891,39 @@
         <v>557</v>
       </c>
       <c r="V147" s="13">
-        <v>5</v>
-      </c>
-      <c r="X147" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -11854,36 +11932,39 @@
         <v>557</v>
       </c>
       <c r="V148" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -11892,39 +11973,36 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -11933,30 +12011,39 @@
         <v>557</v>
       </c>
       <c r="V150" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -11964,34 +12051,31 @@
       <c r="T151" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V151" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X151" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1258</v>
+        <v>1158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1254</v>
+        <v>1047</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>1260</v>
+        <v>1177</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1256</v>
+        <v>1063</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>1262</v>
+        <v>1078</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -11999,11 +12083,46 @@
       <c r="T152" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V152" s="13">
+    </row>
+    <row r="153" spans="1:24" ht="20" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V153" s="13">
         <v>5</v>
       </c>
-      <c r="X152" s="2" t="s">
-        <v>1255</v>
+      <c r="X153" s="2" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -12055,148 +12174,154 @@
     <hyperlink ref="M32" r:id="rId39" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
     <hyperlink ref="K32" r:id="rId40" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
     <hyperlink ref="I35" r:id="rId41" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X39" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I39" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X40" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X41" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X42" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J42" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M42" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X43" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J43" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X45" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I45" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X46" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J46" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M46" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X47" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I47" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X48" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I49" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I50" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X51" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J51" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I51" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X52" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L52" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K52" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I53" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X54" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J55" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X56" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J56" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X57" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X58" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I58" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X65" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N65" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X66" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X67" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I67" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X68" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P68" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O68" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N68" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I68" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I70" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I74" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X76" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X77" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X78" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I80" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I81" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I82" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I83" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I84" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I86" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I87" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X88" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I88" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I89" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X90" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A92" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X96" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I98" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X99" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J99" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K99" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X102" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X103" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X104" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M104" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I104" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K104" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X105" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I106" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X107" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X108" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I108" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X109" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I109" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K109" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X110" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I110" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X111" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X112" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X113" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J113" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I113" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X115" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I117" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X118" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J118" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M118" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X120" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X122" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X123" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J123" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X124" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X125" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X126" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X127" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J127" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K127" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X128" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J128" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M128" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I128" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J129" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I129" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X130" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I130" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J131" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I132" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K132" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K133" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X134" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X135" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X136" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J137" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J138" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I139" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I141" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J142" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X143" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X146" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J146" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J147" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I148" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J149" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I150" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X40" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I40" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X41" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X42" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X43" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J43" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M43" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X44" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J44" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X46" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I46" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X47" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J47" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M47" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X48" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I48" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X49" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I50" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I51" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X52" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J52" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I52" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X53" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L53" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K53" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I54" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X55" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J56" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X57" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J57" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X58" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X59" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I59" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X66" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N66" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X67" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X68" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I68" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X69" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P69" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O69" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N69" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I69" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I71" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I75" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X77" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X78" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X79" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I81" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I82" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I83" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I84" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I85" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I87" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I88" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X89" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I89" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I90" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X91" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A93" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X97" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I99" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X100" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J100" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K100" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X103" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X104" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X105" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M105" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I105" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K105" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X106" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I107" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X108" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X109" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I109" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X110" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I110" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K110" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X111" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I111" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X112" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X113" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X114" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J114" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I114" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X116" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I118" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X119" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J119" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M119" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X121" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X123" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X124" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J124" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X125" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X126" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X127" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X128" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J128" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K128" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X129" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J129" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M129" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I129" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J130" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I130" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X131" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I131" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J132" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I133" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K133" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K134" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X135" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X136" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X137" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J138" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J139" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I140" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I142" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J143" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X144" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X147" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J147" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J148" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I149" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J150" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I151" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X75" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J75" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I75" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
-    <hyperlink ref="X62" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
-    <hyperlink ref="X63" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
-    <hyperlink ref="K63" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
-    <hyperlink ref="X64" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J152" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="X76" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J76" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I76" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X63" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
+    <hyperlink ref="X64" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
+    <hyperlink ref="K64" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
+    <hyperlink ref="X65" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
+    <hyperlink ref="J153" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
+    <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
+    <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
+    <hyperlink ref="K18" r:id="rId187" location="~" xr:uid="{B69FE94E-19F5-284F-9DA8-C7F21AA519D7}"/>
+    <hyperlink ref="X39" r:id="rId188" display="https://www.google.com/maps/place/%E9%95%B7%E9%A0%B8%E9%B9%BF%E7%BE%8E%E8%AA%9E+%E6%A8%82%E5%96%84%E5%88%86%E6%A0%A1/@25.0543203,121.3778862,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70b1d4d4a77:0x60fa9c09b65992ef!8m2!3d25.0543204!4d121.3827571!16s%2Fg%2F11y1xh09kn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D338D184-519D-8948-A873-07394D01C4DB}"/>
+    <hyperlink ref="J39" r:id="rId189" xr:uid="{975E9392-F44B-2747-8AF6-7A44239F8BF5}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F420D2-7A7E-F941-B2CB-9EAB50B9324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384228B-2346-2B40-80BE-6906AA3C071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-26640" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2160" yWindow="-27120" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1306">
   <si>
     <t>address</t>
   </si>
@@ -4703,6 +4703,109 @@
   </si>
   <si>
     <t>14:00 - 22:00 週六11:00 - 20:00 週日11:00 - 17:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-041</t>
+  </si>
+  <si>
+    <t>S1-042</t>
+  </si>
+  <si>
+    <t>S1-043</t>
+  </si>
+  <si>
+    <t>SHO-S1-041.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-042.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-043.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-041L.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-042L.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S1-043L.jpeg</t>
+  </si>
+  <si>
+    <t>俬樸居研 X 車研</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街82號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913-827-816</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 18:00 週六日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E4%BF%AC%E6%A8%B8%E5%B1%85%E7%A0%94+X+%E8%BB%8A%E7%A0%94/@25.0546979,121.384203,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a77b0c1f2fe7:0xaeb76e4f300db3e9!8m2!3d25.0546979!4d121.384203!16s%2Fg%2F11jzrtf_2n?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.C.L希希艾蘿</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/C.C.L%E5%B8%8C%E5%B8%8C%E8%89%BE%E8%98%BF%E9%BE%9C%E5%B1%B1%E6%9E%97%E5%8F%A3%E5%B7%A5%E4%BD%9C%E5%AE%A4%2F%E7%B4%8B%E7%B9%A1%2F%E9%99%A4%E8%89%B2%2F%E7%BE%8E%E7%9D%AB%2F%E8%A7%92%E8%9B%8B%E7%99%BD%2F%E7%86%B1%E8%A0%9F%2F%E9%99%A4%E6%AF%9B%2F%E7%BE%8E%E9%AB%94%E6%8C%89%E6%91%A9%2F%E7%BE%8E%E8%83%B8%2F%E9%9F%93%E5%BC%8F%E7%9A%AE%E8%86%9A%E7%AE%A1%E7%90%86(%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%B4%8B%E7%B9%A1%E9%9C%A7%E7%9C%89%EF%BC%8F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E5%81%9A%E8%87%89%E6%8C%89%E6%91%A9%EF%BC%8F%E6%A1%83%E5%9C%92%E7%9A%AE%E8%86%9A%E7%AE%A1%E7%90%86%EF%BC%8F%E6%9E%97%E5%8F%A3%E9%A3%84%E7%9C%89%E6%8E%A8%E8%96%A6%EF%BC%8F%E6%A1%83%E5%9C%92%E7%BE%8E%E7%9D%AB%EF%BC%8F%E9%9F%93%E5%BC%8F%E7%9A%AE%E8%86%9A%E7%AE%A1%E7%90%86%EF%BC%8F%E6%9E%97%E5%8F%A3%E9%99%A4%E6%AF%9B)/@24.9294292,121.415377,9.17z/data=!4m6!3m5!1s0x3442a77758946fe3:0x2ead63a282cdcae!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11vk_3928d?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街13號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-1262</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 20:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@480etdpq?oat_content=url</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%8E%96%E7%BE%85%E9%96%80%E9%9B%BB%E5%AD%90%E9%8E%96+%E6%8C%87%E7%B4%8B%E9%8E%96+%E8%81%AF%E5%90%88%E9%AB%94%E9%A9%97%E9%A4%A8%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%96%80%E5%B8%82%E3%80%91/@25.0467179,121.2996459,13z/data=!4m10!1m2!2m1!1z6Y6W576F6ZaA6Zu75a2Q6Y6WIOaMh-e0i-mOliDoga_lkIjpq5TpqZfppKjjgJDmoYPlnJLpvpzlsbHploDluILjgJE!3m6!1s0x3442a7e1b93ac9c7:0xfdd39af7ca99f268!8m2!3d25.0554739!4d121.3835465!15sCkTpjpbnvoXploDpm7vlrZDpjpYg5oyH57SL6Y6WIOiBr-WQiOmrlOmpl-mkqOOAkOahg-Wckum-nOWxsemWgOW4guOAkZIBDmxvY2tzX3N1cHBsaWVy4AEA!16s%2Fg%2F11l2yrl99s?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖羅門電子鎖</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂學路590巷30號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-5505</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 20:00 週六日10:00 - 19:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/solomonguishan</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/solomonsmartguishan?fbclid=IwAR3Y1xQAVlFbOcXQT859EATlXcDtVo1sc-x28lAWaepJErn12f07PZB8qj0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.welock.com.tw/?fbclid=IwAR24ZXLQQ7cizGFuWsZ5xEqJP_VGKKWIdiQz4ckN_1vWn45_MgQD59T7ri0</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5994,13 +6097,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA153"/>
+  <dimension ref="A1:AA156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7597,153 +7700,163 @@
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>1193</v>
+        <v>1287</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>307</v>
+        <v>1278</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>318</v>
+        <v>1288</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>319</v>
+        <v>1289</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>320</v>
+        <v>1290</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>311</v>
+        <v>1281</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="S40" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="V40" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>317</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>322</v>
+        <v>1292</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>1279</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>323</v>
+        <v>1294</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>324</v>
+        <v>1295</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>325</v>
+        <v>1296</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>313</v>
+        <v>1282</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L41" s="3"/>
       <c r="S41" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="V41" s="13">
         <v>5</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>321</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>327</v>
+        <v>1299</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>309</v>
+        <v>1280</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>328</v>
+        <v>1300</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>329</v>
+        <v>1301</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>296</v>
+        <v>1302</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>314</v>
+        <v>1283</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>330</v>
+        <v>1286</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>1304</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V42" s="13">
-        <v>4.8</v>
+        <v>34</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>326</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>332</v>
+        <v>1193</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="N43" s="14"/>
+        <v>253</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="S43" s="2" t="s">
         <v>306</v>
       </c>
@@ -7751,164 +7864,161 @@
         <v>305</v>
       </c>
       <c r="V43" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V44" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V45" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>385</v>
+        <v>4.8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N46" s="14"/>
       <c r="S46" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V46" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N47" s="3"/>
+        <v>384</v>
+      </c>
       <c r="S47" s="2" t="s">
         <v>306</v>
       </c>
@@ -7916,39 +8026,36 @@
         <v>339</v>
       </c>
       <c r="V47" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>306</v>
@@ -7957,36 +8064,39 @@
         <v>339</v>
       </c>
       <c r="V48" s="13">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>403</v>
+        <v>2.5</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>373</v>
+        <v>330</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>306</v>
@@ -7995,37 +8105,44 @@
         <v>339</v>
       </c>
       <c r="V49" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>418</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N50" s="3"/>
       <c r="S50" s="2" t="s">
         <v>306</v>
       </c>
@@ -8033,34 +8150,39 @@
         <v>339</v>
       </c>
       <c r="V50" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>414</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G51" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>306</v>
@@ -8069,42 +8191,36 @@
         <v>339</v>
       </c>
       <c r="V51" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>419</v>
+        <v>5</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>306</v>
@@ -8113,42 +8229,36 @@
         <v>339</v>
       </c>
       <c r="V52" s="13">
-        <v>2.2999999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>435</v>
+        <v>374</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>306</v>
@@ -8157,39 +8267,34 @@
         <v>339</v>
       </c>
       <c r="V53" s="13">
-        <v>5</v>
-      </c>
-      <c r="X53" s="3" t="s">
-        <v>431</v>
+        <v>4.2</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>306</v>
@@ -8198,36 +8303,42 @@
         <v>339</v>
       </c>
       <c r="V54" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>306</v>
@@ -8236,39 +8347,42 @@
         <v>339</v>
       </c>
       <c r="V55" s="13">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>1182</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>450</v>
+        <v>376</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>306</v>
@@ -8279,37 +8393,37 @@
       <c r="V56" s="13">
         <v>5</v>
       </c>
-      <c r="X56" s="2" t="s">
-        <v>446</v>
+      <c r="X56" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>306</v>
@@ -8317,34 +8431,37 @@
       <c r="T57" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>451</v>
+      <c r="V57" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>306</v>
@@ -8353,39 +8470,39 @@
         <v>339</v>
       </c>
       <c r="V58" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>464</v>
+        <v>1182</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>463</v>
+        <v>367</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>468</v>
+        <v>378</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>306</v>
@@ -8393,34 +8510,40 @@
       <c r="T59" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>462</v>
+      <c r="V59" s="13">
+        <v>5</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>471</v>
+        <v>368</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>478</v>
+        <v>791</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>306</v>
@@ -8428,37 +8551,34 @@
       <c r="T60" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V60" s="13">
-        <v>3</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>470</v>
+      <c r="X60" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>472</v>
+        <v>369</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>306</v>
@@ -8467,36 +8587,39 @@
         <v>339</v>
       </c>
       <c r="V61" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>479</v>
+        <v>5</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>1227</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1222</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1228</v>
+        <v>466</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>1229</v>
+        <v>467</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1230</v>
+        <v>454</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1231</v>
+        <v>463</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1235</v>
+        <v>469</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>306</v>
@@ -8504,34 +8627,34 @@
       <c r="T62" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V62" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>1226</v>
+      <c r="X62" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>1240</v>
+        <v>475</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1223</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1241</v>
+        <v>476</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1242</v>
+        <v>454</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1232</v>
+        <v>471</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1236</v>
+        <v>478</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>306</v>
@@ -8539,34 +8662,37 @@
       <c r="T63" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X63" s="3" t="s">
-        <v>1239</v>
+      <c r="V63" s="13">
+        <v>3</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>1243</v>
+        <v>480</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1224</v>
+        <v>474</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1245</v>
+        <v>481</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1246</v>
+        <v>483</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1233</v>
+        <v>472</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>1247</v>
+        <v>304</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>306</v>
@@ -8575,36 +8701,36 @@
         <v>339</v>
       </c>
       <c r="V64" s="13">
-        <v>5</v>
-      </c>
-      <c r="X64" s="3" t="s">
-        <v>1244</v>
+        <v>2.1</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1251</v>
+        <v>1229</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>306</v>
@@ -8613,165 +8739,147 @@
         <v>339</v>
       </c>
       <c r="V65" s="13">
-        <v>5</v>
-      </c>
-      <c r="X65" s="3" t="s">
-        <v>1248</v>
+        <v>3.3</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>511</v>
+        <v>1240</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>500</v>
+        <v>1223</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>513</v>
+        <v>1241</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>514</v>
+        <v>1242</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>485</v>
+        <v>1232</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>515</v>
+        <v>1236</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V66" s="13">
-        <v>4.0999999999999996</v>
+        <v>339</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>510</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>518</v>
+        <v>1243</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>501</v>
+        <v>1224</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>519</v>
+        <v>1245</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>520</v>
+        <v>1246</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>486</v>
+        <v>1233</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>496</v>
+        <v>1237</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="V67" s="13">
         <v>5</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>517</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>1192</v>
+        <v>1249</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>502</v>
+        <v>1225</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>522</v>
+        <v>1250</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>523</v>
+        <v>1251</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>320</v>
+        <v>1252</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>487</v>
+        <v>1234</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>53</v>
+        <v>1238</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="V68" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>521</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>306</v>
@@ -8780,36 +8888,33 @@
         <v>484</v>
       </c>
       <c r="V69" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>306</v>
@@ -8820,34 +8925,37 @@
       <c r="V70" s="13">
         <v>5</v>
       </c>
-      <c r="X70" s="2" t="s">
-        <v>534</v>
+      <c r="X70" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>541</v>
+        <v>523</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>499</v>
+        <v>253</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>542</v>
+        <v>53</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -8856,36 +8964,48 @@
         <v>484</v>
       </c>
       <c r="V71" s="13">
-        <v>5</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>539</v>
+        <v>3.3</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>296</v>
+        <v>529</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>469</v>
+        <v>497</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
@@ -8894,36 +9014,36 @@
         <v>484</v>
       </c>
       <c r="V72" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>543</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -8935,33 +9055,33 @@
         <v>5</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>554</v>
+        <v>1183</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>330</v>
+        <v>499</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -8973,36 +9093,33 @@
         <v>5</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>1192</v>
+        <v>544</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9011,42 +9128,36 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>1213</v>
+        <v>555</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1212</v>
+        <v>507</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1215</v>
+        <v>548</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>1216</v>
+        <v>549</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>1217</v>
+        <v>296</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1218</v>
+        <v>492</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>1220</v>
+        <v>550</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9057,148 +9168,157 @@
       <c r="V76" s="13">
         <v>5</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>1214</v>
+      <c r="X76" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>726</v>
+        <v>554</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>665</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>727</v>
+        <v>552</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>728</v>
+        <v>553</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>558</v>
+        <v>493</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>559</v>
+        <v>330</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
       </c>
-      <c r="X77" s="3" t="s">
-        <v>725</v>
+      <c r="X77" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>730</v>
+        <v>1192</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>666</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>731</v>
+        <v>522</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>732</v>
+        <v>523</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>561</v>
+        <v>253</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V78" s="13">
-        <v>5</v>
-      </c>
-      <c r="X78" s="3" t="s">
-        <v>729</v>
+        <v>3.3</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>734</v>
+        <v>1213</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>667</v>
+        <v>1212</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>735</v>
+        <v>1215</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>736</v>
+        <v>1216</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>737</v>
+        <v>1217</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>562</v>
+        <v>1218</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>619</v>
+        <v>1219</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V79" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>733</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>742</v>
+        <v>559</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9207,39 +9327,33 @@
         <v>557</v>
       </c>
       <c r="V80" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>738</v>
+        <v>5</v>
+      </c>
+      <c r="X80" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>296</v>
+        <v>732</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>747</v>
+        <v>561</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9248,39 +9362,36 @@
         <v>557</v>
       </c>
       <c r="V81" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X81" s="2" t="s">
-        <v>743</v>
+        <v>5</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>752</v>
+        <v>619</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9289,39 +9400,39 @@
         <v>557</v>
       </c>
       <c r="V82" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="X82" s="2" t="s">
-        <v>748</v>
+        <v>4.3</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>758</v>
+        <v>251</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9330,39 +9441,39 @@
         <v>557</v>
       </c>
       <c r="V83" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>1184</v>
+        <v>744</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>762</v>
+        <v>296</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>304</v>
+        <v>550</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9371,39 +9482,39 @@
         <v>557</v>
       </c>
       <c r="V84" s="13">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>768</v>
+        <v>320</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9412,36 +9523,39 @@
         <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>454</v>
+        <v>757</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>478</v>
+        <v>621</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>758</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9450,39 +9564,39 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>775</v>
+        <v>1184</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>623</v>
+        <v>304</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9491,39 +9605,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9532,39 +9646,36 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>790</v>
+        <v>478</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -9573,39 +9684,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>786</v>
+        <v>1</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>797</v>
+        <v>623</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -9614,39 +9725,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>1185</v>
+        <v>781</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>802</v>
+        <v>624</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -9655,33 +9766,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>798</v>
+        <v>4.8</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>1186</v>
+        <v>787</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>804</v>
+        <v>788</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>789</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>805</v>
+        <v>454</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>626</v>
+        <v>791</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -9690,36 +9807,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>803</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>810</v>
+        <v>454</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>627</v>
+        <v>797</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -9728,39 +9848,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>812</v>
+        <v>1185</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -9769,39 +9889,33 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="X94" s="2" t="s">
-        <v>811</v>
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>818</v>
+        <v>1186</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>296</v>
+        <v>805</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>821</v>
+        <v>626</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -9810,39 +9924,36 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>1187</v>
+        <v>807</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>826</v>
+        <v>627</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -9851,39 +9962,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>3.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>320</v>
+        <v>815</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>831</v>
+        <v>628</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -9892,39 +10003,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4</v>
-      </c>
-      <c r="X97" s="3" t="s">
-        <v>827</v>
+        <v>4.3</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>1191</v>
+        <v>818</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>253</v>
+        <v>550</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>524</v>
+        <v>821</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -9933,39 +10044,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>836</v>
+        <v>1187</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>840</v>
+        <v>629</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -9974,39 +10085,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>843</v>
+        <v>829</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>830</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>845</v>
+        <v>389</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10015,36 +10126,39 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>850</v>
+        <v>1191</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>632</v>
+        <v>253</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10053,39 +10167,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>856</v>
+        <v>630</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10094,39 +10208,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>861</v>
+        <v>320</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>862</v>
+        <v>631</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10135,39 +10249,36 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>287</v>
+        <v>849</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>867</v>
+        <v>632</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10176,48 +10287,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>5</v>
-      </c>
-      <c r="X104" s="3" t="s">
-        <v>863</v>
+        <v>3.7</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>874</v>
+        <v>633</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10228,31 +10330,37 @@
       <c r="V105" s="13">
         <v>5</v>
       </c>
-      <c r="X105" s="3" t="s">
-        <v>868</v>
+      <c r="X105" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>879</v>
+        <v>859</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>860</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>320</v>
+        <v>861</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10261,39 +10369,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>166</v>
+        <v>866</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>168</v>
+        <v>635</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10302,36 +10410,48 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X107" s="2" t="s">
-        <v>880</v>
+        <v>5</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10340,39 +10460,33 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>893</v>
+        <v>320</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>891</v>
+        <v>637</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10381,42 +10495,39 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>1188</v>
+        <v>881</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>895</v>
+        <v>166</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>896</v>
+        <v>167</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>898</v>
+        <v>168</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10425,39 +10536,36 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>5</v>
-      </c>
-      <c r="X110" s="3" t="s">
-        <v>894</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>1189</v>
+        <v>884</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>903</v>
+        <v>639</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10466,36 +10574,39 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10504,39 +10615,42 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>910</v>
+        <v>1188</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>920</v>
+        <v>641</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10545,42 +10659,39 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>914</v>
+        <v>1189</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -10589,33 +10700,36 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>924</v>
+        <v>907</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>908</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -10623,37 +10737,40 @@
       <c r="T115" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X115" s="2" t="s">
-        <v>921</v>
+      <c r="V115" s="13">
+        <v>5</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>930</v>
+        <v>644</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -10662,39 +10779,42 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>1190</v>
+        <v>914</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>320</v>
+        <v>917</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>934</v>
+        <v>645</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -10703,39 +10823,33 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X117" s="2" t="s">
-        <v>931</v>
+        <v>4.7</v>
+      </c>
+      <c r="X117" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>320</v>
+        <v>924</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>939</v>
+        <v>646</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -10743,46 +10857,37 @@
       <c r="T118" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V118" s="13">
-        <v>3.4</v>
-      </c>
       <c r="X118" s="2" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>947</v>
+        <v>647</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -10791,39 +10896,39 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>949</v>
+        <v>1190</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>952</v>
+        <v>320</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>649</v>
+        <v>253</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -10832,33 +10937,39 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>956</v>
+        <v>937</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>938</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>650</v>
+        <v>389</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -10867,36 +10978,45 @@
         <v>557</v>
       </c>
       <c r="V121" s="13">
-        <v>3</v>
-      </c>
-      <c r="X121" s="3" t="s">
-        <v>954</v>
+        <v>3.4</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>959</v>
+        <v>942</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>943</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>961</v>
+        <v>946</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -10904,34 +11024,40 @@
       <c r="T122" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X122" s="2" t="s">
-        <v>957</v>
+      <c r="V122" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1199</v>
+        <v>949</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -10940,39 +11066,33 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X123" s="3" t="s">
-        <v>962</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1198</v>
+        <v>955</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>969</v>
+        <v>320</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>970</v>
+        <v>650</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -10981,30 +11101,36 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>973</v>
+        <v>959</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>960</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11012,34 +11138,34 @@
       <c r="T125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V125" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="X125" s="3" t="s">
-        <v>971</v>
+      <c r="X125" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>975</v>
+        <v>1199</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>976</v>
+        <v>963</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>964</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11048,36 +11174,39 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>979</v>
+        <v>1198</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11086,39 +11215,30 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1197</v>
+        <v>972</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>815</v>
+        <v>973</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>986</v>
+        <v>654</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11127,45 +11247,33 @@
         <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="X128" s="3" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>993</v>
+        <v>655</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11174,42 +11282,36 @@
         <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11218,39 +11320,39 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>5</v>
-      </c>
-      <c r="X130" s="2" t="s">
-        <v>995</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X130" s="3" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1003</v>
+        <v>1197</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1006</v>
+        <v>815</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>1007</v>
+        <v>657</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11259,39 +11361,45 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>330</v>
+        <v>658</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1013</v>
+        <v>992</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11300,42 +11408,42 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X132" s="2" t="s">
-        <v>1008</v>
+        <v>5</v>
+      </c>
+      <c r="X132" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>1020</v>
+        <v>1001</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11347,36 +11455,36 @@
         <v>5</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>1026</v>
+        <v>660</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11385,36 +11493,39 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="X134" s="2" t="s">
-        <v>1021</v>
+        <v>4.5</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>663</v>
+        <v>330</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11423,36 +11534,42 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X135" s="3" t="s">
-        <v>1027</v>
+        <v>4.7</v>
+      </c>
+      <c r="X135" s="2" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1080</v>
+        <v>1015</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1081</v>
+        <v>1016</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1082</v>
+        <v>1017</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>320</v>
+        <v>1018</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>1020</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11461,36 +11578,39 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>4</v>
-      </c>
-      <c r="X136" s="3" t="s">
-        <v>1079</v>
+        <v>5</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1084</v>
+        <v>1022</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1032</v>
+        <v>722</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1085</v>
+        <v>1023</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1086</v>
+        <v>1024</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>454</v>
+        <v>1025</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1048</v>
+        <v>616</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1064</v>
+        <v>662</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11499,39 +11619,36 @@
         <v>557</v>
       </c>
       <c r="V137" s="13">
-        <v>5</v>
-      </c>
-      <c r="X137" s="3" t="s">
-        <v>1083</v>
+        <v>4.8</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1088</v>
+        <v>1028</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1033</v>
+        <v>723</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1089</v>
+        <v>1029</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1090</v>
+        <v>1030</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1049</v>
+        <v>617</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>1091</v>
+        <v>663</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11540,39 +11657,36 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>5</v>
-      </c>
-      <c r="X138" s="2" t="s">
-        <v>1087</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X138" s="3" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1034</v>
+        <v>724</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1050</v>
+        <v>618</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>1097</v>
+        <v>664</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -11581,39 +11695,36 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X139" s="2" t="s">
-        <v>1092</v>
+        <v>4</v>
+      </c>
+      <c r="X139" s="3" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -11624,34 +11735,37 @@
       <c r="V140" s="13">
         <v>5</v>
       </c>
-      <c r="X140" s="2" t="s">
-        <v>1098</v>
+      <c r="X140" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1091</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -11660,39 +11774,39 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>1112</v>
+        <v>1066</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -11701,39 +11815,39 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>1117</v>
+        <v>1067</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -11745,33 +11859,33 @@
         <v>5</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1122</v>
+        <v>320</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -11779,34 +11893,40 @@
       <c r="T144" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X144" s="3" t="s">
-        <v>1118</v>
+      <c r="V144" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -11818,30 +11938,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1196</v>
+        <v>1114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1129</v>
+        <v>1115</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>1116</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -11853,36 +11979,33 @@
         <v>5</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>1135</v>
+        <v>1071</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -11890,40 +12013,34 @@
       <c r="T147" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V147" s="13">
-        <v>4.5</v>
-      </c>
       <c r="X147" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>1141</v>
+        <v>1072</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -11932,39 +12049,33 @@
         <v>557</v>
       </c>
       <c r="V148" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1143</v>
+        <v>1196</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1146</v>
+        <v>320</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>1147</v>
+        <v>1073</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -11973,36 +12084,39 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1151</v>
+        <v>1133</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>1134</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12011,39 +12125,39 @@
         <v>557</v>
       </c>
       <c r="V150" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="X150" s="2" t="s">
-        <v>1148</v>
+        <v>4.5</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>48</v>
+        <v>1075</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12052,30 +12166,39 @@
         <v>557</v>
       </c>
       <c r="V151" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X151" s="2" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1177</v>
+        <v>1144</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12083,34 +12206,37 @@
       <c r="T152" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V152" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1257</v>
+        <v>1149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1253</v>
+        <v>1045</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1258</v>
+        <v>1150</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>1259</v>
+        <v>1151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1255</v>
+        <v>1061</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1256</v>
+        <v>1077</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1261</v>
+        <v>1152</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12119,9 +12245,117 @@
         <v>557</v>
       </c>
       <c r="V153" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="20" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V154" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="20" customHeight="1">
+      <c r="A155" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="20" customHeight="1">
+      <c r="A156" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V156" s="13">
         <v>5</v>
       </c>
-      <c r="X153" s="2" t="s">
+      <c r="X156" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -12174,154 +12408,159 @@
     <hyperlink ref="M32" r:id="rId39" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
     <hyperlink ref="K32" r:id="rId40" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
     <hyperlink ref="I35" r:id="rId41" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X40" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I40" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X41" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X42" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X43" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J43" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M43" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X44" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J44" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X46" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I46" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X47" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J47" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M47" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X48" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I48" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X49" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I50" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I51" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X52" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J52" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I52" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X53" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L53" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K53" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I54" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X55" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J56" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X57" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J57" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X58" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X59" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I59" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X66" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N66" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X67" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X68" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I68" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X69" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P69" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O69" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N69" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I69" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I71" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I75" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X77" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X78" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X79" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I81" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I82" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I83" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I84" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I85" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I87" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I88" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X89" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I89" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I90" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X91" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A93" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X97" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I99" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X100" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J100" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K100" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X103" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X104" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X105" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M105" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I105" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K105" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X106" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I107" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X108" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X109" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I109" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X110" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I110" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K110" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X111" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I111" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X112" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X113" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X114" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J114" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I114" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X116" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I118" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X119" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J119" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M119" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X121" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X123" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X124" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J124" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X125" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X126" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X127" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X128" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J128" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K128" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X129" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J129" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M129" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I129" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J130" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I130" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X131" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I131" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J132" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I133" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K133" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K134" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X135" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X136" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X137" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J138" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J139" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I140" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I142" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J143" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X144" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X147" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J147" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J148" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I149" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J150" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I151" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X43" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I43" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X44" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X45" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X46" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J46" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M46" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X47" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J47" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X49" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I49" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X50" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J50" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M50" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X51" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I51" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X52" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I53" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I54" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X55" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J55" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I55" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X56" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L56" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K56" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I57" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X58" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J59" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X60" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J60" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X61" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X62" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I62" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X69" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N69" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X70" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X71" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I71" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X72" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P72" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O72" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N72" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I72" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I74" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I78" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X80" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X81" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X82" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I84" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I85" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I86" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I87" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I88" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I90" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I91" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X92" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I92" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I93" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X94" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A96" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X100" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I102" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X103" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J103" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K103" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X106" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X107" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X108" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M108" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I108" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K108" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X109" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I110" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X111" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X112" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I112" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X113" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I113" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K113" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X114" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I114" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X115" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X116" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X117" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J117" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I117" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X119" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I121" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X122" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J122" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M122" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X124" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X126" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X127" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J127" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X128" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X129" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X130" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X131" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J131" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K131" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X132" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J132" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M132" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I132" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J133" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I133" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X134" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I134" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J135" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I136" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K136" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K137" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X138" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X139" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X140" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J141" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J142" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I143" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I145" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J146" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X147" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X150" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J150" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J151" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I152" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J153" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I154" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X76" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J76" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I76" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
-    <hyperlink ref="X63" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
-    <hyperlink ref="X64" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
-    <hyperlink ref="K64" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
-    <hyperlink ref="X65" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J153" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="X79" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J79" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I79" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X66" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
+    <hyperlink ref="X67" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
+    <hyperlink ref="K67" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
+    <hyperlink ref="X68" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
+    <hyperlink ref="J156" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
     <hyperlink ref="K18" r:id="rId187" location="~" xr:uid="{B69FE94E-19F5-284F-9DA8-C7F21AA519D7}"/>
     <hyperlink ref="X39" r:id="rId188" display="https://www.google.com/maps/place/%E9%95%B7%E9%A0%B8%E9%B9%BF%E7%BE%8E%E8%AA%9E+%E6%A8%82%E5%96%84%E5%88%86%E6%A0%A1/@25.0543203,121.3778862,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70b1d4d4a77:0x60fa9c09b65992ef!8m2!3d25.0543204!4d121.3827571!16s%2Fg%2F11y1xh09kn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D338D184-519D-8948-A873-07394D01C4DB}"/>
     <hyperlink ref="J39" r:id="rId189" xr:uid="{975E9392-F44B-2747-8AF6-7A44239F8BF5}"/>
+    <hyperlink ref="X40" r:id="rId190" display="https://www.google.com/maps/place/%E4%BF%AC%E6%A8%B8%E5%B1%85%E7%A0%94+X+%E8%BB%8A%E7%A0%94/@25.0546979,121.384203,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a77b0c1f2fe7:0xaeb76e4f300db3e9!8m2!3d25.0546979!4d121.384203!16s%2Fg%2F11jzrtf_2n?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AF0515B1-C9A3-D64B-AE6E-30768BA278C1}"/>
+    <hyperlink ref="K41" r:id="rId191" xr:uid="{840496ED-C6E4-AF4E-BE5A-DA863E9C0CAE}"/>
+    <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
+    <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
+    <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384228B-2346-2B40-80BE-6906AA3C071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C71BED-F4F1-8743-A65E-3019016912C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2160" yWindow="-27120" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="-26540" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -6100,10 +6100,10 @@
   <dimension ref="A1:AA156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7620,7 +7620,7 @@
         <v>1203</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1207</v>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C71BED-F4F1-8743-A65E-3019016912C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B4D45-CE07-EE4E-BE21-74CEA2DE5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="-26540" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="-22500" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1307">
   <si>
     <t>address</t>
   </si>
@@ -4806,6 +4806,10 @@
   </si>
   <si>
     <t>https://www.welock.com.tw/?fbclid=IwAR24ZXLQQ7cizGFuWsZ5xEqJP_VGKKWIdiQz4ckN_1vWn45_MgQD59T7ri0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-004-1.png" class="max-w-sm" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6100,10 +6104,10 @@
   <dimension ref="A1:AA156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="A157" sqref="A157:XFD157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6377,6 +6381,9 @@
       <c r="V5" s="13">
         <v>5</v>
       </c>
+      <c r="W5" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="X5" s="3" t="s">
         <v>82</v>
       </c>
@@ -6500,6 +6507,9 @@
       </c>
       <c r="V8" s="13">
         <v>5</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>1306</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>101</v>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B4D45-CE07-EE4E-BE21-74CEA2DE5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3EDC87-C2A0-5340-91E8-60FB3B48B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="-22500" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="-25600" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1335">
   <si>
     <t>address</t>
   </si>
@@ -4810,6 +4810,104 @@
   </si>
   <si>
     <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-004-1.png" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5-078</t>
+  </si>
+  <si>
+    <t>S5-079</t>
+  </si>
+  <si>
+    <t>S5-080</t>
+  </si>
+  <si>
+    <t>SHO-S5-078.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-079.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-080.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-078L.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-080L.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全家便利商店 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>博登建設投資</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路25號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%A1%83%E5%9C%92%E5%B8%82%E7%A7%81%E7%AB%8B%E8%98%8A%E6%84%9B%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0415616,121.3866155,17z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x761e1df5150037d1!4m6!3m5!1s0x3442a7d76c88db61:0x871bd0e42e69372a!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F11y1z87yg5?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘊愛托嬰中心</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文學路263號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-7138</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>河合音樂教室</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5-081</t>
+  </si>
+  <si>
+    <t>SHO-S5-081.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-081L.jpeg</t>
+  </si>
+  <si>
+    <t>桃園市龜山區文學路229號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5-082</t>
+  </si>
+  <si>
+    <t>SHO-S5-082.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-082L.jpeg</t>
+  </si>
+  <si>
+    <t>小倉鼠健身坊</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%B0%8F%E5%80%89%E9%BC%A0%E5%81%A5%E8%BA%AB%E5%9D%8A_+A7+%E9%A6%96%E5%AE%B6+%E7%A7%81%E4%BA%BA%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4%EF%BC%8F%E4%B8%80%E5%B0%8D%E4%B8%80%EF%BC%8F%E4%B8%80%E5%B0%8D2%EF%BC%8F%E4%B8%80%E5%B0%8D%E4%B8%89%EF%BC%8F%E5%A5%B3%E6%95%99%E7%B7%B4+%EF%BC%8F%E5%9C%8B%E9%9A%9B%E8%AD%89%E7%85%A7%EF%BC%8F+%E5%A7%BF%E6%85%8B%E7%9F%AF%E6%AD%A3%EF%BC%8F%E9%AB%94%E6%85%8B%E9%9B%95%E5%A1%91%EF%BC%8F%E9%A0%90%E7%B4%84%E5%88%B6%EF%BC%8F%E5%A4%A7%E7%A9%BA%E9%96%93%E5%90%8C%E6%99%82%E6%AE%B5%E6%9C%80%E5%A4%9A%E5%85%A9%E7%B5%84/@25.0403127,121.3865081,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a714f2c1715f:0xb03091fcddcb2874!8m2!3d25.0403079!4d121.389083!16s%2Fg%2F11jjr20wg7?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青路213號2F</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/ti/p/@377ijnzz</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6101,13 +6199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA156"/>
+  <dimension ref="A1:AA161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A157" sqref="A157:XFD157"/>
+      <selection pane="bottomRight" activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -12367,6 +12465,148 @@
       </c>
       <c r="X156" s="2" t="s">
         <v>1254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="20" customHeight="1">
+      <c r="A157" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="20" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="20" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X159" s="2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="20" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="20" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X161" s="2" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -12571,6 +12811,7 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
+    <hyperlink ref="K161" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3EDC87-C2A0-5340-91E8-60FB3B48B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154C945-CFEF-A04C-9A65-AA537B984C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="-25600" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20740" yWindow="-24720" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1338">
   <si>
     <t>address</t>
   </si>
@@ -4908,6 +4908,18 @@
   </si>
   <si>
     <t>https://line.me/ti/p/@377ijnzz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>solomonsmartlinkou@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lin.ee/RIUW6Hw</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-043-1.jpg" class="max-w-sm" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6202,10 +6214,10 @@
   <dimension ref="A1:AA161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M162" sqref="M162"/>
+      <selection pane="bottomRight" activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7923,15 +7935,23 @@
       <c r="J42" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>1336</v>
+      </c>
       <c r="L42" s="3" t="s">
         <v>1304</v>
       </c>
+      <c r="M42" s="3" t="s">
+        <v>1335</v>
+      </c>
       <c r="S42" s="2" t="s">
         <v>108</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>1337</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>1298</v>
@@ -12812,6 +12832,8 @@
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
     <hyperlink ref="K161" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
+    <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154C945-CFEF-A04C-9A65-AA537B984C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B785297-55F0-2E42-9F02-9EB6EA5A31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="-24720" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="-26340" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1353">
   <si>
     <t>address</t>
   </si>
@@ -4841,10 +4841,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區文青二路</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>博登建設投資</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4920,6 +4916,65 @@
   </si>
   <si>
     <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-043-1.jpg" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路204號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5-083</t>
+  </si>
+  <si>
+    <t>S5-084</t>
+  </si>
+  <si>
+    <t>食</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路206號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路208號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S5-083.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-084.jpeg</t>
+  </si>
+  <si>
+    <t>SHO-S5-083L.jpeg</t>
+  </si>
+  <si>
+    <t>住商不動產</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>極禾優質鍋物</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聯福利中心龜山華亞店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3-024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-024.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化里華亞三路41號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6211,13 +6266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA161"/>
+  <dimension ref="A1:AA164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W42" sqref="W42"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -7936,13 +7991,13 @@
         <v>1303</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>108</v>
@@ -7951,7 +8006,7 @@
         <v>34</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>1298</v>
@@ -8983,66 +9038,60 @@
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>511</v>
+        <v>1348</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>514</v>
+        <v>1352</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>485</v>
+        <v>1351</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>515</v>
+        <v>252</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V69" s="13">
-        <v>4.0999999999999996</v>
+        <v>339</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>510</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>306</v>
@@ -9051,39 +9100,33 @@
         <v>484</v>
       </c>
       <c r="V70" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -9092,48 +9135,39 @@
         <v>484</v>
       </c>
       <c r="V71" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
@@ -9142,36 +9176,48 @@
         <v>484</v>
       </c>
       <c r="V72" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -9180,36 +9226,36 @@
         <v>484</v>
       </c>
       <c r="V73" s="13">
-        <v>5</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -9221,33 +9267,33 @@
         <v>5</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9256,36 +9302,36 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9294,36 +9340,36 @@
         <v>484</v>
       </c>
       <c r="V76" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9335,36 +9381,33 @@
         <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9373,42 +9416,39 @@
         <v>484</v>
       </c>
       <c r="V78" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9417,71 +9457,80 @@
         <v>484</v>
       </c>
       <c r="V79" s="13">
-        <v>5</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>726</v>
+        <v>1213</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>665</v>
+        <v>1212</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>727</v>
+        <v>1215</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>728</v>
+        <v>1216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>287</v>
+        <v>1217</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>558</v>
+        <v>1218</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>559</v>
+        <v>1219</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V80" s="13">
         <v>5</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>725</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9493,33 +9542,30 @@
         <v>5</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9528,39 +9574,36 @@
         <v>557</v>
       </c>
       <c r="V82" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9569,39 +9612,39 @@
         <v>557</v>
       </c>
       <c r="V83" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X83" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9610,39 +9653,39 @@
         <v>557</v>
       </c>
       <c r="V84" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9651,39 +9694,39 @@
         <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9692,39 +9735,39 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9733,39 +9776,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9774,36 +9817,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -9812,39 +9858,36 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -9853,39 +9896,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -9894,39 +9937,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -9935,39 +9978,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X92" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -9976,39 +10019,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X93" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X93" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10017,33 +10060,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10052,36 +10101,33 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10090,39 +10136,36 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10131,39 +10174,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10172,39 +10215,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10213,39 +10256,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10254,39 +10297,39 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10295,39 +10338,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10336,39 +10379,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10377,36 +10420,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>5</v>
-      </c>
-      <c r="X103" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10415,39 +10461,36 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X104" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10456,39 +10499,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10497,39 +10540,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X106" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10538,48 +10581,39 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10591,30 +10625,45 @@
         <v>5</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10623,39 +10672,33 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10664,36 +10707,39 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X110" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X110" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10702,39 +10748,36 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X111" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10743,42 +10786,39 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10787,39 +10827,42 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -10828,36 +10871,39 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -10866,18 +10912,18 @@
         <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>183</v>
@@ -10886,19 +10932,16 @@
         <v>906</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -10907,42 +10950,39 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -10951,33 +10991,42 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -10985,37 +11034,34 @@
       <c r="T118" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X118" s="2" t="s">
-        <v>921</v>
+      <c r="V118" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11023,40 +11069,37 @@
       <c r="T119" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V119" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X119" s="3" t="s">
-        <v>925</v>
+      <c r="X119" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11065,39 +11108,39 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X120" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X120" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11106,45 +11149,39 @@
         <v>557</v>
       </c>
       <c r="V121" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11153,39 +11190,45 @@
         <v>557</v>
       </c>
       <c r="V122" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X122" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11194,33 +11237,39 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X123" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X123" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11229,36 +11278,33 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>3</v>
-      </c>
-      <c r="X124" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11266,34 +11312,37 @@
       <c r="T125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X125" s="2" t="s">
-        <v>957</v>
+      <c r="V125" s="13">
+        <v>3</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11301,40 +11350,34 @@
       <c r="T126" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V126" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X126" s="3" t="s">
-        <v>962</v>
+      <c r="X126" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11343,30 +11386,39 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11375,33 +11427,30 @@
         <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X128" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11410,36 +11459,33 @@
         <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11448,39 +11494,36 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11489,45 +11532,39 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11539,39 +11576,42 @@
         <v>5</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11582,37 +11622,40 @@
       <c r="V133" s="13">
         <v>5</v>
       </c>
-      <c r="X133" s="2" t="s">
-        <v>995</v>
+      <c r="X133" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11621,39 +11664,39 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X134" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X134" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11662,42 +11705,39 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X135" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11706,39 +11746,42 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11747,36 +11790,39 @@
         <v>557</v>
       </c>
       <c r="V137" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11785,36 +11831,36 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X138" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -11823,36 +11869,36 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X139" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -11861,39 +11907,36 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -11904,37 +11947,37 @@
       <c r="V141" s="13">
         <v>5</v>
       </c>
-      <c r="X141" s="2" t="s">
-        <v>1087</v>
+      <c r="X141" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -11943,39 +11986,39 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -11984,36 +12027,39 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12022,39 +12068,36 @@
         <v>557</v>
       </c>
       <c r="V144" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12066,36 +12109,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12104,36 +12147,39 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12141,34 +12187,37 @@
       <c r="T147" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X147" s="3" t="s">
-        <v>1118</v>
+      <c r="V147" s="13">
+        <v>5</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12176,34 +12225,34 @@
       <c r="T148" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V148" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X148" s="2" t="s">
-        <v>1123</v>
+      <c r="X148" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12212,39 +12261,33 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12253,39 +12296,39 @@
         <v>557</v>
       </c>
       <c r="V150" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X150" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12294,39 +12337,39 @@
         <v>557</v>
       </c>
       <c r="V151" s="13">
-        <v>5</v>
-      </c>
-      <c r="X151" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12335,36 +12378,39 @@
         <v>557</v>
       </c>
       <c r="V152" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12373,39 +12419,36 @@
         <v>557</v>
       </c>
       <c r="V153" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12414,30 +12457,39 @@
         <v>557</v>
       </c>
       <c r="V154" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12445,34 +12497,31 @@
       <c r="T155" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V155" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X155" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1253</v>
+        <v>1047</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>1259</v>
+        <v>1177</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1255</v>
+        <v>1063</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>1261</v>
+        <v>1078</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12480,31 +12529,34 @@
       <c r="T156" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V156" s="13">
-        <v>5</v>
-      </c>
-      <c r="X156" s="2" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1317</v>
+        <v>1257</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1318</v>
+        <v>1258</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1310</v>
+        <v>1255</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1313</v>
+        <v>1256</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12512,25 +12564,31 @@
       <c r="T157" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V157" s="13">
+        <v>5</v>
+      </c>
+      <c r="X157" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>389</v>
+        <v>1313</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12541,25 +12599,22 @@
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1314</v>
+        <v>389</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12567,28 +12622,28 @@
       <c r="T159" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X159" s="2" t="s">
-        <v>1319</v>
-      </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1327</v>
+        <v>1320</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1321</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12596,28 +12651,28 @@
       <c r="T160" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X160" s="2" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12625,8 +12680,89 @@
       <c r="T161" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:24" ht="20" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>1332</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X162" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="20" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="20" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -12711,115 +12847,115 @@
     <hyperlink ref="X61" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
     <hyperlink ref="X62" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
     <hyperlink ref="I62" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X69" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N69" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X70" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X71" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I71" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X72" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P72" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O72" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N72" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I72" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I74" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I78" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X80" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X81" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X82" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I84" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I85" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I86" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I87" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I88" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I90" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I91" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X92" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I92" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I93" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X94" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A96" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X100" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I102" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X103" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J103" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K103" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X106" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X107" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X108" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M108" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I108" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K108" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X109" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I110" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X111" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X112" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I112" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X113" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I113" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K113" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X114" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I114" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X115" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X116" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X117" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J117" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I117" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X119" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I121" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X122" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J122" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M122" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X124" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X126" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X127" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J127" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X128" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X129" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X130" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X131" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J131" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K131" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X132" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J132" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M132" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I132" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J133" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I133" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X134" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I134" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J135" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I136" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K136" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K137" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X138" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X139" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X140" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J141" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J142" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I143" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I145" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J146" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X147" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X150" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J150" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J151" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I152" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J153" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I154" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X70" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N70" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X71" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X72" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I72" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X73" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P73" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O73" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N73" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I73" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I75" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I79" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X81" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X82" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X83" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I85" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I86" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I87" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I88" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I89" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I91" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I92" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X93" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I93" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I94" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X95" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A97" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X101" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I103" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X104" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J104" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K104" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X107" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X108" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X109" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M109" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I109" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K109" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X110" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I111" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X112" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X113" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I113" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X114" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I114" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K114" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X115" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I115" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X116" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X117" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X118" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J118" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I118" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X120" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I122" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X123" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J123" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M123" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X125" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X127" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X128" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J128" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X129" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X130" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X131" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X132" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J132" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K132" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X133" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J133" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M133" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I133" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J134" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I134" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X135" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I135" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J136" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I137" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K137" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K138" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X139" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X140" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X141" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J142" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J143" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I144" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I146" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J147" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X148" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X151" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J151" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J152" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I153" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J154" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I155" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X79" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J79" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I79" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X80" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J80" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I80" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
     <hyperlink ref="X66" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
     <hyperlink ref="X67" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
     <hyperlink ref="K67" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
     <hyperlink ref="X68" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J156" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="J157" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -12831,9 +12967,10 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K161" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K162" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
+    <hyperlink ref="X69" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B785297-55F0-2E42-9F02-9EB6EA5A31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757FB4C-253A-2446-B7DA-498A0D435EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="-26340" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11860" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1375">
   <si>
     <t>address</t>
   </si>
@@ -4975,6 +4975,98 @@
   </si>
   <si>
     <t>桃園市龜山區文化里華亞三路41號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-039-1.png" class="max-w-sm" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-039-2.png" class="max-w-sm" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-039-3.png" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-004-1.png" class="max-w-sm" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-007-2.png" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S1-006-1.png" class="max-w-sm" /&gt;
+</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>崝藝術股份有限公司</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4-012</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zheng.edu.art?igsh=a2ZsY204cmRndnRi&amp;utm_source=qr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S4-012L.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S4-012.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文吉路28號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-4677</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S4-012-1.png" class="max-w-sm" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S4-012-2.png" class="max-w-sm" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S4-012-3.png" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-044</t>
+  </si>
+  <si>
+    <t>管管音樂長慶工作室</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街75號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912-081-668</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 - 21:00 週六 09:00 - 18:00 週日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/guanguanmusic?mibextid=WC7FNe&amp;rdid=AAPb9TxhOuCx8o3Z</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>emma0912081668@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E7%AE%A1%E7%AE%A1%E9%9F%B3%E6%A8%82%E9%95%B7%E6%85%B6%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0554402,121.384045,21z/data=!4m14!1m7!3m6!1s0x3442a7cbf3667b0f:0x7a14b59074c06479!2z6Iqv57696Jel5bGALem-nOWxseWEquizquiXpeWxgHzlsIjmpa3ol6XluKt85o6o6Jam6Jel5bGAfOS_neWBpeWTgeirruiponzmhaLmgKfomZXmlrnnrot85bCI5qWt6Kuu6Kmi6Jel5bir!8m2!3d25.055484!4d121.3844562!16s%2Fg%2F11y227fbkf!3m5!1s0x3442a733b35ae401:0x3d71aa13c59c670a!8m2!3d25.055664!4d121.3841659!16s%2Fg%2F11ldrljvh0?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-044.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-044L.png</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5089,7 +5181,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5136,6 +5228,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6266,13 +6361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA164"/>
+  <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6635,6 +6730,9 @@
       <c r="V7" s="13">
         <v>5</v>
       </c>
+      <c r="W7" s="16" t="s">
+        <v>1355</v>
+      </c>
       <c r="X7" s="2" t="s">
         <v>94</v>
       </c>
@@ -6673,8 +6771,8 @@
       <c r="V8" s="13">
         <v>5</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>1306</v>
+      <c r="W8" s="16" t="s">
+        <v>1354</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>101</v>
@@ -7827,6 +7925,9 @@
       </c>
       <c r="V38" s="13">
         <v>4.7</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>1353</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>1206</v>
@@ -8014,69 +8115,75 @@
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>1193</v>
+        <v>1366</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>307</v>
+        <v>1365</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>318</v>
+        <v>1367</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>319</v>
+        <v>1368</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>320</v>
+        <v>1369</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>311</v>
+        <v>1373</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>53</v>
+        <v>1374</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V43" s="13">
-        <v>4.3</v>
+        <v>34</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>317</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>322</v>
+        <v>1193</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>312</v>
+        <v>253</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>306</v>
@@ -8085,36 +8192,36 @@
         <v>305</v>
       </c>
       <c r="V44" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>306</v>
@@ -8123,44 +8230,37 @@
         <v>305</v>
       </c>
       <c r="V45" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="N46" s="14"/>
+        <v>330</v>
+      </c>
       <c r="S46" s="2" t="s">
         <v>306</v>
       </c>
@@ -8168,77 +8268,84 @@
         <v>305</v>
       </c>
       <c r="V46" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N47" s="14"/>
       <c r="S47" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V47" s="13">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>306</v>
@@ -8247,39 +8354,36 @@
         <v>339</v>
       </c>
       <c r="V48" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>385</v>
+        <v>4.3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>306</v>
@@ -8288,44 +8392,40 @@
         <v>339</v>
       </c>
       <c r="V49" s="13">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>390</v>
+        <v>2.5</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N50" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="S50" s="2" t="s">
         <v>306</v>
       </c>
@@ -8333,40 +8433,44 @@
         <v>339</v>
       </c>
       <c r="V50" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>408</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N51" s="3"/>
       <c r="S51" s="2" t="s">
         <v>306</v>
       </c>
@@ -8374,36 +8478,39 @@
         <v>339</v>
       </c>
       <c r="V51" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>306</v>
@@ -8412,36 +8519,36 @@
         <v>339</v>
       </c>
       <c r="V52" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>306</v>
@@ -8450,34 +8557,36 @@
         <v>339</v>
       </c>
       <c r="V53" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>414</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="G54" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>306</v>
@@ -8486,42 +8595,34 @@
         <v>339</v>
       </c>
       <c r="V54" s="13">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>306</v>
@@ -8530,42 +8631,42 @@
         <v>339</v>
       </c>
       <c r="V55" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="X55" s="3" t="s">
-        <v>424</v>
+        <v>4.8</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>87</v>
+        <v>428</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>435</v>
+        <v>375</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>306</v>
@@ -8574,39 +8675,42 @@
         <v>339</v>
       </c>
       <c r="V56" s="13">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>256</v>
+        <v>376</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>306</v>
@@ -8615,36 +8719,39 @@
         <v>339</v>
       </c>
       <c r="V57" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>437</v>
+        <v>5</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>377</v>
+        <v>251</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>306</v>
@@ -8653,39 +8760,36 @@
         <v>339</v>
       </c>
       <c r="V58" s="13">
-        <v>3</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>441</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>1182</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>306</v>
@@ -8694,39 +8798,39 @@
         <v>339</v>
       </c>
       <c r="V59" s="13">
-        <v>5</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>446</v>
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>791</v>
+        <v>378</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>306</v>
@@ -8734,34 +8838,40 @@
       <c r="T60" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>451</v>
+      <c r="V60" s="13">
+        <v>5</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>379</v>
+        <v>791</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>306</v>
@@ -8769,40 +8879,34 @@
       <c r="T61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V61" s="13">
-        <v>5</v>
-      </c>
       <c r="X61" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>306</v>
@@ -8810,34 +8914,40 @@
       <c r="T62" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="V62" s="13">
+        <v>5</v>
+      </c>
       <c r="X62" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>306</v>
@@ -8845,37 +8955,34 @@
       <c r="T63" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V63" s="13">
-        <v>3</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>470</v>
+      <c r="X63" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>304</v>
+        <v>478</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>306</v>
@@ -8884,36 +8991,36 @@
         <v>339</v>
       </c>
       <c r="V64" s="13">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>1227</v>
+        <v>480</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1222</v>
+        <v>474</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1228</v>
+        <v>481</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1229</v>
+        <v>482</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1230</v>
+        <v>483</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1231</v>
+        <v>472</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1235</v>
+        <v>304</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>306</v>
@@ -8922,33 +9029,36 @@
         <v>339</v>
       </c>
       <c r="V65" s="13">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>1226</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1241</v>
+        <v>1228</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>1229</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>306</v>
@@ -8956,34 +9066,34 @@
       <c r="T66" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>1239</v>
+      <c r="V66" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>306</v>
@@ -8991,37 +9101,34 @@
       <c r="T67" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V67" s="13">
-        <v>5</v>
-      </c>
       <c r="X67" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>306</v>
@@ -9033,27 +9140,33 @@
         <v>5</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>1348</v>
+        <v>1249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1350</v>
+        <v>1225</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1352</v>
+        <v>1250</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1351</v>
+        <v>1234</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>252</v>
+        <v>1238</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>306</v>
@@ -9061,72 +9174,69 @@
       <c r="T69" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="V69" s="13">
+        <v>5</v>
+      </c>
       <c r="X69" s="3" t="s">
-        <v>1349</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>511</v>
+        <v>1348</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>514</v>
+        <v>1352</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>485</v>
+        <v>1351</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>515</v>
+        <v>252</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V70" s="13">
-        <v>4.0999999999999996</v>
+        <v>339</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>510</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -9135,39 +9245,33 @@
         <v>484</v>
       </c>
       <c r="V71" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
@@ -9176,48 +9280,39 @@
         <v>484</v>
       </c>
       <c r="V72" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -9226,36 +9321,48 @@
         <v>484</v>
       </c>
       <c r="V73" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -9264,36 +9371,36 @@
         <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>5</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9305,33 +9412,33 @@
         <v>5</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9340,36 +9447,36 @@
         <v>484</v>
       </c>
       <c r="V76" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9378,36 +9485,36 @@
         <v>484</v>
       </c>
       <c r="V77" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9419,36 +9526,33 @@
         <v>5</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9457,42 +9561,39 @@
         <v>484</v>
       </c>
       <c r="V79" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9501,109 +9602,120 @@
         <v>484</v>
       </c>
       <c r="V80" s="13">
-        <v>5</v>
-      </c>
-      <c r="X80" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>726</v>
+        <v>1213</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>665</v>
+        <v>1212</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>727</v>
+        <v>1215</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>728</v>
+        <v>1216</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>287</v>
+        <v>1217</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>558</v>
+        <v>1218</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>559</v>
+        <v>1219</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="V81" s="13">
         <v>5</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>725</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>730</v>
+        <v>1356</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>666</v>
+        <v>1357</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>731</v>
+        <v>1362</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>732</v>
+        <v>1363</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>560</v>
+        <v>1361</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>561</v>
+        <v>1360</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="L82" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V82" s="13">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="W82" s="16" t="s">
+        <v>1364</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>729</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>737</v>
+        <v>287</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9612,39 +9724,33 @@
         <v>557</v>
       </c>
       <c r="V83" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>320</v>
+        <v>732</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>742</v>
+        <v>561</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9653,39 +9759,36 @@
         <v>557</v>
       </c>
       <c r="V84" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X84" s="2" t="s">
-        <v>738</v>
+        <v>5</v>
+      </c>
+      <c r="X84" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>296</v>
+        <v>737</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>747</v>
+        <v>619</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9694,39 +9797,39 @@
         <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>743</v>
+        <v>4.3</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>752</v>
+        <v>251</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9735,39 +9838,39 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>757</v>
+        <v>296</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>621</v>
+        <v>550</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9776,39 +9879,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>1184</v>
+        <v>749</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>762</v>
+        <v>320</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>304</v>
+        <v>620</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9817,39 +9920,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -9861,33 +9964,36 @@
         <v>5</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>771</v>
+        <v>1184</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>454</v>
+        <v>762</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>478</v>
+        <v>304</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>763</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -9896,39 +10002,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -9937,39 +10043,36 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>784</v>
+        <v>454</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>785</v>
+        <v>478</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -9978,39 +10081,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>791</v>
+        <v>623</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -10019,39 +10122,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X93" s="3" t="s">
-        <v>786</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>797</v>
+        <v>624</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10060,39 +10163,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>1185</v>
+        <v>787</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10101,33 +10204,39 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X95" s="3" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>1186</v>
+        <v>793</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>795</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>805</v>
+        <v>454</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>626</v>
+        <v>797</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10136,36 +10245,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>807</v>
+        <v>1185</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10174,39 +10286,33 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>806</v>
+        <v>4</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>812</v>
+        <v>1186</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>816</v>
+        <v>626</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10215,39 +10321,36 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>296</v>
+        <v>810</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>821</v>
+        <v>627</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10256,39 +10359,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>1187</v>
+        <v>812</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>826</v>
+        <v>628</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10297,39 +10400,39 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10338,39 +10441,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>827</v>
+        <v>5</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>253</v>
+        <v>629</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>524</v>
+        <v>826</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10379,39 +10482,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>840</v>
+        <v>389</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10420,39 +10523,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X103" s="2" t="s">
-        <v>835</v>
+        <v>4</v>
+      </c>
+      <c r="X103" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>842</v>
+        <v>1191</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>834</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>845</v>
+        <v>253</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10461,36 +10564,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>5</v>
-      </c>
-      <c r="X104" s="3" t="s">
-        <v>841</v>
+        <v>4.5</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10499,39 +10605,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>855</v>
+        <v>320</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>856</v>
+        <v>631</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10542,37 +10648,34 @@
       <c r="V106" s="13">
         <v>5</v>
       </c>
-      <c r="X106" s="2" t="s">
-        <v>851</v>
+      <c r="X106" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>862</v>
+        <v>632</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10581,39 +10684,39 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X107" s="3" t="s">
-        <v>858</v>
+        <v>3.7</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>287</v>
+        <v>855</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>867</v>
+        <v>633</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10624,46 +10727,37 @@
       <c r="V108" s="13">
         <v>5</v>
       </c>
-      <c r="X108" s="3" t="s">
-        <v>863</v>
+      <c r="X108" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>875</v>
+        <v>634</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10672,33 +10766,39 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>879</v>
+        <v>865</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>866</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10707,39 +10807,48 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>166</v>
+        <v>871</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>167</v>
+        <v>872</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>168</v>
+        <v>875</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10748,36 +10857,33 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X111" s="2" t="s">
-        <v>880</v>
+        <v>5</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>892</v>
+        <v>320</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10786,39 +10892,39 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>890</v>
+        <v>166</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>893</v>
+        <v>167</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>891</v>
+        <v>168</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10827,42 +10933,36 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X113" s="3" t="s">
-        <v>887</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>1188</v>
+        <v>884</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>898</v>
+        <v>639</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -10871,39 +10971,39 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>1189</v>
+        <v>888</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -10915,33 +11015,39 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>905</v>
+        <v>1188</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -10953,36 +11059,36 @@
         <v>5</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>910</v>
+        <v>1189</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>920</v>
+        <v>642</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -10991,42 +11097,36 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>918</v>
+        <v>643</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -11035,33 +11135,39 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>924</v>
+        <v>911</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11069,37 +11175,43 @@
       <c r="T119" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X119" s="2" t="s">
-        <v>921</v>
+      <c r="V119" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X119" s="3" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>930</v>
+        <v>645</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11108,39 +11220,33 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>1190</v>
+        <v>922</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>933</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>320</v>
+        <v>924</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>934</v>
+        <v>646</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11148,40 +11254,37 @@
       <c r="T121" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V121" s="13">
-        <v>3.9</v>
-      </c>
       <c r="X121" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>939</v>
+        <v>647</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11190,45 +11293,39 @@
         <v>557</v>
       </c>
       <c r="V122" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="X122" s="2" t="s">
-        <v>935</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>941</v>
+        <v>1190</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>947</v>
+        <v>253</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11237,39 +11334,39 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X123" s="3" t="s">
-        <v>940</v>
+        <v>3.9</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>952</v>
+        <v>320</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>953</v>
+        <v>389</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11278,33 +11375,45 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>956</v>
+        <v>942</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>943</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>320</v>
+        <v>944</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11313,36 +11422,39 @@
         <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>959</v>
+        <v>950</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>961</v>
+        <v>649</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11350,34 +11462,34 @@
       <c r="T126" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V126" s="13">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="X126" s="2" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1199</v>
+        <v>955</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>965</v>
+        <v>320</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11386,39 +11498,36 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1198</v>
+        <v>958</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>970</v>
+        <v>651</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11426,31 +11535,34 @@
       <c r="T128" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V128" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X128" s="3" t="s">
-        <v>966</v>
+      <c r="X128" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>972</v>
+        <v>1199</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>965</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11459,33 +11571,39 @@
         <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>975</v>
+        <v>1198</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>976</v>
+        <v>967</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>968</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11494,36 +11612,30 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11532,39 +11644,33 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1197</v>
+        <v>975</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>815</v>
+        <v>977</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>986</v>
+        <v>655</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11573,45 +11679,36 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>993</v>
+        <v>656</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11620,42 +11717,39 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>996</v>
+        <v>1197</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>999</v>
+        <v>815</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>1001</v>
+        <v>657</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1000</v>
+        <v>985</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11666,37 +11760,43 @@
       <c r="V134" s="13">
         <v>5</v>
       </c>
-      <c r="X134" s="2" t="s">
-        <v>995</v>
+      <c r="X134" s="3" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1007</v>
+        <v>994</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11705,39 +11805,42 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>330</v>
+        <v>659</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1001</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11746,42 +11849,39 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11790,39 +11890,39 @@
         <v>557</v>
       </c>
       <c r="V137" s="13">
-        <v>5</v>
-      </c>
-      <c r="X137" s="2" t="s">
-        <v>1014</v>
+        <v>4.5</v>
+      </c>
+      <c r="X137" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>1026</v>
+        <v>330</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11831,36 +11931,42 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>1020</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -11869,36 +11975,39 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X139" s="3" t="s">
-        <v>1027</v>
+        <v>5</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1080</v>
+        <v>1022</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1081</v>
+        <v>1023</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>320</v>
+        <v>1025</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -11907,36 +12016,36 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>4</v>
-      </c>
-      <c r="X140" s="3" t="s">
-        <v>1079</v>
+        <v>4.8</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1084</v>
+        <v>1028</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1032</v>
+        <v>723</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1086</v>
+        <v>1030</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>454</v>
+        <v>1031</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1048</v>
+        <v>617</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1064</v>
+        <v>663</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -11945,39 +12054,36 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>1083</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1033</v>
+        <v>724</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1049</v>
+        <v>618</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>1091</v>
+        <v>664</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -11986,39 +12092,36 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>5</v>
-      </c>
-      <c r="X142" s="2" t="s">
-        <v>1087</v>
+        <v>4</v>
+      </c>
+      <c r="X142" s="3" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1096</v>
+        <v>454</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>1097</v>
+        <v>1064</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -12027,39 +12130,39 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X143" s="2" t="s">
-        <v>1092</v>
+        <v>5</v>
+      </c>
+      <c r="X143" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>1102</v>
+        <v>1065</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>1091</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12071,33 +12174,36 @@
         <v>5</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>320</v>
+        <v>1096</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12106,39 +12212,39 @@
         <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1111</v>
+        <v>520</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12147,39 +12253,36 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>1117</v>
+        <v>1068</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12188,36 +12291,39 @@
         <v>557</v>
       </c>
       <c r="V147" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12225,34 +12331,40 @@
       <c r="T148" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X148" s="3" t="s">
-        <v>1118</v>
+      <c r="V148" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1127</v>
+        <v>454</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12261,33 +12373,36 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1196</v>
+        <v>1119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1129</v>
+        <v>1120</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>1121</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>320</v>
+        <v>1122</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12295,40 +12410,34 @@
       <c r="T150" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V150" s="13">
-        <v>5</v>
-      </c>
-      <c r="X150" s="2" t="s">
-        <v>1128</v>
+      <c r="X150" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>1135</v>
+        <v>1072</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12337,39 +12446,33 @@
         <v>557</v>
       </c>
       <c r="V151" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X151" s="3" t="s">
-        <v>1130</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X151" s="2" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1137</v>
+        <v>1196</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1140</v>
+        <v>320</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>1141</v>
+        <v>1073</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12381,36 +12484,36 @@
         <v>5</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>1147</v>
+        <v>1074</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12419,36 +12522,39 @@
         <v>557</v>
       </c>
       <c r="V153" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="X153" s="2" t="s">
-        <v>1142</v>
+        <v>4.5</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>1151</v>
+        <v>1139</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1140</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12457,39 +12563,39 @@
         <v>557</v>
       </c>
       <c r="V154" s="13">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>252</v>
+        <v>1076</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>48</v>
+        <v>1147</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12498,30 +12604,36 @@
         <v>557</v>
       </c>
       <c r="V155" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1177</v>
+        <v>1150</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>1151</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12529,34 +12641,40 @@
       <c r="T156" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V156" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="X156" s="2" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1257</v>
+        <v>1154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1253</v>
+        <v>1046</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1258</v>
+        <v>1155</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>1260</v>
+        <v>1156</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1259</v>
+        <v>1157</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1255</v>
+        <v>1062</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>1261</v>
+        <v>252</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12565,30 +12683,30 @@
         <v>557</v>
       </c>
       <c r="V157" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>1254</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1316</v>
+        <v>1158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1307</v>
+        <v>1047</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1317</v>
+        <v>1177</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1310</v>
+        <v>1063</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1313</v>
+        <v>1078</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12599,22 +12717,31 @@
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1315</v>
+        <v>1257</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1308</v>
+        <v>1253</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1337</v>
+        <v>1258</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1311</v>
+        <v>1255</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>389</v>
+        <v>1256</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12622,28 +12749,31 @@
       <c r="T159" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V159" s="13">
+        <v>5</v>
+      </c>
+      <c r="X159" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12651,28 +12781,25 @@
       <c r="T160" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X160" s="2" t="s">
-        <v>1318</v>
-      </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1325</v>
+        <v>389</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12683,25 +12810,25 @@
     </row>
     <row r="162" spans="1:24" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1332</v>
+        <v>1320</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>1321</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>306</v>
@@ -12710,27 +12837,27 @@
         <v>557</v>
       </c>
       <c r="X162" s="2" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1340</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>306</v>
@@ -12741,27 +12868,85 @@
     </row>
     <row r="164" spans="1:24" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1340</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>330</v>
+        <v>1329</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T164" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X164" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="20" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="20" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T166" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -12814,148 +12999,148 @@
     <hyperlink ref="M32" r:id="rId39" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
     <hyperlink ref="K32" r:id="rId40" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
     <hyperlink ref="I35" r:id="rId41" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X43" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I43" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X44" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X45" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X46" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J46" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M46" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X47" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J47" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X49" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I49" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X50" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J50" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M50" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X51" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I51" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X52" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I53" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I54" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X55" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J55" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I55" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X56" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L56" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K56" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I57" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X58" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J59" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X60" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J60" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X61" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X62" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I62" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X70" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N70" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X71" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X72" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I72" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X73" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P73" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O73" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N73" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I73" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I75" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I79" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X81" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X82" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X83" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I85" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I86" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I87" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I88" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I89" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I91" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I92" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X93" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I93" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I94" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X95" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A97" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X101" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I103" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X104" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J104" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K104" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X107" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X108" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X109" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M109" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I109" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K109" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X110" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I111" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X112" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X113" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I113" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X114" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I114" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K114" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X115" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I115" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X116" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X117" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X118" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J118" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I118" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X120" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I122" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X123" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J123" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M123" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X125" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X127" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X128" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J128" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X129" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X130" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X131" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X132" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J132" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K132" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X133" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J133" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M133" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I133" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J134" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I134" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X135" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I135" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J136" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I137" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K137" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K138" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X139" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X140" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X141" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J142" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J143" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I144" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I146" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J147" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X148" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X151" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J151" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J152" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I153" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J154" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I155" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X44" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X45" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X46" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X47" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J47" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M47" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X48" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J48" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X50" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I50" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X51" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J51" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M51" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X52" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I52" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X53" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I54" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I55" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X56" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J56" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I56" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X57" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L57" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K57" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I58" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X59" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J60" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X61" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J61" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X62" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X63" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I63" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X71" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N71" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X72" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X73" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I73" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X74" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P74" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O74" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N74" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I74" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I76" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I80" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X83" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X84" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X85" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I87" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I88" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I89" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I90" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I91" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I93" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I94" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X95" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I95" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I96" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X97" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A99" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X103" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I105" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X106" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J106" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K106" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X109" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X110" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X111" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M111" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I111" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K111" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X112" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I113" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X114" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X115" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I115" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X116" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I116" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K116" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X117" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I117" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X118" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X119" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X120" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J120" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I120" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X122" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I124" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X125" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J125" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M125" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X127" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X129" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X130" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J130" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X131" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X132" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X133" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X134" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J134" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K134" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X135" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J135" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M135" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I135" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J136" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I136" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X137" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I137" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J138" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I139" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K139" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K140" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X141" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X142" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X143" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J144" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J145" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I146" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I148" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J149" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X150" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X153" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J153" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J154" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I155" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J156" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I157" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X80" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J80" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I80" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
-    <hyperlink ref="X66" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
-    <hyperlink ref="X67" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
-    <hyperlink ref="K67" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
-    <hyperlink ref="X68" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J157" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="X81" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J81" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I81" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X67" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
+    <hyperlink ref="X68" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
+    <hyperlink ref="K68" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
+    <hyperlink ref="X69" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
+    <hyperlink ref="J159" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -12967,10 +13152,14 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K162" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K164" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
-    <hyperlink ref="X69" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
+    <hyperlink ref="X70" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
+    <hyperlink ref="X82" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
+    <hyperlink ref="L82" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
+    <hyperlink ref="J43" r:id="rId201" xr:uid="{0F69EF62-BD50-AC4C-A715-E1AB78A61135}"/>
+    <hyperlink ref="M43" r:id="rId202" xr:uid="{23CBFD41-E650-444C-B711-63061E459267}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757FB4C-253A-2446-B7DA-498A0D435EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D888B1-1E60-DF4C-BCB3-36200260804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="-26840" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1384">
   <si>
     <t>address</t>
   </si>
@@ -5067,6 +5067,54 @@
   </si>
   <si>
     <t>SHO-S1-044L.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-3890</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YAS 華亞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC Regular"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>店</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3-025</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區華亞三路39巷22號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-025.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-025L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lin.ee/0TtLFpL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1951117865015671/permalink/7138563536271052/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6361,13 +6409,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA166"/>
+  <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -9194,6 +9242,12 @@
       <c r="D70" s="2" t="s">
         <v>1352</v>
       </c>
+      <c r="E70" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G70" s="2" t="s">
         <v>1351</v>
       </c>
@@ -9212,66 +9266,69 @@
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>511</v>
+        <v>1376</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>500</v>
+        <v>1377</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>513</v>
+        <v>1378</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>514</v>
+        <v>1296</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>485</v>
+        <v>1379</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>515</v>
+        <v>1380</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>1382</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V71" s="13">
-        <v>4.0999999999999996</v>
+        <v>339</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>510</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
@@ -9280,39 +9337,33 @@
         <v>484</v>
       </c>
       <c r="V72" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -9321,48 +9372,39 @@
         <v>484</v>
       </c>
       <c r="V73" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -9371,36 +9413,48 @@
         <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9409,36 +9463,36 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>5</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9450,33 +9504,33 @@
         <v>5</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9485,36 +9539,36 @@
         <v>484</v>
       </c>
       <c r="V77" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9523,36 +9577,36 @@
         <v>484</v>
       </c>
       <c r="V78" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9564,36 +9618,33 @@
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9602,42 +9653,39 @@
         <v>484</v>
       </c>
       <c r="V80" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9646,38 +9694,42 @@
         <v>484</v>
       </c>
       <c r="V81" s="13">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>1356</v>
+        <v>1213</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1357</v>
+        <v>1212</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1362</v>
+        <v>1215</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>1363</v>
+        <v>1216</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1361</v>
+        <v>1218</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="L82" s="3" t="s">
-        <v>1359</v>
+        <v>1219</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9685,72 +9737,77 @@
       <c r="T82" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="W82" s="16" t="s">
-        <v>1364</v>
+      <c r="V82" s="13">
+        <v>5</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>1358</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>726</v>
+        <v>1356</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>665</v>
+        <v>1357</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>727</v>
+        <v>1362</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>287</v>
+        <v>1363</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>558</v>
+        <v>1361</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>559</v>
+        <v>1360</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V83" s="13">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="W83" s="16" t="s">
+        <v>1364</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>725</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9762,33 +9819,30 @@
         <v>5</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9797,39 +9851,36 @@
         <v>557</v>
       </c>
       <c r="V85" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9838,39 +9889,39 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X86" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X86" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9879,39 +9930,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9920,39 +9971,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -9961,39 +10012,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -10002,39 +10053,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -10043,36 +10094,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -10081,39 +10135,36 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -10122,39 +10173,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10163,39 +10214,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10204,39 +10255,39 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X95" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10245,39 +10296,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X96" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10286,33 +10337,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4</v>
-      </c>
-      <c r="X97" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10321,36 +10378,33 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10359,39 +10413,36 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10400,39 +10451,39 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10441,39 +10492,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10482,39 +10533,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10523,39 +10574,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>4</v>
-      </c>
-      <c r="X103" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10564,39 +10615,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X104" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10605,39 +10656,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10646,36 +10697,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>5</v>
-      </c>
-      <c r="X106" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10684,39 +10738,36 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X107" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10725,39 +10776,39 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10766,39 +10817,39 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X109" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10807,48 +10858,39 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10860,30 +10902,45 @@
         <v>5</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10892,39 +10949,33 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10933,36 +10984,39 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X113" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -10971,39 +11025,36 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X114" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X114" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -11012,42 +11063,39 @@
         <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -11056,39 +11104,42 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -11097,36 +11148,39 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -11135,18 +11189,18 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>183</v>
@@ -11155,19 +11209,16 @@
         <v>906</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11176,42 +11227,39 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11220,33 +11268,42 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11254,37 +11311,34 @@
       <c r="T121" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X121" s="2" t="s">
-        <v>921</v>
+      <c r="V121" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X121" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11292,40 +11346,37 @@
       <c r="T122" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V122" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X122" s="3" t="s">
-        <v>925</v>
+      <c r="X122" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11334,39 +11385,39 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X123" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X123" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11375,45 +11426,39 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M125" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11422,39 +11467,45 @@
         <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X125" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11463,33 +11514,39 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11498,36 +11555,33 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>3</v>
-      </c>
-      <c r="X127" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11535,34 +11589,37 @@
       <c r="T128" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X128" s="2" t="s">
-        <v>957</v>
+      <c r="V128" s="13">
+        <v>3</v>
+      </c>
+      <c r="X128" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11570,40 +11627,34 @@
       <c r="T129" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V129" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X129" s="3" t="s">
-        <v>962</v>
+      <c r="X129" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11612,30 +11663,39 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11644,33 +11704,30 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11679,36 +11736,33 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11717,39 +11771,36 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11758,45 +11809,39 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M135" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11808,39 +11853,42 @@
         <v>5</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11851,37 +11899,40 @@
       <c r="V136" s="13">
         <v>5</v>
       </c>
-      <c r="X136" s="2" t="s">
-        <v>995</v>
+      <c r="X136" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11890,39 +11941,39 @@
         <v>557</v>
       </c>
       <c r="V137" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X137" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11931,42 +11982,39 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X138" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X138" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -11975,39 +12023,42 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -12016,36 +12067,39 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -12054,36 +12108,36 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X141" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -12092,36 +12146,36 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -12130,39 +12184,36 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12173,37 +12224,37 @@
       <c r="V144" s="13">
         <v>5</v>
       </c>
-      <c r="X144" s="2" t="s">
-        <v>1087</v>
+      <c r="X144" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12212,39 +12263,39 @@
         <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12253,36 +12304,39 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12291,39 +12345,36 @@
         <v>557</v>
       </c>
       <c r="V147" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12335,36 +12386,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12373,36 +12424,39 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12410,34 +12464,37 @@
       <c r="T150" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X150" s="3" t="s">
-        <v>1118</v>
+      <c r="V150" s="13">
+        <v>5</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12445,34 +12502,34 @@
       <c r="T151" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V151" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X151" s="2" t="s">
-        <v>1123</v>
+      <c r="X151" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12481,39 +12538,33 @@
         <v>557</v>
       </c>
       <c r="V152" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12522,39 +12573,39 @@
         <v>557</v>
       </c>
       <c r="V153" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X153" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12563,39 +12614,39 @@
         <v>557</v>
       </c>
       <c r="V154" s="13">
-        <v>5</v>
-      </c>
-      <c r="X154" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12604,36 +12655,39 @@
         <v>557</v>
       </c>
       <c r="V155" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12642,39 +12696,36 @@
         <v>557</v>
       </c>
       <c r="V156" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12683,30 +12734,39 @@
         <v>557</v>
       </c>
       <c r="V157" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12714,34 +12774,31 @@
       <c r="T158" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V158" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X158" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1253</v>
+        <v>1047</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>1259</v>
+        <v>1177</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1255</v>
+        <v>1063</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>1261</v>
+        <v>1078</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12749,31 +12806,34 @@
       <c r="T159" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V159" s="13">
-        <v>5</v>
-      </c>
-      <c r="X159" s="2" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1316</v>
+        <v>1257</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1317</v>
+        <v>1258</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1310</v>
+        <v>1255</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1313</v>
+        <v>1256</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12781,25 +12841,31 @@
       <c r="T160" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V160" s="13">
+        <v>5</v>
+      </c>
+      <c r="X160" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>389</v>
+        <v>1313</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12810,25 +12876,22 @@
     </row>
     <row r="162" spans="1:24" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>1314</v>
+        <v>389</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>306</v>
@@ -12836,28 +12899,28 @@
       <c r="T162" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X162" s="2" t="s">
-        <v>1318</v>
-      </c>
     </row>
     <row r="163" spans="1:24" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>1321</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>306</v>
@@ -12865,28 +12928,28 @@
       <c r="T163" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X163" s="2" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="164" spans="1:24" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>306</v>
@@ -12894,28 +12957,28 @@
       <c r="T164" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X164" s="2" t="s">
-        <v>1331</v>
-      </c>
     </row>
     <row r="165" spans="1:24" ht="20" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1340</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>1345</v>
+        <v>1329</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="S165" s="2" t="s">
         <v>306</v>
@@ -12923,30 +12986,59 @@
       <c r="T165" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X165" s="2" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="166" spans="1:24" ht="20" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>1340</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>330</v>
+        <v>1345</v>
       </c>
       <c r="S166" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T166" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" ht="20" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T167" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13032,115 +13124,115 @@
     <hyperlink ref="X62" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
     <hyperlink ref="X63" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
     <hyperlink ref="I63" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X71" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N71" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X72" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X73" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I73" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X74" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P74" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O74" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N74" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I74" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I76" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I80" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X83" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X84" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X85" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I87" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I88" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I89" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I90" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I91" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I93" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I94" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X95" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I95" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I96" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X97" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A99" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X103" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I105" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X106" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J106" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K106" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X109" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X110" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X111" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M111" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I111" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K111" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X112" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I113" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X114" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X115" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I115" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X116" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I116" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K116" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X117" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I117" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X118" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X119" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X120" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J120" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I120" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X122" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I124" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X125" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J125" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M125" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X127" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X129" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X130" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J130" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X131" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X132" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X133" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X134" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J134" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K134" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X135" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J135" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M135" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I135" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J136" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I136" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X137" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I137" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J138" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I139" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K139" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K140" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X141" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X142" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X143" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J144" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J145" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I146" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I148" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J149" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X150" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X153" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J153" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J154" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I155" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J156" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I157" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X72" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N72" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X73" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X74" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I74" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X75" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P75" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O75" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N75" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I75" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I77" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I81" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X84" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X85" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X86" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I88" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I89" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I90" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I91" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I92" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I94" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I95" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X96" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I96" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I97" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X98" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A100" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X104" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I106" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X107" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J107" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K107" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X110" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X111" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X112" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M112" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I112" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K112" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X113" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I114" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X115" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X116" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I116" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X117" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I117" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K117" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X118" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I118" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X119" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X120" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X121" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J121" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I121" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X123" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I125" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X126" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J126" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M126" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X128" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X130" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X131" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J131" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X132" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X133" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X134" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X135" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J135" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K135" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X136" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J136" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M136" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I136" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J137" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I137" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X138" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I138" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J139" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I140" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K140" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K141" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X142" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X143" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X144" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J145" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J146" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I147" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I149" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J150" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X151" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X154" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J154" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J155" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I156" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J157" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I158" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X81" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J81" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I81" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X82" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J82" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I82" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
     <hyperlink ref="X67" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
     <hyperlink ref="X68" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
     <hyperlink ref="K68" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
     <hyperlink ref="X69" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J159" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="J160" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -13152,14 +13244,17 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K164" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K165" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
     <hyperlink ref="X70" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
-    <hyperlink ref="X82" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
-    <hyperlink ref="L82" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
+    <hyperlink ref="X83" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
+    <hyperlink ref="L83" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
     <hyperlink ref="J43" r:id="rId201" xr:uid="{0F69EF62-BD50-AC4C-A715-E1AB78A61135}"/>
     <hyperlink ref="M43" r:id="rId202" xr:uid="{23CBFD41-E650-444C-B711-63061E459267}"/>
+    <hyperlink ref="K71" r:id="rId203" xr:uid="{1E68E13C-94CE-5F43-80F1-F7867AC7658B}"/>
+    <hyperlink ref="Q71" r:id="rId204" xr:uid="{34660E1E-63CA-564A-840B-A02EE45AB4C7}"/>
+    <hyperlink ref="X71" r:id="rId205" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu" xr:uid="{C2E9B6A9-E4C1-7B47-9E3D-18DB98072451}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D888B1-1E60-DF4C-BCB3-36200260804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC919F7-A582-6047-8D20-AABE56C8C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="-26840" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="-22860" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1391">
   <si>
     <t>address</t>
   </si>
@@ -5115,6 +5115,33 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3-026</t>
+  </si>
+  <si>
+    <t>Ms.Fix 3C維修</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂善二路211號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E6%A8%82%E5%96%84%E4%BA%8C%E8%B7%AF211%E8%99%9F/@25.0464828,121.3847903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76cc42c6eab:0x90e9d7f74428623c!8m2!3d25.0464828!4d121.3847903?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0970-150-801</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-026.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-026L.jpeg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6409,13 +6436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA167"/>
+  <dimension ref="A1:AA168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -9304,66 +9331,68 @@
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>511</v>
+        <v>1385</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>500</v>
+        <v>1384</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>512</v>
+        <v>1386</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>513</v>
+        <v>1388</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>514</v>
+        <v>1296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>485</v>
+        <v>1389</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>515</v>
-      </c>
+        <v>1390</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="Q72" s="3"/>
       <c r="S72" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V72" s="13">
-        <v>4.0999999999999996</v>
+        <v>339</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>510</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>306</v>
@@ -9372,39 +9401,33 @@
         <v>484</v>
       </c>
       <c r="V73" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -9413,48 +9436,39 @@
         <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9463,36 +9477,48 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9501,36 +9527,36 @@
         <v>484</v>
       </c>
       <c r="V76" s="13">
-        <v>5</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9542,33 +9568,33 @@
         <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9577,36 +9603,36 @@
         <v>484</v>
       </c>
       <c r="V78" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9615,36 +9641,36 @@
         <v>484</v>
       </c>
       <c r="V79" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9656,36 +9682,33 @@
         <v>5</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9694,42 +9717,39 @@
         <v>484</v>
       </c>
       <c r="V81" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9738,38 +9758,42 @@
         <v>484</v>
       </c>
       <c r="V82" s="13">
-        <v>5</v>
-      </c>
-      <c r="X82" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>1356</v>
+        <v>1213</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1357</v>
+        <v>1212</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1362</v>
+        <v>1215</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>1363</v>
+        <v>1216</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1361</v>
+        <v>1218</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="L83" s="3" t="s">
-        <v>1359</v>
+        <v>1219</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9777,72 +9801,77 @@
       <c r="T83" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="W83" s="16" t="s">
-        <v>1364</v>
+      <c r="V83" s="13">
+        <v>5</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>1358</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>726</v>
+        <v>1356</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>665</v>
+        <v>1357</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>727</v>
+        <v>1362</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>287</v>
+        <v>1363</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>558</v>
+        <v>1361</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>559</v>
+        <v>1360</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="L84" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V84" s="13">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="W84" s="16" t="s">
+        <v>1364</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>725</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9854,33 +9883,30 @@
         <v>5</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9889,39 +9915,36 @@
         <v>557</v>
       </c>
       <c r="V86" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9930,39 +9953,39 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X87" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9971,39 +9994,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -10012,39 +10035,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -10053,39 +10076,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -10094,39 +10117,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -10135,36 +10158,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -10173,39 +10199,36 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10214,39 +10237,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10255,39 +10278,39 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10296,39 +10319,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X96" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10337,39 +10360,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10378,33 +10401,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4</v>
-      </c>
-      <c r="X98" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10413,36 +10442,33 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10451,39 +10477,36 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10492,39 +10515,39 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10533,39 +10556,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10574,39 +10597,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10615,39 +10638,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>4</v>
-      </c>
-      <c r="X104" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10656,39 +10679,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10697,39 +10720,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10738,36 +10761,39 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>5</v>
-      </c>
-      <c r="X107" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10776,39 +10802,36 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X108" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10817,39 +10840,39 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10858,39 +10881,39 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X110" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10899,48 +10922,39 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10952,30 +10966,45 @@
         <v>5</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -10984,39 +11013,33 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -11025,36 +11048,39 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X114" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -11063,39 +11089,36 @@
         <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X115" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -11104,42 +11127,39 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -11148,39 +11168,42 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -11189,36 +11212,39 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11227,18 +11253,18 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>183</v>
@@ -11247,19 +11273,16 @@
         <v>906</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11268,42 +11291,39 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11312,33 +11332,42 @@
         <v>557</v>
       </c>
       <c r="V121" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11346,37 +11375,34 @@
       <c r="T122" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X122" s="2" t="s">
-        <v>921</v>
+      <c r="V122" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11384,40 +11410,37 @@
       <c r="T123" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V123" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X123" s="3" t="s">
-        <v>925</v>
+      <c r="X123" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11426,39 +11449,39 @@
         <v>557</v>
       </c>
       <c r="V124" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11467,45 +11490,39 @@
         <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11514,39 +11531,45 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X126" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11555,33 +11578,39 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X127" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X127" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11590,36 +11619,33 @@
         <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>3</v>
-      </c>
-      <c r="X128" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11627,34 +11653,37 @@
       <c r="T129" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X129" s="2" t="s">
-        <v>957</v>
+      <c r="V129" s="13">
+        <v>3</v>
+      </c>
+      <c r="X129" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11662,40 +11691,34 @@
       <c r="T130" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V130" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X130" s="3" t="s">
-        <v>962</v>
+      <c r="X130" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11704,30 +11727,39 @@
         <v>557</v>
       </c>
       <c r="V131" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11736,33 +11768,30 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11771,36 +11800,33 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11809,39 +11835,36 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11850,45 +11873,39 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M136" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11900,39 +11917,42 @@
         <v>5</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11943,37 +11963,40 @@
       <c r="V137" s="13">
         <v>5</v>
       </c>
-      <c r="X137" s="2" t="s">
-        <v>995</v>
+      <c r="X137" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -11982,39 +12005,39 @@
         <v>557</v>
       </c>
       <c r="V138" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X138" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -12023,42 +12046,39 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X139" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X139" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -12067,39 +12087,42 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -12108,36 +12131,39 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -12146,36 +12172,36 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X142" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -12184,36 +12210,36 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12222,39 +12248,36 @@
         <v>557</v>
       </c>
       <c r="V144" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12265,37 +12288,37 @@
       <c r="V145" s="13">
         <v>5</v>
       </c>
-      <c r="X145" s="2" t="s">
-        <v>1087</v>
+      <c r="X145" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12304,39 +12327,39 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12345,36 +12368,39 @@
         <v>557</v>
       </c>
       <c r="V147" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12383,39 +12409,36 @@
         <v>557</v>
       </c>
       <c r="V148" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12427,36 +12450,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12465,36 +12488,39 @@
         <v>557</v>
       </c>
       <c r="V150" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12502,34 +12528,37 @@
       <c r="T151" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X151" s="3" t="s">
-        <v>1118</v>
+      <c r="V151" s="13">
+        <v>5</v>
+      </c>
+      <c r="X151" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12537,34 +12566,34 @@
       <c r="T152" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V152" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X152" s="2" t="s">
-        <v>1123</v>
+      <c r="X152" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12573,39 +12602,33 @@
         <v>557</v>
       </c>
       <c r="V153" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12614,39 +12637,39 @@
         <v>557</v>
       </c>
       <c r="V154" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X154" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12655,39 +12678,39 @@
         <v>557</v>
       </c>
       <c r="V155" s="13">
-        <v>5</v>
-      </c>
-      <c r="X155" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12696,36 +12719,39 @@
         <v>557</v>
       </c>
       <c r="V156" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12734,39 +12760,36 @@
         <v>557</v>
       </c>
       <c r="V157" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12775,30 +12798,39 @@
         <v>557</v>
       </c>
       <c r="V158" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12806,34 +12838,31 @@
       <c r="T159" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V159" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X159" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1253</v>
+        <v>1047</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>1259</v>
+        <v>1177</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1255</v>
+        <v>1063</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>1261</v>
+        <v>1078</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12841,31 +12870,34 @@
       <c r="T160" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V160" s="13">
-        <v>5</v>
-      </c>
-      <c r="X160" s="2" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1316</v>
+        <v>1257</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1317</v>
+        <v>1258</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1310</v>
+        <v>1255</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1313</v>
+        <v>1256</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12873,25 +12905,31 @@
       <c r="T161" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V161" s="13">
+        <v>5</v>
+      </c>
+      <c r="X161" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="162" spans="1:24" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>389</v>
+        <v>1313</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>306</v>
@@ -12902,25 +12940,22 @@
     </row>
     <row r="163" spans="1:24" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1314</v>
+        <v>389</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>306</v>
@@ -12928,28 +12963,28 @@
       <c r="T163" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X163" s="2" t="s">
-        <v>1318</v>
-      </c>
     </row>
     <row r="164" spans="1:24" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>1321</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>306</v>
@@ -12957,28 +12992,28 @@
       <c r="T164" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X164" s="2" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="165" spans="1:24" ht="20" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="S165" s="2" t="s">
         <v>306</v>
@@ -12986,28 +13021,28 @@
       <c r="T165" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X165" s="2" t="s">
-        <v>1331</v>
-      </c>
     </row>
     <row r="166" spans="1:24" ht="20" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1340</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>1345</v>
+        <v>1329</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="S166" s="2" t="s">
         <v>306</v>
@@ -13015,30 +13050,59 @@
       <c r="T166" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X166" s="2" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="167" spans="1:24" ht="20" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>1340</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>330</v>
+        <v>1345</v>
       </c>
       <c r="S167" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T167" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" ht="20" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T168" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13124,115 +13188,115 @@
     <hyperlink ref="X62" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
     <hyperlink ref="X63" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
     <hyperlink ref="I63" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X72" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N72" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X73" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X74" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I74" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X75" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P75" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O75" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N75" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I75" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I77" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I81" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X84" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X85" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X86" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I88" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I89" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I90" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I91" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I92" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I94" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I95" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X96" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I96" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I97" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X98" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A100" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X104" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I106" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X107" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J107" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K107" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X110" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X111" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X112" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M112" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I112" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K112" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X113" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I114" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X115" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X116" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I116" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X117" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I117" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K117" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X118" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I118" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X119" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X120" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X121" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J121" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I121" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X123" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I125" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X126" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J126" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M126" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X128" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X130" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X131" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J131" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X132" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X133" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X134" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X135" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J135" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K135" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X136" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J136" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M136" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I136" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J137" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I137" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X138" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I138" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J139" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I140" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K140" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K141" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X142" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X143" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X144" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J145" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J146" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I147" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I149" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J150" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X151" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X154" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J154" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J155" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I156" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J157" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I158" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X73" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N73" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X74" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X75" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I75" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X76" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P76" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O76" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N76" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I76" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I78" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I82" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X85" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X86" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X87" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I89" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I90" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I91" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I92" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I93" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I95" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I96" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X97" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I97" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I98" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X99" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A101" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X105" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I107" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X108" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K108" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X111" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X112" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X113" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M113" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I113" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K113" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X114" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I115" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X116" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X117" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I117" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X118" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I118" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K118" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X119" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I119" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X120" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X121" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X122" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J122" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I122" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X124" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I126" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X127" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J127" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M127" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X129" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X131" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X132" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J132" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X133" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X134" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X135" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X136" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J136" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K136" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X137" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J137" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M137" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I137" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J138" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I138" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X139" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I139" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J140" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I141" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K141" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K142" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X143" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X144" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X145" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J146" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J147" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I148" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I150" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J151" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X152" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X155" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J155" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J156" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I157" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J158" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I159" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X82" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J82" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I82" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X83" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J83" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I83" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
     <hyperlink ref="X67" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
     <hyperlink ref="X68" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
     <hyperlink ref="K68" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
     <hyperlink ref="X69" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J160" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="J161" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -13244,17 +13308,18 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K165" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K166" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
     <hyperlink ref="X70" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
-    <hyperlink ref="X83" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
-    <hyperlink ref="L83" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
+    <hyperlink ref="X84" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
+    <hyperlink ref="L84" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
     <hyperlink ref="J43" r:id="rId201" xr:uid="{0F69EF62-BD50-AC4C-A715-E1AB78A61135}"/>
     <hyperlink ref="M43" r:id="rId202" xr:uid="{23CBFD41-E650-444C-B711-63061E459267}"/>
     <hyperlink ref="K71" r:id="rId203" xr:uid="{1E68E13C-94CE-5F43-80F1-F7867AC7658B}"/>
     <hyperlink ref="Q71" r:id="rId204" xr:uid="{34660E1E-63CA-564A-840B-A02EE45AB4C7}"/>
     <hyperlink ref="X71" r:id="rId205" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu" xr:uid="{C2E9B6A9-E4C1-7B47-9E3D-18DB98072451}"/>
+    <hyperlink ref="X72" r:id="rId206" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E6%A8%82%E5%96%84%E4%BA%8C%E8%B7%AF211%E8%99%9F/@25.0464828,121.3847903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76cc42c6eab:0x90e9d7f74428623c!8m2!3d25.0464828!4d121.3847903?hl=zh-TW&amp;entry=ttu" xr:uid="{CADAD1B8-979D-6449-8CFC-0E8AC6729E42}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC919F7-A582-6047-8D20-AABE56C8C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1164F-BC26-934C-8A48-23F5E488B91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="-22860" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1740" yWindow="-26400" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1393">
   <si>
     <t>address</t>
   </si>
@@ -5142,6 +5142,14 @@
   </si>
   <si>
     <t>SHO-S3-026L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-497-9680, 0963-068-847</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S5-081-1.png" class="max-w-sm" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6439,10 +6447,10 @@
   <dimension ref="A1:AA168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="V166" sqref="V166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -13009,6 +13017,9 @@
       <c r="D165" s="2" t="s">
         <v>1326</v>
       </c>
+      <c r="E165" s="11" t="s">
+        <v>1391</v>
+      </c>
       <c r="G165" s="2" t="s">
         <v>1324</v>
       </c>
@@ -13020,6 +13031,9 @@
       </c>
       <c r="T165" s="2" t="s">
         <v>557</v>
+      </c>
+      <c r="W165" s="2" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="20" customHeight="1">

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1164F-BC26-934C-8A48-23F5E488B91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74AC95-5690-6346-93E8-0569B69ED4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="-26400" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="-25080" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1400">
   <si>
     <t>address</t>
   </si>
@@ -5074,22 +5074,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>YAS 華亞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKaiTC Regular"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>店</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>S3-025</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -5098,10 +5082,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>SHO-S3-025.jpeg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>SHO-S3-025L.jpeg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -5137,10 +5117,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>SHO-S3-026.jpeg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>SHO-S3-026L.jpeg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -5149,7 +5125,47 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S5-081-1.png" class="max-w-sm" /&gt;</t>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S5-081-1.jpeg" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S3-026.jpeg" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-026-1.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAS 鞋類洗護中心</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-025-1.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S3-025.jpeg" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3-027</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區華亞三路37號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-3189</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>永慶不動產 華亞翡麗加盟店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S3-027.jpeg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6444,13 +6460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA168"/>
+  <dimension ref="A1:AA169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V166" sqref="V166"/>
+      <selection pane="bottomRight" activeCell="S73" sqref="S73:T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -9301,31 +9317,31 @@
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1377</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="Q71" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>1382</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -9333,34 +9349,37 @@
       <c r="T71" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="W71" s="2" t="s">
+        <v>1394</v>
+      </c>
       <c r="X71" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>1386</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>1388</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="K72" s="3"/>
       <c r="Q72" s="3"/>
@@ -9370,72 +9389,72 @@
       <c r="T72" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="W72" s="2" t="s">
+        <v>1390</v>
+      </c>
       <c r="X72" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>511</v>
+        <v>1398</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>500</v>
+        <v>1395</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>512</v>
+        <v>1396</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>514</v>
+        <v>1397</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>485</v>
+        <v>1399</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>515</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="Q73" s="3"/>
       <c r="S73" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V73" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X73" s="3" t="s">
-        <v>510</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>306</v>
@@ -9444,39 +9463,33 @@
         <v>484</v>
       </c>
       <c r="V74" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9485,48 +9498,39 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9535,36 +9539,48 @@
         <v>484</v>
       </c>
       <c r="V76" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9573,36 +9589,36 @@
         <v>484</v>
       </c>
       <c r="V77" s="13">
-        <v>5</v>
-      </c>
-      <c r="X77" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9614,33 +9630,33 @@
         <v>5</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9649,36 +9665,36 @@
         <v>484</v>
       </c>
       <c r="V79" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9687,36 +9703,36 @@
         <v>484</v>
       </c>
       <c r="V80" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9728,36 +9744,33 @@
         <v>5</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9766,42 +9779,39 @@
         <v>484</v>
       </c>
       <c r="V82" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9810,38 +9820,42 @@
         <v>484</v>
       </c>
       <c r="V83" s="13">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>1356</v>
+        <v>1213</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1357</v>
+        <v>1212</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1362</v>
+        <v>1215</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>1363</v>
+        <v>1216</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1361</v>
+        <v>1218</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="L84" s="3" t="s">
-        <v>1359</v>
+        <v>1219</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9849,72 +9863,77 @@
       <c r="T84" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="W84" s="16" t="s">
-        <v>1364</v>
+      <c r="V84" s="13">
+        <v>5</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>1358</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>726</v>
+        <v>1356</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>665</v>
+        <v>1357</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>727</v>
+        <v>1362</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>287</v>
+        <v>1363</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>558</v>
+        <v>1361</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>559</v>
+        <v>1360</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="L85" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V85" s="13">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="W85" s="16" t="s">
+        <v>1364</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>725</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
@@ -9926,33 +9945,30 @@
         <v>5</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9961,39 +9977,36 @@
         <v>557</v>
       </c>
       <c r="V87" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -10002,39 +10015,39 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X88" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -10043,39 +10056,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -10084,39 +10097,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -10125,39 +10138,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -10166,39 +10179,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -10207,36 +10220,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10245,39 +10261,36 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10286,39 +10299,39 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10327,39 +10340,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10368,39 +10381,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X97" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10409,39 +10422,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10450,33 +10463,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>4</v>
-      </c>
-      <c r="X99" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10485,36 +10504,33 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X100" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10523,39 +10539,36 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10564,39 +10577,39 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10605,39 +10618,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10646,39 +10659,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10687,39 +10700,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>4</v>
-      </c>
-      <c r="X105" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10728,39 +10741,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X106" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10769,39 +10782,39 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10810,36 +10823,39 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>5</v>
-      </c>
-      <c r="X108" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10848,39 +10864,36 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X109" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10889,39 +10902,39 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10930,39 +10943,39 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X111" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10971,48 +10984,39 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -11024,30 +11028,45 @@
         <v>5</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -11056,39 +11075,33 @@
         <v>557</v>
       </c>
       <c r="V114" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -11097,36 +11110,39 @@
         <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X115" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -11135,39 +11151,36 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X116" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X116" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -11176,42 +11189,39 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -11220,39 +11230,42 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11261,36 +11274,39 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11299,18 +11315,18 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>183</v>
@@ -11319,19 +11335,16 @@
         <v>906</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11340,42 +11353,39 @@
         <v>557</v>
       </c>
       <c r="V121" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11384,33 +11394,42 @@
         <v>557</v>
       </c>
       <c r="V122" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11418,37 +11437,34 @@
       <c r="T123" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X123" s="2" t="s">
-        <v>921</v>
+      <c r="V123" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X123" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11456,40 +11472,37 @@
       <c r="T124" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V124" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X124" s="3" t="s">
-        <v>925</v>
+      <c r="X124" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11498,39 +11511,39 @@
         <v>557</v>
       </c>
       <c r="V125" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X125" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11539,45 +11552,39 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11586,39 +11593,45 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X127" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11627,33 +11640,39 @@
         <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X128" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11662,36 +11681,33 @@
         <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>3</v>
-      </c>
-      <c r="X129" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11699,34 +11715,37 @@
       <c r="T130" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X130" s="2" t="s">
-        <v>957</v>
+      <c r="V130" s="13">
+        <v>3</v>
+      </c>
+      <c r="X130" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11734,40 +11753,34 @@
       <c r="T131" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V131" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X131" s="3" t="s">
-        <v>962</v>
+      <c r="X131" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11776,30 +11789,39 @@
         <v>557</v>
       </c>
       <c r="V132" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11808,33 +11830,30 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11843,36 +11862,33 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11881,39 +11897,36 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11922,45 +11935,39 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11972,39 +11979,42 @@
         <v>5</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -12015,37 +12025,40 @@
       <c r="V138" s="13">
         <v>5</v>
       </c>
-      <c r="X138" s="2" t="s">
-        <v>995</v>
+      <c r="X138" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -12054,39 +12067,39 @@
         <v>557</v>
       </c>
       <c r="V139" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X139" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -12095,42 +12108,39 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X140" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X140" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -12139,39 +12149,42 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -12180,36 +12193,39 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -12218,36 +12234,36 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X143" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12256,36 +12272,36 @@
         <v>557</v>
       </c>
       <c r="V144" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12294,39 +12310,36 @@
         <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X145" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12337,37 +12350,37 @@
       <c r="V146" s="13">
         <v>5</v>
       </c>
-      <c r="X146" s="2" t="s">
-        <v>1087</v>
+      <c r="X146" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12376,39 +12389,39 @@
         <v>557</v>
       </c>
       <c r="V147" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12417,36 +12430,39 @@
         <v>557</v>
       </c>
       <c r="V148" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12455,39 +12471,36 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12499,36 +12512,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12537,36 +12550,39 @@
         <v>557</v>
       </c>
       <c r="V151" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X151" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12574,34 +12590,37 @@
       <c r="T152" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X152" s="3" t="s">
-        <v>1118</v>
+      <c r="V152" s="13">
+        <v>5</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12609,34 +12628,34 @@
       <c r="T153" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V153" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X153" s="2" t="s">
-        <v>1123</v>
+      <c r="X153" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12645,39 +12664,33 @@
         <v>557</v>
       </c>
       <c r="V154" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12686,39 +12699,39 @@
         <v>557</v>
       </c>
       <c r="V155" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X155" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X155" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12727,39 +12740,39 @@
         <v>557</v>
       </c>
       <c r="V156" s="13">
-        <v>5</v>
-      </c>
-      <c r="X156" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12768,36 +12781,39 @@
         <v>557</v>
       </c>
       <c r="V157" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12806,39 +12822,36 @@
         <v>557</v>
       </c>
       <c r="V158" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12847,30 +12860,39 @@
         <v>557</v>
       </c>
       <c r="V159" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12878,34 +12900,31 @@
       <c r="T160" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V160" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X160" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1253</v>
+        <v>1047</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>1259</v>
+        <v>1177</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1255</v>
+        <v>1063</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>1261</v>
+        <v>1078</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12913,31 +12932,34 @@
       <c r="T161" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V161" s="13">
-        <v>5</v>
-      </c>
-      <c r="X161" s="2" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="162" spans="1:24" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1316</v>
+        <v>1257</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1317</v>
+        <v>1258</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1310</v>
+        <v>1255</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>1313</v>
+        <v>1256</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>306</v>
@@ -12945,25 +12967,31 @@
       <c r="T162" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V162" s="13">
+        <v>5</v>
+      </c>
+      <c r="X162" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="163" spans="1:24" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>389</v>
+        <v>1313</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>306</v>
@@ -12974,25 +13002,22 @@
     </row>
     <row r="164" spans="1:24" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>1314</v>
+        <v>389</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>306</v>
@@ -13000,31 +13025,28 @@
       <c r="T164" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X164" s="2" t="s">
-        <v>1318</v>
-      </c>
     </row>
     <row r="165" spans="1:24" ht="20" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>1391</v>
+        <v>1321</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="S165" s="2" t="s">
         <v>306</v>
@@ -13032,31 +13054,31 @@
       <c r="T165" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="W165" s="2" t="s">
-        <v>1392</v>
+      <c r="X165" s="2" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="20" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>1388</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="S166" s="2" t="s">
         <v>306</v>
@@ -13064,28 +13086,31 @@
       <c r="T166" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X166" s="2" t="s">
-        <v>1331</v>
+      <c r="W166" s="2" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="20" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1340</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1345</v>
+        <v>1329</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="S167" s="2" t="s">
         <v>306</v>
@@ -13093,30 +13118,59 @@
       <c r="T167" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="X167" s="2" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="168" spans="1:24" ht="20" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>1340</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>330</v>
+        <v>1345</v>
       </c>
       <c r="S168" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T168" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="20" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T169" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13202,115 +13256,115 @@
     <hyperlink ref="X62" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
     <hyperlink ref="X63" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
     <hyperlink ref="I63" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X73" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N73" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X74" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X75" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I75" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X76" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P76" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O76" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N76" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I76" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I78" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I82" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X85" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X86" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X87" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I89" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I90" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I91" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I92" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I93" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I95" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I96" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X97" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I97" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I98" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X99" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X105" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I107" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X108" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J108" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K108" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X111" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X112" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X113" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M113" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I113" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K113" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X114" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I115" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X116" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X117" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I117" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X118" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I118" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K118" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X119" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I119" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X120" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X121" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X122" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J122" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I122" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X124" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I126" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X127" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J127" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M127" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X129" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X131" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X132" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J132" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X133" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X134" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X135" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X136" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J136" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K136" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X137" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J137" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M137" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I137" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J138" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I138" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X139" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I139" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J140" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I141" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K141" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K142" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X143" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X144" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X145" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J146" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J147" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I148" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I150" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J151" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X152" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X155" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J155" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J156" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I157" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J158" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I159" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X74" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N74" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X75" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X76" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I76" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X77" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P77" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O77" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N77" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I77" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I79" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I83" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X86" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X87" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X88" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I90" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I91" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I92" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I93" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I94" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I96" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I97" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X98" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I98" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I99" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X100" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A102" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X106" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I108" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X109" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J109" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K109" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X112" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X113" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X114" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M114" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I114" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K114" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X115" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I116" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X117" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X118" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I118" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X119" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I119" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K119" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X120" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I120" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X121" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X122" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X123" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J123" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I123" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X125" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I127" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X128" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J128" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M128" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X130" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X132" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X133" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J133" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X134" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X135" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X136" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X137" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J137" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K137" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X138" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J138" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M138" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I138" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J139" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I139" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X140" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I140" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J141" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I142" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K142" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K143" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X144" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X145" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X146" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J147" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J148" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I149" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I151" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J152" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X153" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X156" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J156" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J157" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I158" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J159" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I160" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X83" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J83" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I83" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X84" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J84" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I84" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
     <hyperlink ref="X67" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
     <hyperlink ref="X68" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
     <hyperlink ref="K68" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
     <hyperlink ref="X69" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J161" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="J162" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -13322,12 +13376,12 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K166" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K167" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
     <hyperlink ref="X70" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
-    <hyperlink ref="X84" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
-    <hyperlink ref="L84" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
+    <hyperlink ref="X85" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
+    <hyperlink ref="L85" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
     <hyperlink ref="J43" r:id="rId201" xr:uid="{0F69EF62-BD50-AC4C-A715-E1AB78A61135}"/>
     <hyperlink ref="M43" r:id="rId202" xr:uid="{23CBFD41-E650-444C-B711-63061E459267}"/>
     <hyperlink ref="K71" r:id="rId203" xr:uid="{1E68E13C-94CE-5F43-80F1-F7867AC7658B}"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74AC95-5690-6346-93E8-0569B69ED4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8B6FF-C3E4-064E-AD49-0C46B945AD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="-25080" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21460" yWindow="-26020" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1395">
   <si>
     <t>address</t>
   </si>
@@ -4923,9 +4923,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>S5-083</t>
-  </si>
-  <si>
     <t>S5-084</t>
   </si>
   <si>
@@ -4933,28 +4930,14 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區文青二路206號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青二路208號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>SHO-S5-083.jpeg</t>
-  </si>
-  <si>
     <t>SHO-S5-084.jpeg</t>
   </si>
   <si>
-    <t>SHO-S5-083L.jpeg</t>
-  </si>
-  <si>
     <t>住商不動產</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>極禾優質鍋物</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -6460,13 +6443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA169"/>
+  <dimension ref="A1:AA168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S73" sqref="S73:T73"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6830,7 +6813,7 @@
         <v>5</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>94</v>
@@ -6871,7 +6854,7 @@
         <v>5</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>101</v>
@@ -8026,7 +8009,7 @@
         <v>4.7</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>1206</v>
@@ -8214,37 +8197,37 @@
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E43" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1374</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>108</v>
@@ -8253,7 +8236,7 @@
         <v>34</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
@@ -9282,25 +9265,25 @@
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>252</v>
@@ -9312,36 +9295,36 @@
         <v>339</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -9350,36 +9333,36 @@
         <v>339</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="K72" s="3"/>
       <c r="Q72" s="3"/>
@@ -9390,30 +9373,30 @@
         <v>339</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>550</v>
@@ -9872,30 +9855,30 @@
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="L85" s="3" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9904,10 +9887,10 @@
         <v>484</v>
       </c>
       <c r="W85" s="16" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
@@ -13072,7 +13055,7 @@
         <v>1326</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>1324</v>
@@ -13087,7 +13070,7 @@
         <v>557</v>
       </c>
       <c r="W166" s="2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="20" customHeight="1">
@@ -13124,53 +13107,27 @@
     </row>
     <row r="168" spans="1:24" ht="20" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="G168" s="2" t="s">
-        <v>1343</v>
-      </c>
       <c r="H168" s="2" t="s">
-        <v>1345</v>
+        <v>330</v>
       </c>
       <c r="S168" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T168" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24" ht="20" customHeight="1">
-      <c r="A169" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="S169" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="T169" s="2" t="s">
         <v>557</v>
       </c>
     </row>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8B6FF-C3E4-064E-AD49-0C46B945AD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0470E72-3B26-B24D-B7FD-EBB9600E91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="-26020" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15820" yWindow="-24360" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1407">
   <si>
     <t>address</t>
   </si>
@@ -5149,6 +5149,60 @@
   </si>
   <si>
     <t>SHO-S3-027.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-045</t>
+  </si>
+  <si>
+    <t>SHO-S1-045.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-045L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%96%87%E6%96%B0%E8%A8%BA%E6%89%80%2F%E5%81%87%E6%97%A5%E9%96%80%E8%A8%BA%2F%E8%80%B3%E9%BC%BB%E5%96%89%2F%E9%BC%BB%E9%81%8E%E6%95%8F%2F%E8%81%B2%E5%B8%B6%E7%96%BE%E7%97%85%2F%E7%9C%A9%E6%9A%88%E8%80%B3%E9%B3%B4%2F%E9%A0%AD%E9%A0%B8%E9%83%A8%E8%85%AB%E7%98%A4%2F%E9%AB%98%E8%A1%80%E5%A3%93%2F%E9%AB%98%E8%A1%80%E8%84%82%2F%E7%B3%96%E5%B0%BF%E7%97%85%2F%E9%86%AB%E5%AD%B8%E7%BE%8E%E5%AE%B9%2F(03)397-4025/@25.0507206,121.3824912,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7619b84b89f:0xec33ac4f70a113cf!8m2!3d25.0507206!4d121.3850715!16s%2Fg%2F11vqkz_z3d?entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文新診所</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文達路318號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-4025</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30 - 13:00, 16:00 - 20:30, 週六 08:30 - 13:00, 週日 16:00 - 20:30</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WarmthClinic?mibextid=ZbWKwL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>warmthclinic01@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>warmthclinic033974025</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+院長: 戴曉芙醫師∣詹承運醫師 &lt;br&gt;
+成人及小兒耳鼻喉疾病、聽力障礙、耳鳴、眩暈、中耳炎、外耳炎、鼻過敏、急性及慢性鼻竇炎、口腔潰瘍、慢性咳嗽、聲音沙啞、吞嚥困難、頭頸部腫瘤、睡眠呼吸中止、高血壓、高血脂、糖尿病、慢性疾病、內科疾病、成人健康檢查、簡易外傷處理、醫學美容
+&lt;/p&gt;
+&lt;br&gt;
+&lt;img src="/images/shopping/SHO-S1-045-1.jpeg"  class="max-w-sm"  /&gt;
+&lt;img src="/images/shopping/SHO-S1-045-2.png"  class="max-w-sm"  /&gt;
+&lt;img src="/images/shopping/SHO-S1-045-3.png"  class="max-w-sm"  /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5263,7 +5317,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5313,6 +5367,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6443,13 +6500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA168"/>
+  <dimension ref="A1:AA169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168:XFD168"/>
+      <selection pane="bottomRight" activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -8241,69 +8298,80 @@
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>1193</v>
+        <v>1399</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>307</v>
+        <v>1395</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>318</v>
+        <v>1400</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>319</v>
+        <v>1401</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>320</v>
+        <v>1402</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>311</v>
+        <v>1396</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>53</v>
+        <v>1397</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>1404</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V44" s="13">
-        <v>4.3</v>
+        <v>34</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>1406</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>317</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>322</v>
+        <v>1193</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>312</v>
+        <v>253</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>306</v>
@@ -8312,36 +8380,36 @@
         <v>305</v>
       </c>
       <c r="V45" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>306</v>
@@ -8350,44 +8418,37 @@
         <v>305</v>
       </c>
       <c r="V46" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="N47" s="14"/>
+        <v>330</v>
+      </c>
       <c r="S47" s="2" t="s">
         <v>306</v>
       </c>
@@ -8395,77 +8456,84 @@
         <v>305</v>
       </c>
       <c r="V47" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N48" s="14"/>
       <c r="S48" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="V48" s="13">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>306</v>
@@ -8474,39 +8542,36 @@
         <v>339</v>
       </c>
       <c r="V49" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>385</v>
+        <v>4.3</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>306</v>
@@ -8515,44 +8580,40 @@
         <v>339</v>
       </c>
       <c r="V50" s="13">
-        <v>5</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>390</v>
+        <v>2.5</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N51" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="S51" s="2" t="s">
         <v>306</v>
       </c>
@@ -8560,40 +8621,44 @@
         <v>339</v>
       </c>
       <c r="V51" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>408</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N52" s="3"/>
       <c r="S52" s="2" t="s">
         <v>306</v>
       </c>
@@ -8601,36 +8666,39 @@
         <v>339</v>
       </c>
       <c r="V52" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>306</v>
@@ -8639,36 +8707,36 @@
         <v>339</v>
       </c>
       <c r="V53" s="13">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>306</v>
@@ -8677,34 +8745,36 @@
         <v>339</v>
       </c>
       <c r="V54" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>414</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="G55" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>306</v>
@@ -8713,42 +8783,34 @@
         <v>339</v>
       </c>
       <c r="V55" s="13">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>306</v>
@@ -8757,42 +8819,42 @@
         <v>339</v>
       </c>
       <c r="V56" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="X56" s="3" t="s">
-        <v>424</v>
+        <v>4.8</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>87</v>
+        <v>428</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>435</v>
+        <v>375</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>306</v>
@@ -8801,39 +8863,42 @@
         <v>339</v>
       </c>
       <c r="V57" s="13">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>256</v>
+        <v>376</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>306</v>
@@ -8842,36 +8907,39 @@
         <v>339</v>
       </c>
       <c r="V58" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>437</v>
+        <v>5</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>377</v>
+        <v>251</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>306</v>
@@ -8880,39 +8948,36 @@
         <v>339</v>
       </c>
       <c r="V59" s="13">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>441</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>1182</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>306</v>
@@ -8921,39 +8986,39 @@
         <v>339</v>
       </c>
       <c r="V60" s="13">
-        <v>5</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>446</v>
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>452</v>
+        <v>1182</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>791</v>
+        <v>378</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>306</v>
@@ -8961,34 +9026,40 @@
       <c r="T61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X61" s="3" t="s">
-        <v>451</v>
+      <c r="V61" s="13">
+        <v>5</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>379</v>
+        <v>791</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>306</v>
@@ -8996,40 +9067,34 @@
       <c r="T62" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V62" s="13">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>306</v>
@@ -9037,34 +9102,40 @@
       <c r="T63" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="V63" s="13">
+        <v>5</v>
+      </c>
       <c r="X63" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>306</v>
@@ -9072,37 +9143,34 @@
       <c r="T64" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V64" s="13">
-        <v>3</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>470</v>
+      <c r="X64" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>304</v>
+        <v>478</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>306</v>
@@ -9111,36 +9179,36 @@
         <v>339</v>
       </c>
       <c r="V65" s="13">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>1227</v>
+        <v>480</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1222</v>
+        <v>474</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1228</v>
+        <v>481</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>1229</v>
+        <v>482</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1230</v>
+        <v>483</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1231</v>
+        <v>472</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>1235</v>
+        <v>304</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>306</v>
@@ -9149,33 +9217,36 @@
         <v>339</v>
       </c>
       <c r="V66" s="13">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>1226</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1241</v>
+        <v>1228</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>1229</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>306</v>
@@ -9183,34 +9254,34 @@
       <c r="T67" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X67" s="3" t="s">
-        <v>1239</v>
+      <c r="V67" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>306</v>
@@ -9218,37 +9289,34 @@
       <c r="T68" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="V68" s="13">
-        <v>5</v>
-      </c>
       <c r="X68" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>306</v>
@@ -9260,33 +9328,33 @@
         <v>5</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>1343</v>
+        <v>1249</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1345</v>
+        <v>1225</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1347</v>
+        <v>1250</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>1370</v>
+        <v>1251</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>46</v>
+        <v>1252</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1346</v>
+        <v>1234</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>252</v>
+        <v>1238</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>306</v>
@@ -9294,37 +9362,37 @@
       <c r="T70" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="V70" s="13">
+        <v>5</v>
+      </c>
       <c r="X70" s="3" t="s">
-        <v>1344</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>1387</v>
+        <v>1343</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1372</v>
+        <v>1347</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>1370</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1296</v>
+        <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1388</v>
+        <v>1346</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>1375</v>
+        <v>252</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>306</v>
@@ -9332,40 +9400,38 @@
       <c r="T71" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="W71" s="2" t="s">
-        <v>1389</v>
-      </c>
       <c r="X71" s="3" t="s">
-        <v>1376</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="Q72" s="3"/>
+        <v>1373</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>1375</v>
+      </c>
       <c r="S72" s="2" t="s">
         <v>306</v>
       </c>
@@ -9373,33 +9439,36 @@
         <v>339</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>1392</v>
+        <v>1381</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>1296</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>550</v>
+        <v>1382</v>
       </c>
       <c r="K73" s="3"/>
       <c r="Q73" s="3"/>
@@ -9409,70 +9478,72 @@
       <c r="T73" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X73" s="3"/>
+      <c r="W73" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>511</v>
+        <v>1393</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>500</v>
+        <v>1390</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>512</v>
+        <v>1391</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>514</v>
+        <v>1392</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>485</v>
+        <v>1394</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>515</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="Q74" s="3"/>
       <c r="S74" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="V74" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X74" s="3" t="s">
-        <v>510</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>306</v>
@@ -9481,39 +9552,33 @@
         <v>484</v>
       </c>
       <c r="V75" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>1192</v>
+        <v>518</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>306</v>
@@ -9522,48 +9587,39 @@
         <v>484</v>
       </c>
       <c r="V76" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>526</v>
+        <v>1192</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P77" s="3" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>306</v>
@@ -9572,36 +9628,48 @@
         <v>484</v>
       </c>
       <c r="V77" s="13">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>306</v>
@@ -9610,36 +9678,36 @@
         <v>484</v>
       </c>
       <c r="V78" s="13">
-        <v>5</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>534</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>1183</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>306</v>
@@ -9651,33 +9719,33 @@
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>544</v>
+        <v>1183</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>306</v>
@@ -9686,36 +9754,36 @@
         <v>484</v>
       </c>
       <c r="V80" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>306</v>
@@ -9724,36 +9792,36 @@
         <v>484</v>
       </c>
       <c r="V81" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>306</v>
@@ -9765,36 +9833,33 @@
         <v>5</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>1192</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>306</v>
@@ -9803,42 +9868,39 @@
         <v>484</v>
       </c>
       <c r="V83" s="13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1212</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1215</v>
+        <v>522</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>1216</v>
+        <v>523</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1217</v>
+        <v>320</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1218</v>
+        <v>494</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1219</v>
+        <v>253</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>1220</v>
+        <v>53</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>306</v>
@@ -9847,38 +9909,42 @@
         <v>484</v>
       </c>
       <c r="V84" s="13">
-        <v>5</v>
-      </c>
-      <c r="X84" s="3" t="s">
-        <v>1214</v>
+        <v>3.3</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>1351</v>
+        <v>1213</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1352</v>
+        <v>1212</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1357</v>
+        <v>1215</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>1358</v>
+        <v>1216</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1356</v>
+        <v>1218</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="L85" s="3" t="s">
-        <v>1354</v>
+        <v>1219</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>306</v>
@@ -9886,72 +9952,77 @@
       <c r="T85" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="W85" s="16" t="s">
-        <v>1359</v>
+      <c r="V85" s="13">
+        <v>5</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>1353</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>726</v>
+        <v>1351</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>665</v>
+        <v>1352</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>727</v>
+        <v>1357</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>287</v>
+        <v>1358</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>558</v>
+        <v>1356</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>559</v>
+        <v>1355</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="L86" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="V86" s="13">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="W86" s="16" t="s">
+        <v>1359</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>725</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>306</v>
@@ -9963,33 +10034,30 @@
         <v>5</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>306</v>
@@ -9998,39 +10066,36 @@
         <v>557</v>
       </c>
       <c r="V88" s="13">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>320</v>
+        <v>737</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>306</v>
@@ -10039,39 +10104,39 @@
         <v>557</v>
       </c>
       <c r="V89" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>738</v>
+        <v>4.3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>747</v>
+        <v>251</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>306</v>
@@ -10080,39 +10145,39 @@
         <v>557</v>
       </c>
       <c r="V90" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>306</v>
@@ -10121,39 +10186,39 @@
         <v>557</v>
       </c>
       <c r="V91" s="13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>757</v>
+        <v>320</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>306</v>
@@ -10162,39 +10227,39 @@
         <v>557</v>
       </c>
       <c r="V92" s="13">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>1184</v>
+        <v>754</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>306</v>
@@ -10203,39 +10268,39 @@
         <v>557</v>
       </c>
       <c r="V93" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>765</v>
+        <v>1184</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>306</v>
@@ -10244,36 +10309,39 @@
         <v>557</v>
       </c>
       <c r="V94" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>478</v>
+        <v>622</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>306</v>
@@ -10282,39 +10350,36 @@
         <v>557</v>
       </c>
       <c r="V95" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>306</v>
@@ -10323,39 +10388,39 @@
         <v>557</v>
       </c>
       <c r="V96" s="13">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>306</v>
@@ -10364,39 +10429,39 @@
         <v>557</v>
       </c>
       <c r="V97" s="13">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>454</v>
+        <v>784</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>306</v>
@@ -10405,39 +10470,39 @@
         <v>557</v>
       </c>
       <c r="V98" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X98" s="3" t="s">
-        <v>786</v>
+        <v>4.8</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>306</v>
@@ -10446,39 +10511,39 @@
         <v>557</v>
       </c>
       <c r="V99" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>792</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>1185</v>
+        <v>793</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>801</v>
+        <v>454</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>306</v>
@@ -10487,33 +10552,39 @@
         <v>557</v>
       </c>
       <c r="V100" s="13">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>798</v>
+        <v>4.7</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>800</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>306</v>
@@ -10522,36 +10593,33 @@
         <v>557</v>
       </c>
       <c r="V101" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>803</v>
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>807</v>
+        <v>1186</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>306</v>
@@ -10560,39 +10628,36 @@
         <v>557</v>
       </c>
       <c r="V102" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>816</v>
+        <v>627</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>306</v>
@@ -10601,39 +10666,39 @@
         <v>557</v>
       </c>
       <c r="V103" s="13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>821</v>
+        <v>628</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>306</v>
@@ -10642,39 +10707,39 @@
         <v>557</v>
       </c>
       <c r="V104" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>1187</v>
+        <v>818</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>306</v>
@@ -10683,39 +10748,39 @@
         <v>557</v>
       </c>
       <c r="V105" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>828</v>
+        <v>1187</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>306</v>
@@ -10724,39 +10789,39 @@
         <v>557</v>
       </c>
       <c r="V106" s="13">
-        <v>4</v>
-      </c>
-      <c r="X106" s="3" t="s">
-        <v>827</v>
+        <v>3.9</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>1191</v>
+        <v>828</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>524</v>
+        <v>831</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>306</v>
@@ -10765,39 +10830,39 @@
         <v>557</v>
       </c>
       <c r="V107" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X107" s="2" t="s">
-        <v>832</v>
+        <v>4</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>840</v>
+        <v>253</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>306</v>
@@ -10806,39 +10871,39 @@
         <v>557</v>
       </c>
       <c r="V108" s="13">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>320</v>
+        <v>839</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>845</v>
+        <v>630</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>306</v>
@@ -10847,36 +10912,39 @@
         <v>557</v>
       </c>
       <c r="V109" s="13">
-        <v>5</v>
-      </c>
-      <c r="X109" s="3" t="s">
-        <v>841</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>849</v>
+        <v>320</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>306</v>
@@ -10885,39 +10953,36 @@
         <v>557</v>
       </c>
       <c r="V110" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="X110" s="2" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="X110" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>856</v>
+        <v>632</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>306</v>
@@ -10926,39 +10991,39 @@
         <v>557</v>
       </c>
       <c r="V111" s="13">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>862</v>
+        <v>633</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>306</v>
@@ -10967,39 +11032,39 @@
         <v>557</v>
       </c>
       <c r="V112" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X112" s="3" t="s">
-        <v>858</v>
+        <v>5</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>287</v>
+        <v>861</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>867</v>
+        <v>634</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>306</v>
@@ -11008,48 +11073,39 @@
         <v>557</v>
       </c>
       <c r="V113" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>872</v>
+        <v>287</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>874</v>
+        <v>635</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>306</v>
@@ -11061,30 +11117,45 @@
         <v>5</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>306</v>
@@ -11093,39 +11164,33 @@
         <v>557</v>
       </c>
       <c r="V115" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>166</v>
+        <v>879</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>306</v>
@@ -11134,36 +11199,39 @@
         <v>557</v>
       </c>
       <c r="V116" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X116" s="2" t="s">
-        <v>880</v>
+        <v>4</v>
+      </c>
+      <c r="X116" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>886</v>
+        <v>166</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>306</v>
@@ -11172,39 +11240,36 @@
         <v>557</v>
       </c>
       <c r="V117" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X117" s="3" t="s">
-        <v>883</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X117" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>306</v>
@@ -11213,42 +11278,39 @@
         <v>557</v>
       </c>
       <c r="V118" s="13">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S119" s="2" t="s">
         <v>306</v>
@@ -11257,39 +11319,42 @@
         <v>557</v>
       </c>
       <c r="V119" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>306</v>
@@ -11298,36 +11363,39 @@
         <v>557</v>
       </c>
       <c r="V120" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>905</v>
+        <v>1189</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="S121" s="2" t="s">
         <v>306</v>
@@ -11336,18 +11404,18 @@
         <v>557</v>
       </c>
       <c r="V121" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>183</v>
@@ -11356,19 +11424,16 @@
         <v>906</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>920</v>
+        <v>643</v>
       </c>
       <c r="S122" s="2" t="s">
         <v>306</v>
@@ -11377,42 +11442,39 @@
         <v>557</v>
       </c>
       <c r="V122" s="13">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>918</v>
+        <v>644</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="S123" s="2" t="s">
         <v>306</v>
@@ -11421,33 +11483,42 @@
         <v>557</v>
       </c>
       <c r="V123" s="13">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="S124" s="2" t="s">
         <v>306</v>
@@ -11455,37 +11526,34 @@
       <c r="T124" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X124" s="2" t="s">
-        <v>921</v>
+      <c r="V124" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>930</v>
+        <v>646</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>306</v>
@@ -11493,40 +11561,37 @@
       <c r="T125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V125" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X125" s="3" t="s">
-        <v>925</v>
+      <c r="X125" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1190</v>
+        <v>926</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>253</v>
+        <v>647</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="S126" s="2" t="s">
         <v>306</v>
@@ -11535,39 +11600,39 @@
         <v>557</v>
       </c>
       <c r="V126" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>931</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>936</v>
+        <v>1190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>939</v>
+        <v>253</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="S127" s="2" t="s">
         <v>306</v>
@@ -11576,45 +11641,39 @@
         <v>557</v>
       </c>
       <c r="V127" s="13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>944</v>
+        <v>320</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>947</v>
+        <v>389</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="S128" s="2" t="s">
         <v>306</v>
@@ -11623,39 +11682,45 @@
         <v>557</v>
       </c>
       <c r="V128" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X128" s="3" t="s">
-        <v>940</v>
+        <v>3.4</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>953</v>
+        <v>648</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="S129" s="2" t="s">
         <v>306</v>
@@ -11664,33 +11729,39 @@
         <v>557</v>
       </c>
       <c r="V129" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>948</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X129" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>320</v>
+        <v>952</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="S130" s="2" t="s">
         <v>306</v>
@@ -11699,36 +11770,33 @@
         <v>557</v>
       </c>
       <c r="V130" s="13">
-        <v>3</v>
-      </c>
-      <c r="X130" s="3" t="s">
-        <v>954</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X130" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>961</v>
+        <v>650</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>306</v>
@@ -11736,34 +11804,37 @@
       <c r="T131" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X131" s="2" t="s">
-        <v>957</v>
+      <c r="V131" s="13">
+        <v>3</v>
+      </c>
+      <c r="X131" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>306</v>
@@ -11771,40 +11842,34 @@
       <c r="T132" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V132" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="X132" s="3" t="s">
-        <v>962</v>
+      <c r="X132" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>970</v>
+        <v>652</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>306</v>
@@ -11813,30 +11878,39 @@
         <v>557</v>
       </c>
       <c r="V133" s="13">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>972</v>
+        <v>1198</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>306</v>
@@ -11845,33 +11919,30 @@
         <v>557</v>
       </c>
       <c r="V134" s="13">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>306</v>
@@ -11880,36 +11951,33 @@
         <v>557</v>
       </c>
       <c r="V135" s="13">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>306</v>
@@ -11918,39 +11986,36 @@
         <v>557</v>
       </c>
       <c r="V136" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1197</v>
+        <v>979</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>981</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>815</v>
+        <v>982</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>306</v>
@@ -11959,45 +12024,39 @@
         <v>557</v>
       </c>
       <c r="V137" s="13">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>988</v>
+        <v>1197</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>991</v>
+        <v>815</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M138" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>306</v>
@@ -12009,39 +12068,42 @@
         <v>5</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>306</v>
@@ -12052,37 +12114,40 @@
       <c r="V139" s="13">
         <v>5</v>
       </c>
-      <c r="X139" s="2" t="s">
-        <v>995</v>
+      <c r="X139" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>306</v>
@@ -12091,39 +12156,39 @@
         <v>557</v>
       </c>
       <c r="V140" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X140" s="3" t="s">
-        <v>1002</v>
+        <v>5</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>1013</v>
+        <v>660</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>306</v>
@@ -12132,42 +12197,39 @@
         <v>557</v>
       </c>
       <c r="V141" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="X141" s="2" t="s">
-        <v>1008</v>
+        <v>4.5</v>
+      </c>
+      <c r="X141" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>1020</v>
+        <v>330</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>306</v>
@@ -12176,39 +12238,42 @@
         <v>557</v>
       </c>
       <c r="V142" s="13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>306</v>
@@ -12217,36 +12282,39 @@
         <v>557</v>
       </c>
       <c r="V143" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>306</v>
@@ -12255,36 +12323,36 @@
         <v>557</v>
       </c>
       <c r="V144" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X144" s="3" t="s">
-        <v>1027</v>
+        <v>4.8</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>320</v>
+        <v>1031</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>306</v>
@@ -12293,36 +12361,36 @@
         <v>557</v>
       </c>
       <c r="V145" s="13">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X145" s="3" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1032</v>
+        <v>724</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1048</v>
+        <v>618</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1064</v>
+        <v>664</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>306</v>
@@ -12331,39 +12399,36 @@
         <v>557</v>
       </c>
       <c r="V146" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X146" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>306</v>
@@ -12374,37 +12439,37 @@
       <c r="V147" s="13">
         <v>5</v>
       </c>
-      <c r="X147" s="2" t="s">
-        <v>1087</v>
+      <c r="X147" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1096</v>
+        <v>320</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>306</v>
@@ -12413,39 +12478,39 @@
         <v>557</v>
       </c>
       <c r="V148" s="13">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>1102</v>
+        <v>1066</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>306</v>
@@ -12454,36 +12519,39 @@
         <v>557</v>
       </c>
       <c r="V149" s="13">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>306</v>
@@ -12492,39 +12560,36 @@
         <v>557</v>
       </c>
       <c r="V150" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1111</v>
+        <v>320</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>306</v>
@@ -12536,36 +12601,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X151" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>454</v>
+        <v>1111</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>1117</v>
+        <v>1069</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>306</v>
@@ -12574,36 +12639,39 @@
         <v>557</v>
       </c>
       <c r="V152" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>306</v>
@@ -12611,34 +12679,37 @@
       <c r="T153" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X153" s="3" t="s">
-        <v>1118</v>
+      <c r="V153" s="13">
+        <v>5</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>306</v>
@@ -12646,34 +12717,34 @@
       <c r="T154" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V154" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X154" s="2" t="s">
-        <v>1123</v>
+      <c r="X154" s="3" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>320</v>
+        <v>1127</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>306</v>
@@ -12682,39 +12753,33 @@
         <v>557</v>
       </c>
       <c r="V155" s="13">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1134</v>
+        <v>320</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>1135</v>
+        <v>1073</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>306</v>
@@ -12723,39 +12788,39 @@
         <v>557</v>
       </c>
       <c r="V156" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="X156" s="3" t="s">
-        <v>1130</v>
+        <v>5</v>
+      </c>
+      <c r="X156" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>306</v>
@@ -12764,39 +12829,39 @@
         <v>557</v>
       </c>
       <c r="V157" s="13">
-        <v>5</v>
-      </c>
-      <c r="X157" s="2" t="s">
-        <v>1136</v>
+        <v>4.5</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>306</v>
@@ -12805,36 +12870,39 @@
         <v>557</v>
       </c>
       <c r="V158" s="13">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>1152</v>
+        <v>1076</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>306</v>
@@ -12843,39 +12911,36 @@
         <v>557</v>
       </c>
       <c r="V159" s="13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>48</v>
+        <v>1077</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>306</v>
@@ -12884,30 +12949,39 @@
         <v>557</v>
       </c>
       <c r="V160" s="13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1177</v>
+        <v>1155</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1078</v>
+        <v>252</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>306</v>
@@ -12915,34 +12989,31 @@
       <c r="T161" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V161" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X161" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="162" spans="1:24" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1253</v>
+        <v>1047</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>1259</v>
+        <v>1177</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1255</v>
+        <v>1063</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>1261</v>
+        <v>1078</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>306</v>
@@ -12950,31 +13021,34 @@
       <c r="T162" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="V162" s="13">
-        <v>5</v>
-      </c>
-      <c r="X162" s="2" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="163" spans="1:24" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>1316</v>
+        <v>1257</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1317</v>
+        <v>1258</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1310</v>
+        <v>1255</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1313</v>
+        <v>1256</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>1261</v>
       </c>
       <c r="S163" s="2" t="s">
         <v>306</v>
@@ -12982,25 +13056,31 @@
       <c r="T163" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="V163" s="13">
+        <v>5</v>
+      </c>
+      <c r="X163" s="2" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="164" spans="1:24" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>389</v>
+        <v>1313</v>
       </c>
       <c r="S164" s="2" t="s">
         <v>306</v>
@@ -13011,25 +13091,22 @@
     </row>
     <row r="165" spans="1:24" ht="20" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>1314</v>
+        <v>389</v>
       </c>
       <c r="S165" s="2" t="s">
         <v>306</v>
@@ -13037,31 +13114,28 @@
       <c r="T165" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X165" s="2" t="s">
-        <v>1318</v>
-      </c>
     </row>
     <row r="166" spans="1:24" ht="20" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>1383</v>
+        <v>1321</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="S166" s="2" t="s">
         <v>306</v>
@@ -13069,31 +13143,31 @@
       <c r="T166" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="W166" s="2" t="s">
-        <v>1384</v>
+      <c r="X166" s="2" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="20" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>1383</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="S167" s="2" t="s">
         <v>306</v>
@@ -13101,33 +13175,65 @@
       <c r="T167" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="X167" s="2" t="s">
-        <v>1331</v>
+      <c r="W167" s="2" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="20" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1339</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>330</v>
+        <v>1329</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="S168" s="2" t="s">
         <v>306</v>
       </c>
       <c r="T168" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X168" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="20" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T169" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13180,148 +13286,148 @@
     <hyperlink ref="M32" r:id="rId39" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
     <hyperlink ref="K32" r:id="rId40" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
     <hyperlink ref="I35" r:id="rId41" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X44" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I44" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X45" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X46" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X47" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J47" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M47" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X48" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J48" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X50" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I50" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X51" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J51" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M51" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X52" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I52" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X53" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I54" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I55" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X56" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J56" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I56" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X57" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L57" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K57" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I58" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X59" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J60" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X61" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J61" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X62" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X63" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I63" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X74" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N74" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X75" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X76" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I76" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X77" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P77" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O77" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N77" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I77" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I79" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I83" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X86" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X87" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X88" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I90" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I91" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I92" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I93" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I94" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I96" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I97" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X98" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I98" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I99" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X100" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X106" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I108" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X109" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J109" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K109" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X112" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X113" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X114" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M114" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I114" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K114" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X115" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I116" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X117" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X118" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I118" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X119" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I119" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K119" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X120" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I120" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X121" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X122" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X123" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J123" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I123" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X125" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I127" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X128" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J128" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M128" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X130" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X132" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X133" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J133" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X134" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X135" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X136" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X137" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J137" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K137" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X138" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J138" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M138" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I138" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J139" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I139" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X140" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I140" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J141" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I142" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K142" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K143" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X144" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X145" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X146" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J147" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J148" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I149" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I151" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J152" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X153" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X156" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J156" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J157" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I158" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J159" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I160" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X45" r:id="rId42" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I45" r:id="rId43" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X46" r:id="rId44" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X47" r:id="rId45" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X48" r:id="rId46" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M48" r:id="rId48" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X49" r:id="rId49" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J49" r:id="rId50" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X51" r:id="rId51" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I51" r:id="rId52" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X52" r:id="rId53" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J52" r:id="rId54" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M52" r:id="rId55" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X53" r:id="rId56" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I53" r:id="rId57" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X54" r:id="rId58" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I55" r:id="rId59" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I56" r:id="rId60" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X57" r:id="rId61" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J57" r:id="rId62" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I57" r:id="rId63" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X58" r:id="rId64" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L58" r:id="rId65" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K58" r:id="rId66" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I59" r:id="rId67" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X60" r:id="rId68" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J61" r:id="rId69" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X62" r:id="rId70" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J62" r:id="rId71" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X63" r:id="rId72" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X64" r:id="rId73" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I64" r:id="rId74" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X75" r:id="rId75" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N75" r:id="rId76" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X76" r:id="rId77" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X77" r:id="rId78" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I77" r:id="rId79" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X78" r:id="rId80" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P78" r:id="rId81" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O78" r:id="rId82" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N78" r:id="rId83" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I78" r:id="rId84" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I80" r:id="rId85" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I84" r:id="rId86" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X87" r:id="rId87" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X88" r:id="rId88" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X89" r:id="rId89" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I91" r:id="rId90" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I92" r:id="rId91" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I93" r:id="rId92" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I94" r:id="rId93" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I95" r:id="rId94" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I97" r:id="rId95" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I98" r:id="rId96" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X99" r:id="rId97" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I99" r:id="rId98" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I100" r:id="rId99" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X101" r:id="rId100" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A103" r:id="rId101" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X107" r:id="rId102" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I109" r:id="rId103" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X110" r:id="rId104" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J110" r:id="rId105" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K110" r:id="rId106" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X113" r:id="rId107" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X114" r:id="rId108" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X115" r:id="rId109" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M115" r:id="rId110" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I115" r:id="rId111" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K115" r:id="rId112" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X116" r:id="rId113" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I117" r:id="rId114" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X118" r:id="rId115" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X119" r:id="rId116" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I119" r:id="rId117" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X120" r:id="rId118" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I120" r:id="rId119" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K120" r:id="rId120" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X121" r:id="rId121" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I121" r:id="rId122" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X122" r:id="rId123" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X123" r:id="rId124" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X124" r:id="rId125" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J124" r:id="rId126" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I124" r:id="rId127" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X126" r:id="rId128" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I128" r:id="rId129" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X129" r:id="rId130" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J129" r:id="rId131" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M129" r:id="rId132" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X131" r:id="rId133" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X133" r:id="rId134" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X134" r:id="rId135" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J134" r:id="rId136" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X135" r:id="rId137" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X136" r:id="rId138" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X137" r:id="rId139" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X138" r:id="rId140" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J138" r:id="rId141" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K138" r:id="rId142" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X139" r:id="rId143" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J139" r:id="rId144" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M139" r:id="rId145" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I139" r:id="rId146" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J140" r:id="rId147" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I140" r:id="rId148" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X141" r:id="rId149" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I141" r:id="rId150" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J142" r:id="rId151" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I143" r:id="rId152" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K143" r:id="rId153" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K144" r:id="rId154" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X145" r:id="rId155" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X146" r:id="rId156" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X147" r:id="rId157" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J148" r:id="rId158" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J149" r:id="rId159" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I150" r:id="rId160" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I152" r:id="rId161" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J153" r:id="rId162" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X154" r:id="rId163" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X157" r:id="rId164" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J157" r:id="rId165" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J158" r:id="rId166" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I159" r:id="rId167" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J160" r:id="rId168" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I161" r:id="rId169" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
     <hyperlink ref="I28" r:id="rId170" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
     <hyperlink ref="I37" r:id="rId171" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
     <hyperlink ref="J17" r:id="rId172" xr:uid="{6E83A707-71AF-494D-8F4B-7B13105EA7BC}"/>
     <hyperlink ref="K38" r:id="rId173" xr:uid="{6D753258-C129-5741-A409-5C9ED0FF3331}"/>
     <hyperlink ref="J38" r:id="rId174" xr:uid="{6AFEAB47-A815-1941-B404-C89E2B005C97}"/>
     <hyperlink ref="L38" r:id="rId175" xr:uid="{BE95ECD7-EB32-4849-B2D5-B321519C9719}"/>
-    <hyperlink ref="X84" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
-    <hyperlink ref="J84" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
-    <hyperlink ref="I84" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
-    <hyperlink ref="X67" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
-    <hyperlink ref="X68" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
-    <hyperlink ref="K68" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
-    <hyperlink ref="X69" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
-    <hyperlink ref="J162" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
+    <hyperlink ref="X85" r:id="rId176" xr:uid="{B15406AE-93A4-0D48-A341-83007ACB9B16}"/>
+    <hyperlink ref="J85" r:id="rId177" xr:uid="{C68CF76A-F652-5246-822A-2E346BE6A82A}"/>
+    <hyperlink ref="I85" r:id="rId178" xr:uid="{9F1B8A1D-6E6E-AA4A-871E-6A7C3DA81BDA}"/>
+    <hyperlink ref="X68" r:id="rId179" xr:uid="{25AC2047-B203-C443-9E09-62AA3286E143}"/>
+    <hyperlink ref="X69" r:id="rId180" display="https://www.google.com/maps/place/%E8%93%81%E5%A5%BD%E8%94%AC%E6%9E%9C1%E8%99%9F%E5%BA%97/@25.0476903,121.3824891,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7ae7c8d0225:0xb2b3216464a2191a!8m2!3d25.0476855!4d121.385064!16s%2Fg%2F11k52m3sjm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5F008DF8-8471-6D4D-A3DD-7752AE19CF78}"/>
+    <hyperlink ref="K69" r:id="rId181" xr:uid="{0F158E5B-2AC6-E54E-BDD4-E486C47471B2}"/>
+    <hyperlink ref="X70" r:id="rId182" display="https://www.google.com/maps/place/%E9%B5%9D%E5%A6%B9%E8%8E%89%E5%8D%A1+%E7%94%9F%E6%B4%BB%E6%97%A5%E7%94%A8%E5%93%81/@25.0477532,121.3822871,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fe6bca97fd:0xc684885b758ac56d!8m2!3d25.0477484!4d121.384862!16s%2Fg%2F11v9kkxdgz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{0CD48403-53EA-D945-9811-18A1B9DC4580}"/>
+    <hyperlink ref="J163" r:id="rId183" xr:uid="{7400D474-2A9F-F545-ADF7-DAF98CE51B70}"/>
     <hyperlink ref="J18" r:id="rId184" xr:uid="{B9A81A55-3EB0-6047-B04A-4ED8E757A794}"/>
     <hyperlink ref="X18" r:id="rId185" display="https://www.google.com/maps/place/%E5%A5%BDHow+Kan%E5%BF%AB%E5%89%AA%E4%BA%8B%E5%8B%99%E6%89%80/@25.0543196,121.3801818,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fd67b0653b:0x8d62665d7fe82324!8m2!3d25.0543196!4d121.3827567!16s%2Fg%2F11vj6knzk0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7E6923A2-0F46-0E43-999C-80B3452A4A58}"/>
     <hyperlink ref="L18" r:id="rId186" xr:uid="{958359BB-1DF3-5B42-AFAF-C99F2787C5EF}"/>
@@ -13333,18 +13439,20 @@
     <hyperlink ref="J42" r:id="rId192" xr:uid="{F54ED4E7-872C-C34A-9481-F9C5DC1B371F}"/>
     <hyperlink ref="L42" r:id="rId193" xr:uid="{FE7A7C8F-DB5F-AD47-BC2D-35996BF6B155}"/>
     <hyperlink ref="I42" r:id="rId194" xr:uid="{C4930A41-0934-F04C-B5CB-539987E59D6D}"/>
-    <hyperlink ref="K167" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
+    <hyperlink ref="K168" r:id="rId195" xr:uid="{6BBF2BE1-D758-DD48-8752-F7ECC270FA4D}"/>
     <hyperlink ref="M42" r:id="rId196" xr:uid="{18F8585B-38D8-4E40-B41D-F8731E4D741F}"/>
     <hyperlink ref="K42" r:id="rId197" xr:uid="{A13B49E9-F320-164E-8483-8F3017AAC708}"/>
-    <hyperlink ref="X70" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
-    <hyperlink ref="X85" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
-    <hyperlink ref="L85" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
+    <hyperlink ref="X71" r:id="rId198" display="https://www.google.com/maps/place/%E5%85%A8%E8%81%AF%E7%A6%8F%E5%88%A9%E4%B8%AD%E5%BF%83%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/@25.0488524,121.3760046,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7faa580fc47:0xdb407e8ed02d7220!8m2!3d25.0488476!4d121.3808755!16s%2Fg%2F11vdk6xv0r?hl=zh-TW&amp;entry=ttu" xr:uid="{53BBB243-660A-564A-8415-324C7887A8F5}"/>
+    <hyperlink ref="X86" r:id="rId199" display="https://www.google.com/maps/place/%E5%B4%9D%E8%97%9D%E8%A1%93%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.0463574,121.3917494,20z/data=!4m6!3m5!1s0x3442a70016ea6b4d:0xfdfdee5d85332f7e!8m2!3d25.0463026!4d121.3918284!16s%2Fg%2F11vl_t_dmj?hl=zh-TW&amp;entry=ttu" xr:uid="{4B03CC1A-68A7-4C4F-9905-02056B7E32FD}"/>
+    <hyperlink ref="L86" r:id="rId200" xr:uid="{B54BC62A-E581-894D-BC4F-12404E867B07}"/>
     <hyperlink ref="J43" r:id="rId201" xr:uid="{0F69EF62-BD50-AC4C-A715-E1AB78A61135}"/>
     <hyperlink ref="M43" r:id="rId202" xr:uid="{23CBFD41-E650-444C-B711-63061E459267}"/>
-    <hyperlink ref="K71" r:id="rId203" xr:uid="{1E68E13C-94CE-5F43-80F1-F7867AC7658B}"/>
-    <hyperlink ref="Q71" r:id="rId204" xr:uid="{34660E1E-63CA-564A-840B-A02EE45AB4C7}"/>
-    <hyperlink ref="X71" r:id="rId205" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu" xr:uid="{C2E9B6A9-E4C1-7B47-9E3D-18DB98072451}"/>
-    <hyperlink ref="X72" r:id="rId206" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E6%A8%82%E5%96%84%E4%BA%8C%E8%B7%AF211%E8%99%9F/@25.0464828,121.3847903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76cc42c6eab:0x90e9d7f74428623c!8m2!3d25.0464828!4d121.3847903?hl=zh-TW&amp;entry=ttu" xr:uid="{CADAD1B8-979D-6449-8CFC-0E8AC6729E42}"/>
+    <hyperlink ref="K72" r:id="rId203" xr:uid="{1E68E13C-94CE-5F43-80F1-F7867AC7658B}"/>
+    <hyperlink ref="Q72" r:id="rId204" xr:uid="{34660E1E-63CA-564A-840B-A02EE45AB4C7}"/>
+    <hyperlink ref="X72" r:id="rId205" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E8%8F%AF%E4%BA%9E%E4%B8%89%E8%B7%AF39%E5%B7%B722%E8%99%9F/@25.0488949,121.379,17z/data=!4m5!3m4!1s0x3442a714b94cffd7:0x6875da8207277dab!8m2!3d25.0488949!4d121.3815803?entry=ttu" xr:uid="{C2E9B6A9-E4C1-7B47-9E3D-18DB98072451}"/>
+    <hyperlink ref="X73" r:id="rId206" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E6%A8%82%E5%96%84%E4%BA%8C%E8%B7%AF211%E8%99%9F/@25.0464828,121.3847903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76cc42c6eab:0x90e9d7f74428623c!8m2!3d25.0464828!4d121.3847903?hl=zh-TW&amp;entry=ttu" xr:uid="{CADAD1B8-979D-6449-8CFC-0E8AC6729E42}"/>
+    <hyperlink ref="J44" r:id="rId207" xr:uid="{4E7794C1-84C9-A84F-9E36-333D956B54B5}"/>
+    <hyperlink ref="M44" r:id="rId208" xr:uid="{A2EEA455-126B-3D41-9138-3237304CEF53}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0470E72-3B26-B24D-B7FD-EBB9600E91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DF0C1-86C1-2048-9370-102A5CB8EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="-24360" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="-25460" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1406">
   <si>
     <t>address</t>
   </si>
@@ -5191,18 +5191,14 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>warmthclinic033974025</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;
 院長: 戴曉芙醫師∣詹承運醫師 &lt;br&gt;
 成人及小兒耳鼻喉疾病、聽力障礙、耳鳴、眩暈、中耳炎、外耳炎、鼻過敏、急性及慢性鼻竇炎、口腔潰瘍、慢性咳嗽、聲音沙啞、吞嚥困難、頭頸部腫瘤、睡眠呼吸中止、高血壓、高血脂、糖尿病、慢性疾病、內科疾病、成人健康檢查、簡易外傷處理、醫學美容
 &lt;/p&gt;
 &lt;br&gt;
-&lt;img src="/images/shopping/SHO-S1-045-1.jpeg"  class="max-w-sm"  /&gt;
-&lt;img src="/images/shopping/SHO-S1-045-2.png"  class="max-w-sm"  /&gt;
-&lt;img src="/images/shopping/SHO-S1-045-3.png"  class="max-w-sm"  /&gt;</t>
+&lt;img src="/images/shopping/SHO-S1-045-1.jpeg"  class="max-w-md"  /&gt;
+&lt;img src="/images/shopping/SHO-S1-045-2.png"  class="max-w-md"  /&gt;
+&lt;img src="/images/shopping/SHO-S1-045-3.png"  class="max-w-md"  /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5317,7 +5313,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5367,9 +5363,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6503,10 +6496,10 @@
   <dimension ref="A1:AA169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W44" sqref="W44"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -8326,9 +8319,7 @@
         <v>1403</v>
       </c>
       <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
-        <v>1405</v>
-      </c>
+      <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
         <v>1404</v>
       </c>
@@ -8338,8 +8329,8 @@
       <c r="T44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>1406</v>
+      <c r="W44" s="16" t="s">
+        <v>1405</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>1398</v>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DF0C1-86C1-2048-9370-102A5CB8EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54604F-DDBE-8B46-A86F-D7921932AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="-25460" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12260" yWindow="-26560" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1409">
   <si>
     <t>address</t>
   </si>
@@ -5108,10 +5108,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S5-081-1.jpeg" class="max-w-sm" /&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/shop/SHO-S3-026.jpeg" class="max-w-sm" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -5199,6 +5195,22 @@
 &lt;img src="/images/shopping/SHO-S1-045-1.jpeg"  class="max-w-md"  /&gt;
 &lt;img src="/images/shopping/SHO-S1-045-2.png"  class="max-w-md"  /&gt;
 &lt;img src="/images/shopping/SHO-S1-045-3.png"  class="max-w-md"  /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61557684172262&amp;mibextid=dGKdO6</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxkaiwai229@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="/images/shopping/SHO-S5-081-2.jpeg" class="max-w-sm" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://liff.line.me/1645278921-kWRPP32q/?accountId=522rfivr</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6496,10 +6508,10 @@
   <dimension ref="A1:AA169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -8291,37 +8303,37 @@
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>1402</v>
-      </c>
       <c r="G44" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>1397</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>108</v>
@@ -8330,10 +8342,10 @@
         <v>34</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
@@ -9397,7 +9409,7 @@
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1371</v>
@@ -9412,7 +9424,7 @@
         <v>1296</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>1373</v>
@@ -9430,7 +9442,7 @@
         <v>339</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>1376</v>
@@ -9456,7 +9468,7 @@
         <v>1296</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>1382</v>
@@ -9470,7 +9482,7 @@
         <v>339</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="X73" s="3" t="s">
         <v>1380</v>
@@ -9478,22 +9490,22 @@
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>1392</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>550</v>
@@ -13160,6 +13172,15 @@
       <c r="H167" s="2" t="s">
         <v>1325</v>
       </c>
+      <c r="J167" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>1406</v>
+      </c>
       <c r="S167" s="2" t="s">
         <v>306</v>
       </c>
@@ -13167,7 +13188,7 @@
         <v>557</v>
       </c>
       <c r="W167" s="2" t="s">
-        <v>1384</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="20" customHeight="1">
@@ -13444,6 +13465,9 @@
     <hyperlink ref="X73" r:id="rId206" display="https://www.google.com/maps/place/333%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B1%E5%8D%80%E6%A8%82%E5%96%84%E4%BA%8C%E8%B7%AF211%E8%99%9F/@25.0464828,121.3847903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76cc42c6eab:0x90e9d7f74428623c!8m2!3d25.0464828!4d121.3847903?hl=zh-TW&amp;entry=ttu" xr:uid="{CADAD1B8-979D-6449-8CFC-0E8AC6729E42}"/>
     <hyperlink ref="J44" r:id="rId207" xr:uid="{4E7794C1-84C9-A84F-9E36-333D956B54B5}"/>
     <hyperlink ref="M44" r:id="rId208" xr:uid="{A2EEA455-126B-3D41-9138-3237304CEF53}"/>
+    <hyperlink ref="J167" r:id="rId209" xr:uid="{596C252E-F2BD-264D-9438-42DA217FBD67}"/>
+    <hyperlink ref="M167" r:id="rId210" xr:uid="{17D44231-A3BF-BD47-8680-4E3095F4DEEB}"/>
+    <hyperlink ref="K167" r:id="rId211" xr:uid="{DA8EBEB2-7EBF-964C-9EB2-FD03E586E5C8}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
